--- a/EnquetCNLnew.xlsx
+++ b/EnquetCNLnew.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -478,16 +478,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>AMMARI</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>ZOHRA</v>
       </c>
       <c r="D2" t="str">
-        <v>m</v>
+        <v>F</v>
       </c>
       <c r="E2" t="str">
-        <v>11-11-1986</v>
+        <v>00/00/1952</v>
       </c>
       <c r="F2" t="str">
         <v/>
@@ -499,19 +499,19 @@
         <v/>
       </c>
       <c r="I2" t="str">
-        <v/>
+        <v>86</v>
       </c>
       <c r="J2" t="str">
-        <v/>
+        <v>D</v>
       </c>
       <c r="K2" t="str">
-        <v/>
+        <v>SEGHIR</v>
       </c>
       <c r="L2" t="str">
-        <v/>
+        <v>MANGAA</v>
       </c>
       <c r="M2" t="str">
-        <v/>
+        <v>LALIA</v>
       </c>
       <c r="N2" t="str">
         <v/>
@@ -546,19 +546,19 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>BELMESMAR</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>SALIHA</v>
       </c>
       <c r="D3" t="str">
-        <v>m</v>
+        <v>F</v>
       </c>
       <c r="E3" t="str">
-        <v>11-11-1986</v>
+        <v>26/03/1980</v>
       </c>
       <c r="F3" t="str">
         <v/>
@@ -570,19 +570,19 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <v/>
+        <v>250</v>
       </c>
       <c r="J3" t="str">
-        <v/>
+        <v>D</v>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>MOHAMMED</v>
       </c>
       <c r="L3" t="str">
-        <v/>
+        <v>AMMARI</v>
       </c>
       <c r="M3" t="str">
-        <v/>
+        <v>KHEDIDJA</v>
       </c>
       <c r="N3" t="str">
         <v/>
@@ -617,19 +617,19 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="str">
-        <v/>
+        <v>BAHDI</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>MESSAOUDA</v>
       </c>
       <c r="D4" t="str">
-        <v>m</v>
+        <v>F</v>
       </c>
       <c r="E4" t="str">
-        <v>11-11-1986</v>
+        <v>01/07/1985</v>
       </c>
       <c r="F4" t="str">
         <v/>
@@ -641,19 +641,19 @@
         <v/>
       </c>
       <c r="I4" t="str">
-        <v/>
+        <v>269</v>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>D</v>
       </c>
       <c r="K4" t="str">
-        <v/>
+        <v>MOSBAH</v>
       </c>
       <c r="L4" t="str">
-        <v/>
+        <v>MERAD</v>
       </c>
       <c r="M4" t="str">
-        <v/>
+        <v>MEBARKA</v>
       </c>
       <c r="N4" t="str">
         <v/>
@@ -688,19 +688,19 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>HAMMADI</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>NAIMA</v>
       </c>
       <c r="D5" t="str">
-        <v>m</v>
+        <v>F</v>
       </c>
       <c r="E5" t="str">
-        <v>11-11-1986</v>
+        <v>22/08/1987</v>
       </c>
       <c r="F5" t="str">
         <v/>
@@ -712,19 +712,19 @@
         <v/>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>394</v>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>D</v>
       </c>
       <c r="K5" t="str">
-        <v/>
+        <v>MESSAOUD</v>
       </c>
       <c r="L5" t="str">
-        <v/>
+        <v>HAMMADI</v>
       </c>
       <c r="M5" t="str">
-        <v/>
+        <v>MERIEM</v>
       </c>
       <c r="N5" t="str">
         <v/>
@@ -759,19 +759,19 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>KHELFAOUI</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>ZOHRA</v>
       </c>
       <c r="D6" t="str">
-        <v>m</v>
+        <v>F</v>
       </c>
       <c r="E6" t="str">
-        <v>11-11-1986</v>
+        <v>25/11/1958</v>
       </c>
       <c r="F6" t="str">
         <v/>
@@ -783,19 +783,19 @@
         <v/>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>3021</v>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>D</v>
       </c>
       <c r="K6" t="str">
-        <v/>
+        <v>MOHAMMED LATRCHE</v>
       </c>
       <c r="L6" t="str">
-        <v/>
+        <v>LAGGOUN</v>
       </c>
       <c r="M6" t="str">
-        <v/>
+        <v>FATMA</v>
       </c>
       <c r="N6" t="str">
         <v/>
@@ -830,43 +830,43 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="str">
-        <v>lakhdary</v>
+        <v>MANSOURI</v>
       </c>
       <c r="C7" t="str">
-        <v>www</v>
+        <v>LAZHAR</v>
       </c>
       <c r="D7" t="str">
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="E7" t="str">
-        <v>1985-11-11</v>
+        <v>P 1986</v>
       </c>
       <c r="F7" t="str">
         <v/>
       </c>
       <c r="G7" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H7" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I7" t="str">
-        <v>355636</v>
+        <v>264</v>
       </c>
       <c r="J7" t="str">
-        <v>c</v>
+        <v>C</v>
       </c>
       <c r="K7" t="str">
-        <v/>
+        <v>HAMMA</v>
       </c>
       <c r="L7" t="str">
-        <v/>
+        <v>MANSOURI</v>
       </c>
       <c r="M7" t="str">
-        <v/>
+        <v>FATMA</v>
       </c>
       <c r="N7" t="str">
         <v/>
@@ -901,78 +901,4835 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" t="str">
-        <v>mbmk</v>
+        <v>MILOUDA</v>
       </c>
       <c r="C8" t="str">
-        <v>ahmed</v>
+        <v>HAYAT</v>
       </c>
       <c r="D8" t="str">
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="E8" t="str">
-        <v>1988-11-02</v>
+        <v>10/06/1982</v>
       </c>
       <c r="F8" t="str">
         <v/>
       </c>
       <c r="G8" t="str">
-        <v>13</v>
+        <v/>
       </c>
       <c r="H8" t="str">
-        <v>55</v>
+        <v/>
       </c>
       <c r="I8" t="str">
-        <v>48586</v>
+        <v>479</v>
       </c>
       <c r="J8" t="str">
-        <v>m</v>
+        <v>D</v>
       </c>
       <c r="K8" t="str">
-        <v>jsxdchh</v>
+        <v>BEDDA</v>
       </c>
       <c r="L8" t="str">
-        <v>lzedclkn</v>
+        <v>DIDA</v>
       </c>
       <c r="M8" t="str">
-        <v>kjsck</v>
+        <v>AICHA</v>
       </c>
       <c r="N8" t="str">
-        <v>mbrtaa</v>
+        <v/>
       </c>
       <c r="O8" t="str">
-        <v>hdcf hhh</v>
+        <v/>
       </c>
       <c r="P8" t="str">
-        <v>1999-09-19</v>
+        <v/>
       </c>
       <c r="Q8" t="str">
         <v/>
       </c>
       <c r="R8" t="str">
-        <v>13</v>
+        <v/>
       </c>
       <c r="S8" t="str">
-        <v>55</v>
+        <v/>
       </c>
       <c r="T8" t="str">
-        <v>324347</v>
+        <v/>
       </c>
       <c r="U8" t="str">
-        <v>imad</v>
+        <v/>
       </c>
       <c r="V8" t="str">
-        <v>jrfjrfv</v>
+        <v/>
       </c>
       <c r="W8" t="str">
-        <v>sara</v>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="str">
+        <v>FORTAS</v>
+      </c>
+      <c r="C9" t="str">
+        <v>SOUAD</v>
+      </c>
+      <c r="D9" t="str">
+        <v>F</v>
+      </c>
+      <c r="E9" t="str">
+        <v>19/08/1985</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v>354</v>
+      </c>
+      <c r="J9" t="str">
+        <v>D</v>
+      </c>
+      <c r="K9" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="L9" t="str">
+        <v>FORTAS</v>
+      </c>
+      <c r="M9" t="str">
+        <v>FATMA</v>
+      </c>
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <v/>
+      </c>
+      <c r="W9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="str">
+        <v>SAOUD</v>
+      </c>
+      <c r="C10" t="str">
+        <v>FATMA</v>
+      </c>
+      <c r="D10" t="str">
+        <v>F</v>
+      </c>
+      <c r="E10" t="str">
+        <v>25/08/1984</v>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v>667</v>
+      </c>
+      <c r="J10" t="str">
+        <v>D</v>
+      </c>
+      <c r="K10" t="str">
+        <v>LAKHDAR</v>
+      </c>
+      <c r="L10" t="str">
+        <v>DJALOUL</v>
+      </c>
+      <c r="M10" t="str">
+        <v>MESSAOUDA</v>
+      </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <v/>
+      </c>
+      <c r="W10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>CHINE</v>
+      </c>
+      <c r="C11" t="str">
+        <v>FARIDA</v>
+      </c>
+      <c r="D11" t="str">
+        <v>F</v>
+      </c>
+      <c r="E11" t="str">
+        <v>15/07/1985</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v>348</v>
+      </c>
+      <c r="J11" t="str">
+        <v>D</v>
+      </c>
+      <c r="K11" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="L11" t="str">
+        <v>BENSAIDA</v>
+      </c>
+      <c r="M11" t="str">
+        <v>FATMA</v>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <v/>
+      </c>
+      <c r="R11" t="str">
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <v/>
+      </c>
+      <c r="W11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="str">
+        <v>ALIAT</v>
+      </c>
+      <c r="C12" t="str">
+        <v>MOHAMED SGHIR</v>
+      </c>
+      <c r="D12" t="str">
+        <v>M</v>
+      </c>
+      <c r="E12" t="str">
+        <v>22/09/1984</v>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v>798</v>
+      </c>
+      <c r="J12" t="str">
+        <v>M</v>
+      </c>
+      <c r="K12" t="str">
+        <v>LAICHE</v>
+      </c>
+      <c r="L12" t="str">
+        <v>KADI</v>
+      </c>
+      <c r="M12" t="str">
+        <v>MALIKA</v>
+      </c>
+      <c r="N12" t="str">
+        <v>GUENOUA</v>
+      </c>
+      <c r="O12" t="str">
+        <v>FOUZIA</v>
+      </c>
+      <c r="P12" t="str">
+        <v>04/05/1995</v>
+      </c>
+      <c r="Q12" t="str">
+        <v/>
+      </c>
+      <c r="R12" t="str">
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <v>372</v>
+      </c>
+      <c r="U12" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="V12" t="str">
+        <v>DOUH</v>
+      </c>
+      <c r="W12" t="str">
+        <v>FATIHA</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="str">
+        <v>ALIAT</v>
+      </c>
+      <c r="C13" t="str">
+        <v>SAYAH</v>
+      </c>
+      <c r="D13" t="str">
+        <v>M</v>
+      </c>
+      <c r="E13" t="str">
+        <v>00/00/1977</v>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v>660</v>
+      </c>
+      <c r="J13" t="str">
+        <v>M</v>
+      </c>
+      <c r="K13" t="str">
+        <v>MAMMAR</v>
+      </c>
+      <c r="L13" t="str">
+        <v>MOUSSAOUI</v>
+      </c>
+      <c r="M13" t="str">
+        <v>MERIEM</v>
+      </c>
+      <c r="N13" t="str">
+        <v>ALIAT</v>
+      </c>
+      <c r="O13" t="str">
+        <v>HAYAT</v>
+      </c>
+      <c r="P13" t="str">
+        <v>24/11/1983</v>
+      </c>
+      <c r="Q13" t="str">
+        <v/>
+      </c>
+      <c r="R13" t="str">
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <v>158</v>
+      </c>
+      <c r="U13" t="str">
+        <v>MESSAOUD</v>
+      </c>
+      <c r="V13" t="str">
+        <v>SERRAYE</v>
+      </c>
+      <c r="W13" t="str">
+        <v>NEDJEMA</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="C14" t="str">
+        <v xml:space="preserve">MOHAMMED </v>
+      </c>
+      <c r="D14" t="str">
+        <v>M</v>
+      </c>
+      <c r="E14" t="str">
+        <v>03/10/1985</v>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v>119</v>
+      </c>
+      <c r="J14" t="str">
+        <v>M</v>
+      </c>
+      <c r="K14" t="str">
+        <v>MESSAOUD</v>
+      </c>
+      <c r="L14" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="M14" t="str">
+        <v>SAIDA</v>
+      </c>
+      <c r="N14" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="O14" t="str">
+        <v>NOURA</v>
+      </c>
+      <c r="P14" t="str">
+        <v>15/03/1990</v>
+      </c>
+      <c r="Q14" t="str">
+        <v/>
+      </c>
+      <c r="R14" t="str">
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <v>32</v>
+      </c>
+      <c r="U14" t="str">
+        <v>TIDJANI</v>
+      </c>
+      <c r="V14" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="W14" t="str">
+        <v>YAMINA</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="str">
+        <v>BELMESMAR</v>
+      </c>
+      <c r="C15" t="str">
+        <v>REBIHA</v>
+      </c>
+      <c r="D15" t="str">
+        <v>F</v>
+      </c>
+      <c r="E15" t="str">
+        <v>P 1967</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v>11</v>
+      </c>
+      <c r="J15" t="str">
+        <v>V</v>
+      </c>
+      <c r="K15" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="L15" t="str">
+        <v>BENGUCHOUCHE</v>
+      </c>
+      <c r="M15" t="str">
+        <v>MEBARKA</v>
+      </c>
+      <c r="N15" t="str">
+        <v>ROAS</v>
+      </c>
+      <c r="O15" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="P15" t="str">
+        <v>P 1958</v>
+      </c>
+      <c r="Q15" t="str">
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <v>/////</v>
+      </c>
+      <c r="U15" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="V15" t="str">
+        <v>ROAS</v>
+      </c>
+      <c r="W15" t="str">
+        <v>AICHE</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="C16" t="str">
+        <v>ZOHRA</v>
+      </c>
+      <c r="D16" t="str">
+        <v>F</v>
+      </c>
+      <c r="E16" t="str">
+        <v>25/12/1947</v>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v>3674</v>
+      </c>
+      <c r="J16" t="str">
+        <v>V</v>
+      </c>
+      <c r="K16" t="str">
+        <v>TIDJANI</v>
+      </c>
+      <c r="L16" t="str">
+        <v>TALBI</v>
+      </c>
+      <c r="M16" t="str">
+        <v>HALIMA</v>
+      </c>
+      <c r="N16" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="O16" t="str">
+        <v>DJEMOI</v>
+      </c>
+      <c r="P16" t="str">
+        <v>00/00/1937</v>
+      </c>
+      <c r="Q16" t="str">
+        <v/>
+      </c>
+      <c r="R16" t="str">
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <v>494</v>
+      </c>
+      <c r="U16" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="V16" t="str">
+        <v>ATBI</v>
+      </c>
+      <c r="W16" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="str">
+        <v>ALIAT</v>
+      </c>
+      <c r="C17" t="str">
+        <v>LAICHE</v>
+      </c>
+      <c r="D17" t="str">
+        <v>M</v>
+      </c>
+      <c r="E17" t="str">
+        <v>22/02/1971</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v>68</v>
+      </c>
+      <c r="J17" t="str">
+        <v>M</v>
+      </c>
+      <c r="K17" t="str">
+        <v>MESSAOUD</v>
+      </c>
+      <c r="L17" t="str">
+        <v>BELADJAL</v>
+      </c>
+      <c r="M17" t="str">
+        <v>MEBROUKA</v>
+      </c>
+      <c r="N17" t="str">
+        <v>ALIAT</v>
+      </c>
+      <c r="O17" t="str">
+        <v>FARIDA</v>
+      </c>
+      <c r="P17" t="str">
+        <v>00/00/1970</v>
+      </c>
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <v>76</v>
+      </c>
+      <c r="U17" t="str">
+        <v>LARBI</v>
+      </c>
+      <c r="V17" t="str">
+        <v>BELADJAL</v>
+      </c>
+      <c r="W17" t="str">
+        <v>OUMELKHIR</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="str">
+        <v>BECHOUA</v>
+      </c>
+      <c r="C18" t="str">
+        <v>ABDALLAH</v>
+      </c>
+      <c r="D18" t="str">
+        <v>M</v>
+      </c>
+      <c r="E18" t="str">
+        <v>P 1978</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v>387</v>
+      </c>
+      <c r="J18" t="str">
+        <v>M</v>
+      </c>
+      <c r="K18" t="str">
+        <v>MAMMAR</v>
+      </c>
+      <c r="L18" t="str">
+        <v>BECHOUA</v>
+      </c>
+      <c r="M18" t="str">
+        <v>KHEDIDJA</v>
+      </c>
+      <c r="N18" t="str">
+        <v>BENSADIA</v>
+      </c>
+      <c r="O18" t="str">
+        <v>SOUAD</v>
+      </c>
+      <c r="P18" t="str">
+        <v>P 1991</v>
+      </c>
+      <c r="Q18" t="str">
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <v>357</v>
+      </c>
+      <c r="U18" t="str">
+        <v>BACHIR</v>
+      </c>
+      <c r="V18" t="str">
+        <v>BEKKARI</v>
+      </c>
+      <c r="W18" t="str">
+        <v>MESSAOUDA</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="str">
+        <v>BEKKARI</v>
+      </c>
+      <c r="C19" t="str">
+        <v>MOHAMMED DJEMOI</v>
+      </c>
+      <c r="D19" t="str">
+        <v>M</v>
+      </c>
+      <c r="E19" t="str">
+        <v>P 1979</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v>M</v>
+      </c>
+      <c r="K19" t="str">
+        <v>LAICHE</v>
+      </c>
+      <c r="L19" t="str">
+        <v>LAHZIEL</v>
+      </c>
+      <c r="M19" t="str">
+        <v>MESSAOUDA</v>
+      </c>
+      <c r="N19" t="str">
+        <v>LAHZIEL</v>
+      </c>
+      <c r="O19" t="str">
+        <v>SAFIA</v>
+      </c>
+      <c r="P19" t="str">
+        <v>21/01/1991</v>
+      </c>
+      <c r="Q19" t="str">
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <v>10</v>
+      </c>
+      <c r="U19" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="V19" t="str">
+        <v>MESMARI</v>
+      </c>
+      <c r="W19" t="str">
+        <v>MEBROUKA</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="str">
+        <v>BEN AZZA</v>
+      </c>
+      <c r="C20" t="str">
+        <v>ABDELBAST</v>
+      </c>
+      <c r="D20" t="str">
+        <v>M</v>
+      </c>
+      <c r="E20" t="str">
+        <v>26/10/1978</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v>651</v>
+      </c>
+      <c r="J20" t="str">
+        <v>M</v>
+      </c>
+      <c r="K20" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="L20" t="str">
+        <v>GEUMOULI</v>
+      </c>
+      <c r="M20" t="str">
+        <v>SALMA</v>
+      </c>
+      <c r="N20" t="str">
+        <v>DOKMA</v>
+      </c>
+      <c r="O20" t="str">
+        <v>MERIEM</v>
+      </c>
+      <c r="P20" t="str">
+        <v>24/06/1989</v>
+      </c>
+      <c r="Q20" t="str">
+        <v/>
+      </c>
+      <c r="R20" t="str">
+        <v/>
+      </c>
+      <c r="S20" t="str">
+        <v/>
+      </c>
+      <c r="T20" t="str">
+        <v>310</v>
+      </c>
+      <c r="U20" t="str">
+        <v>MOHAMED LAKHDAR</v>
+      </c>
+      <c r="V20" t="str">
+        <v>GAABI</v>
+      </c>
+      <c r="W20" t="str">
+        <v>DJEMAA</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="str">
+        <v>BENKHIRA</v>
+      </c>
+      <c r="C21" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="D21" t="str">
+        <v>M</v>
+      </c>
+      <c r="E21" t="str">
+        <v>29/01/1978</v>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v>M</v>
+      </c>
+      <c r="K21" t="str">
+        <v>TAHAR</v>
+      </c>
+      <c r="L21" t="str">
+        <v>BENKHIRA</v>
+      </c>
+      <c r="M21" t="str">
+        <v>MERIEM</v>
+      </c>
+      <c r="N21" t="str">
+        <v xml:space="preserve">BENKHIRA </v>
+      </c>
+      <c r="O21" t="str">
+        <v>AMRIA</v>
+      </c>
+      <c r="P21" t="str">
+        <v>08/06/1980</v>
+      </c>
+      <c r="Q21" t="str">
+        <v/>
+      </c>
+      <c r="R21" t="str">
+        <v/>
+      </c>
+      <c r="S21" t="str">
+        <v/>
+      </c>
+      <c r="T21" t="str">
+        <v>404</v>
+      </c>
+      <c r="U21" t="str">
+        <v>MOHAMMED LAKHDAR</v>
+      </c>
+      <c r="V21" t="str">
+        <v xml:space="preserve">REZEG HABLA </v>
+      </c>
+      <c r="W21" t="str">
+        <v>SAFIA</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="str">
+        <v>BENOUMENA</v>
+      </c>
+      <c r="C22" t="str">
+        <v>SAIDA</v>
+      </c>
+      <c r="D22" t="str">
+        <v>F</v>
+      </c>
+      <c r="E22" t="str">
+        <v>07/11/1969</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v>2188</v>
+      </c>
+      <c r="J22" t="str">
+        <v>V</v>
+      </c>
+      <c r="K22" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="L22" t="str">
+        <v>KHIECHA</v>
+      </c>
+      <c r="M22" t="str">
+        <v>FATMA ZOHRA</v>
+      </c>
+      <c r="N22" t="str">
+        <v>GOHMES</v>
+      </c>
+      <c r="O22" t="str">
+        <v>MEBROUK</v>
+      </c>
+      <c r="P22" t="str">
+        <v>00/00/1926</v>
+      </c>
+      <c r="Q22" t="str">
+        <v/>
+      </c>
+      <c r="R22" t="str">
+        <v/>
+      </c>
+      <c r="S22" t="str">
+        <v/>
+      </c>
+      <c r="T22" t="str">
+        <v>1598</v>
+      </c>
+      <c r="U22" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="V22" t="str">
+        <v>GOHMES</v>
+      </c>
+      <c r="W22" t="str">
+        <v>MESSAOUDA</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="str">
+        <v>BOUGOSSA</v>
+      </c>
+      <c r="C23" t="str">
+        <v>NACIRA</v>
+      </c>
+      <c r="D23" t="str">
+        <v>F</v>
+      </c>
+      <c r="E23" t="str">
+        <v>00/00/1973</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v>185</v>
+      </c>
+      <c r="J23" t="str">
+        <v>V</v>
+      </c>
+      <c r="K23" t="str">
+        <v>LAKHDAR</v>
+      </c>
+      <c r="L23" t="str">
+        <v>MERAD</v>
+      </c>
+      <c r="M23" t="str">
+        <v>DAOUIA</v>
+      </c>
+      <c r="N23" t="str">
+        <v>LEBBOUZ</v>
+      </c>
+      <c r="O23" t="str">
+        <v>ISMAIL</v>
+      </c>
+      <c r="P23" t="str">
+        <v>07/11/1966</v>
+      </c>
+      <c r="Q23" t="str">
+        <v/>
+      </c>
+      <c r="R23" t="str">
+        <v/>
+      </c>
+      <c r="S23" t="str">
+        <v/>
+      </c>
+      <c r="T23" t="str">
+        <v>288</v>
+      </c>
+      <c r="U23" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="V23" t="str">
+        <v>ARIF</v>
+      </c>
+      <c r="W23" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="str">
+        <v>BACHI</v>
+      </c>
+      <c r="C24" t="str">
+        <v>ZOHRA</v>
+      </c>
+      <c r="D24" t="str">
+        <v>F</v>
+      </c>
+      <c r="E24" t="str">
+        <v>00/00/1962</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v>136</v>
+      </c>
+      <c r="J24" t="str">
+        <v>V</v>
+      </c>
+      <c r="K24" t="str">
+        <v>MESSAOUD</v>
+      </c>
+      <c r="L24" t="str">
+        <v>RABEHI</v>
+      </c>
+      <c r="M24" t="str">
+        <v>MESSAOUDA</v>
+      </c>
+      <c r="N24" t="str">
+        <v>ZEGAOU</v>
+      </c>
+      <c r="O24" t="str">
+        <v>AMMAR</v>
+      </c>
+      <c r="P24" t="str">
+        <v>00/00/1952</v>
+      </c>
+      <c r="Q24" t="str">
+        <v/>
+      </c>
+      <c r="R24" t="str">
+        <v/>
+      </c>
+      <c r="S24" t="str">
+        <v/>
+      </c>
+      <c r="T24" t="str">
+        <v>391</v>
+      </c>
+      <c r="U24" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="V24" t="str">
+        <v>BOUGOSSA</v>
+      </c>
+      <c r="W24" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="str">
+        <v>BEDDIAF</v>
+      </c>
+      <c r="C25" t="str">
+        <v>SLIMANE</v>
+      </c>
+      <c r="D25" t="str">
+        <v>M</v>
+      </c>
+      <c r="E25" t="str">
+        <v>00/00/1950</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v>2480</v>
+      </c>
+      <c r="J25" t="str">
+        <v>M</v>
+      </c>
+      <c r="K25" t="str">
+        <v>HAMMA</v>
+      </c>
+      <c r="L25" t="str">
+        <v>BEDDIAF</v>
+      </c>
+      <c r="M25" t="str">
+        <v>ZOHRA</v>
+      </c>
+      <c r="N25" t="str">
+        <v>BELMOSTEFA</v>
+      </c>
+      <c r="O25" t="str">
+        <v>HALIMA</v>
+      </c>
+      <c r="P25" t="str">
+        <v>12/04/1958</v>
+      </c>
+      <c r="Q25" t="str">
+        <v/>
+      </c>
+      <c r="R25" t="str">
+        <v/>
+      </c>
+      <c r="S25" t="str">
+        <v/>
+      </c>
+      <c r="T25" t="str">
+        <v>972</v>
+      </c>
+      <c r="U25" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="V25" t="str">
+        <v>SAOUD</v>
+      </c>
+      <c r="W25" t="str">
+        <v>MEBROUKA</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="str">
+        <v>CHINE</v>
+      </c>
+      <c r="C26" t="str">
+        <v>SAID</v>
+      </c>
+      <c r="D26" t="str">
+        <v>M</v>
+      </c>
+      <c r="E26" t="str">
+        <v>19/02/1975</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v>69</v>
+      </c>
+      <c r="J26" t="str">
+        <v>M</v>
+      </c>
+      <c r="K26" t="str">
+        <v>LAICHE</v>
+      </c>
+      <c r="L26" t="str">
+        <v>KHALFAOUI</v>
+      </c>
+      <c r="M26" t="str">
+        <v>ZAHRA</v>
+      </c>
+      <c r="N26" t="str">
+        <v>BELMESSAOUD</v>
+      </c>
+      <c r="O26" t="str">
+        <v>MABROUKA</v>
+      </c>
+      <c r="P26" t="str">
+        <v>11/10/1980</v>
+      </c>
+      <c r="Q26" t="str">
+        <v/>
+      </c>
+      <c r="R26" t="str">
+        <v/>
+      </c>
+      <c r="S26" t="str">
+        <v/>
+      </c>
+      <c r="T26" t="str">
+        <v>821</v>
+      </c>
+      <c r="U26" t="str">
+        <v>BERIK</v>
+      </c>
+      <c r="V26" t="str">
+        <v>BELMESSAOUD</v>
+      </c>
+      <c r="W26" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="str">
+        <v>BERROUK</v>
+      </c>
+      <c r="C27" t="str">
+        <v>RIDA</v>
+      </c>
+      <c r="D27" t="str">
+        <v>M</v>
+      </c>
+      <c r="E27" t="str">
+        <v>17/04/1987</v>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v>259</v>
+      </c>
+      <c r="J27" t="str">
+        <v>M</v>
+      </c>
+      <c r="K27" t="str">
+        <v>ABDELLAH</v>
+      </c>
+      <c r="L27" t="str">
+        <v>BEN DAOUIA</v>
+      </c>
+      <c r="M27" t="str">
+        <v>ZINEB</v>
+      </c>
+      <c r="N27" t="str">
+        <v>BOUBERRAS</v>
+      </c>
+      <c r="O27" t="str">
+        <v>FATIMA</v>
+      </c>
+      <c r="P27" t="str">
+        <v>09/12/1989</v>
+      </c>
+      <c r="Q27" t="str">
+        <v/>
+      </c>
+      <c r="R27" t="str">
+        <v/>
+      </c>
+      <c r="S27" t="str">
+        <v/>
+      </c>
+      <c r="T27" t="str">
+        <v>2811</v>
+      </c>
+      <c r="U27" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="V27" t="str">
+        <v>HADJ MIMOUNE</v>
+      </c>
+      <c r="W27" t="str">
+        <v>RACHIDA</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="str">
+        <v>BERROUTI</v>
+      </c>
+      <c r="C28" t="str">
+        <v>MOHAMMED LAID</v>
+      </c>
+      <c r="D28" t="str">
+        <v>M</v>
+      </c>
+      <c r="E28" t="str">
+        <v>13/12/1975</v>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v>726</v>
+      </c>
+      <c r="J28" t="str">
+        <v>M</v>
+      </c>
+      <c r="K28" t="str">
+        <v>TIDJANI</v>
+      </c>
+      <c r="L28" t="str">
+        <v>BERROUTI</v>
+      </c>
+      <c r="M28" t="str">
+        <v>ZOUBIDA</v>
+      </c>
+      <c r="N28" t="str">
+        <v>ZAROUANA</v>
+      </c>
+      <c r="O28" t="str">
+        <v>MERYEM</v>
+      </c>
+      <c r="P28" t="str">
+        <v>19/03/1984</v>
+      </c>
+      <c r="Q28" t="str">
+        <v/>
+      </c>
+      <c r="R28" t="str">
+        <v/>
+      </c>
+      <c r="S28" t="str">
+        <v/>
+      </c>
+      <c r="T28" t="str">
+        <v>75</v>
+      </c>
+      <c r="U28" t="str">
+        <v>ABDELLATIF</v>
+      </c>
+      <c r="V28" t="str">
+        <v>MEBAREK</v>
+      </c>
+      <c r="W28" t="str">
+        <v>YAMINA</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="str">
+        <v>CHETIOUI</v>
+      </c>
+      <c r="C29" t="str">
+        <v>KAMEL</v>
+      </c>
+      <c r="D29" t="str">
+        <v>M</v>
+      </c>
+      <c r="E29" t="str">
+        <v>14/07/1979</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v>442</v>
+      </c>
+      <c r="J29" t="str">
+        <v>M</v>
+      </c>
+      <c r="K29" t="str">
+        <v xml:space="preserve">MOHAMMED   </v>
+      </c>
+      <c r="L29" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="M29" t="str">
+        <v>AICHA</v>
+      </c>
+      <c r="N29" t="str">
+        <v>BESSACI</v>
+      </c>
+      <c r="O29" t="str">
+        <v>KHIRA</v>
+      </c>
+      <c r="P29" t="str">
+        <v>01/06/1987</v>
+      </c>
+      <c r="Q29" t="str">
+        <v/>
+      </c>
+      <c r="R29" t="str">
+        <v/>
+      </c>
+      <c r="S29" t="str">
+        <v/>
+      </c>
+      <c r="T29" t="str">
+        <v>118</v>
+      </c>
+      <c r="U29" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="V29" t="str">
+        <v>BESSACI</v>
+      </c>
+      <c r="W29" t="str">
+        <v>DJAMILA</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="str">
+        <v>CHETIOUI</v>
+      </c>
+      <c r="C30" t="str">
+        <v>NADJAH</v>
+      </c>
+      <c r="D30" t="str">
+        <v>F</v>
+      </c>
+      <c r="E30" t="str">
+        <v>28/09/1986</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v>213</v>
+      </c>
+      <c r="J30" t="str">
+        <v>D</v>
+      </c>
+      <c r="K30" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="L30" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="M30" t="str">
+        <v>AICHA</v>
+      </c>
+      <c r="N30" t="str">
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <v/>
+      </c>
+      <c r="P30" t="str">
+        <v/>
+      </c>
+      <c r="Q30" t="str">
+        <v/>
+      </c>
+      <c r="R30" t="str">
+        <v/>
+      </c>
+      <c r="S30" t="str">
+        <v/>
+      </c>
+      <c r="T30" t="str">
+        <v/>
+      </c>
+      <c r="U30" t="str">
+        <v/>
+      </c>
+      <c r="V30" t="str">
+        <v/>
+      </c>
+      <c r="W30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="str">
+        <v>BENADDA</v>
+      </c>
+      <c r="C31" t="str">
+        <v>KHALIFA</v>
+      </c>
+      <c r="D31" t="str">
+        <v>M</v>
+      </c>
+      <c r="E31" t="str">
+        <v>08/11/1982</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v>792</v>
+      </c>
+      <c r="J31" t="str">
+        <v>M</v>
+      </c>
+      <c r="K31" t="str">
+        <v>MILOUD</v>
+      </c>
+      <c r="L31" t="str">
+        <v>RABEHI</v>
+      </c>
+      <c r="M31" t="str">
+        <v>MEBARKA</v>
+      </c>
+      <c r="N31" t="str">
+        <v>MAMMERI</v>
+      </c>
+      <c r="O31" t="str">
+        <v>AMINA</v>
+      </c>
+      <c r="P31" t="str">
+        <v>25/04/1992</v>
+      </c>
+      <c r="Q31" t="str">
+        <v/>
+      </c>
+      <c r="R31" t="str">
+        <v/>
+      </c>
+      <c r="S31" t="str">
+        <v/>
+      </c>
+      <c r="T31" t="str">
+        <v>139</v>
+      </c>
+      <c r="U31" t="str">
+        <v>MESSAOUD</v>
+      </c>
+      <c r="V31" t="str">
+        <v>MAMMERI</v>
+      </c>
+      <c r="W31" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="str">
+        <v>BENAOUN</v>
+      </c>
+      <c r="C32" t="str">
+        <v>DJEMOI</v>
+      </c>
+      <c r="D32" t="str">
+        <v>M</v>
+      </c>
+      <c r="E32" t="str">
+        <v>00/00/1976</v>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <v>M</v>
+      </c>
+      <c r="K32" t="str">
+        <v>LAID</v>
+      </c>
+      <c r="L32" t="str">
+        <v>DRIDI</v>
+      </c>
+      <c r="M32" t="str">
+        <v>MEBROUKA</v>
+      </c>
+      <c r="N32" t="str">
+        <v>GHEBACHE</v>
+      </c>
+      <c r="O32" t="str">
+        <v>ZOULIKHA</v>
+      </c>
+      <c r="P32" t="str">
+        <v>19/10/1985</v>
+      </c>
+      <c r="Q32" t="str">
+        <v/>
+      </c>
+      <c r="R32" t="str">
+        <v/>
+      </c>
+      <c r="S32" t="str">
+        <v/>
+      </c>
+      <c r="T32" t="str">
+        <v>230</v>
+      </c>
+      <c r="U32" t="str">
+        <v>BACHIR</v>
+      </c>
+      <c r="V32" t="str">
+        <v>GHEBACHE</v>
+      </c>
+      <c r="W32" t="str">
+        <v>SOUAD</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="str">
+        <v>DOKMA</v>
+      </c>
+      <c r="C33" t="str">
+        <v>DJAMEL</v>
+      </c>
+      <c r="D33" t="str">
+        <v>M</v>
+      </c>
+      <c r="E33" t="str">
+        <v>29/06/1976</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v>1204</v>
+      </c>
+      <c r="J33" t="str">
+        <v>M</v>
+      </c>
+      <c r="K33" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="L33" t="str">
+        <v>HAMMADI</v>
+      </c>
+      <c r="M33" t="str">
+        <v>ZOHRA</v>
+      </c>
+      <c r="N33" t="str">
+        <v>BOUNEGAB</v>
+      </c>
+      <c r="O33" t="str">
+        <v>HANANE</v>
+      </c>
+      <c r="P33" t="str">
+        <v>25/04/1993</v>
+      </c>
+      <c r="Q33" t="str">
+        <v/>
+      </c>
+      <c r="R33" t="str">
+        <v/>
+      </c>
+      <c r="S33" t="str">
+        <v/>
+      </c>
+      <c r="T33" t="str">
+        <v>119</v>
+      </c>
+      <c r="U33" t="str">
+        <v>MOHAMMED TAHAR</v>
+      </c>
+      <c r="V33" t="str">
+        <v>RAHMANI</v>
+      </c>
+      <c r="W33" t="str">
+        <v>ZOHRA</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="str">
+        <v>CHINE</v>
+      </c>
+      <c r="C34" t="str">
+        <v>YAHIA</v>
+      </c>
+      <c r="D34" t="str">
+        <v>M</v>
+      </c>
+      <c r="E34" t="str">
+        <v>01/10/1986</v>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v>314</v>
+      </c>
+      <c r="J34" t="str">
+        <v>M</v>
+      </c>
+      <c r="K34" t="str">
+        <v>EL HAFED</v>
+      </c>
+      <c r="L34" t="str">
+        <v>CHINE</v>
+      </c>
+      <c r="M34" t="str">
+        <v>KHADRA</v>
+      </c>
+      <c r="N34" t="str">
+        <v>GUEMMOULI</v>
+      </c>
+      <c r="O34" t="str">
+        <v>FAIZA</v>
+      </c>
+      <c r="P34" t="str">
+        <v>10/02/1999</v>
+      </c>
+      <c r="Q34" t="str">
+        <v/>
+      </c>
+      <c r="R34" t="str">
+        <v/>
+      </c>
+      <c r="S34" t="str">
+        <v/>
+      </c>
+      <c r="T34" t="str">
+        <v>44</v>
+      </c>
+      <c r="U34" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="V34" t="str">
+        <v>GHERIER</v>
+      </c>
+      <c r="W34" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="str">
+        <v>CHINE</v>
+      </c>
+      <c r="C35" t="str">
+        <v>CHOUIKHA</v>
+      </c>
+      <c r="D35" t="str">
+        <v>F</v>
+      </c>
+      <c r="E35" t="str">
+        <v>17/01/1957</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v>145</v>
+      </c>
+      <c r="J35" t="str">
+        <v>V</v>
+      </c>
+      <c r="K35" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="L35" t="str">
+        <v>DJEBBAS</v>
+      </c>
+      <c r="M35" t="str">
+        <v>FATMA</v>
+      </c>
+      <c r="N35" t="str">
+        <v>DIDA</v>
+      </c>
+      <c r="O35" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="P35" t="str">
+        <v>00/00/1935</v>
+      </c>
+      <c r="Q35" t="str">
+        <v/>
+      </c>
+      <c r="R35" t="str">
+        <v/>
+      </c>
+      <c r="S35" t="str">
+        <v/>
+      </c>
+      <c r="T35" t="str">
+        <v>2089</v>
+      </c>
+      <c r="U35" t="str">
+        <v>LARBI</v>
+      </c>
+      <c r="V35" t="str">
+        <v>ABID</v>
+      </c>
+      <c r="W35" t="str">
+        <v>SALMA</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="str">
+        <v>DJEDIAI</v>
+      </c>
+      <c r="C36" t="str">
+        <v>SAIDA</v>
+      </c>
+      <c r="D36" t="str">
+        <v>F</v>
+      </c>
+      <c r="E36" t="str">
+        <v>P 1966</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <v>195</v>
+      </c>
+      <c r="J36" t="str">
+        <v>V</v>
+      </c>
+      <c r="K36" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="L36" t="str">
+        <v>MERKHOUFI</v>
+      </c>
+      <c r="M36" t="str">
+        <v>ZOHRA</v>
+      </c>
+      <c r="N36" t="str">
+        <v>KOUIDRI</v>
+      </c>
+      <c r="O36" t="str">
+        <v>SAID</v>
+      </c>
+      <c r="P36" t="str">
+        <v>22/09/1962</v>
+      </c>
+      <c r="Q36" t="str">
+        <v/>
+      </c>
+      <c r="R36" t="str">
+        <v/>
+      </c>
+      <c r="S36" t="str">
+        <v/>
+      </c>
+      <c r="T36" t="str">
+        <v/>
+      </c>
+      <c r="U36" t="str">
+        <v>LAKHDAR</v>
+      </c>
+      <c r="V36" t="str">
+        <v>SEKHER</v>
+      </c>
+      <c r="W36" t="str">
+        <v>HANIA</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="str">
+        <v>DJEDIAI</v>
+      </c>
+      <c r="C37" t="str">
+        <v>SOUAD</v>
+      </c>
+      <c r="D37" t="str">
+        <v>F</v>
+      </c>
+      <c r="E37" t="str">
+        <v>03/03/1972</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v>D</v>
+      </c>
+      <c r="K37" t="str">
+        <v>MOHAMED LAID</v>
+      </c>
+      <c r="L37" t="str">
+        <v>LAMOUCHI</v>
+      </c>
+      <c r="M37" t="str">
+        <v>HAKKA</v>
+      </c>
+      <c r="N37" t="str">
+        <v/>
+      </c>
+      <c r="O37" t="str">
+        <v/>
+      </c>
+      <c r="P37" t="str">
+        <v/>
+      </c>
+      <c r="Q37" t="str">
+        <v/>
+      </c>
+      <c r="R37" t="str">
+        <v/>
+      </c>
+      <c r="S37" t="str">
+        <v/>
+      </c>
+      <c r="T37" t="str">
+        <v/>
+      </c>
+      <c r="U37" t="str">
+        <v/>
+      </c>
+      <c r="V37" t="str">
+        <v/>
+      </c>
+      <c r="W37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="str">
+        <v>DOUH</v>
+      </c>
+      <c r="C38" t="str">
+        <v>SOUAD</v>
+      </c>
+      <c r="D38" t="str">
+        <v>F</v>
+      </c>
+      <c r="E38" t="str">
+        <v>18/10/1972</v>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v>2303</v>
+      </c>
+      <c r="J38" t="str">
+        <v>V</v>
+      </c>
+      <c r="K38" t="str">
+        <v>MAMMAR</v>
+      </c>
+      <c r="L38" t="str">
+        <v>ARIF</v>
+      </c>
+      <c r="M38" t="str">
+        <v>FATMA</v>
+      </c>
+      <c r="N38" t="str">
+        <v>LEBBOUZ</v>
+      </c>
+      <c r="O38" t="str">
+        <v>ISMAIL</v>
+      </c>
+      <c r="P38" t="str">
+        <v>07/11/1966</v>
+      </c>
+      <c r="Q38" t="str">
+        <v/>
+      </c>
+      <c r="R38" t="str">
+        <v/>
+      </c>
+      <c r="S38" t="str">
+        <v/>
+      </c>
+      <c r="T38" t="str">
+        <v>288</v>
+      </c>
+      <c r="U38" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="V38" t="str">
+        <v>ARIF</v>
+      </c>
+      <c r="W38" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="str">
+        <v>HAMDAOUI</v>
+      </c>
+      <c r="C39" t="str">
+        <v>MESSAOUD</v>
+      </c>
+      <c r="D39" t="str">
+        <v>M</v>
+      </c>
+      <c r="E39" t="str">
+        <v>16/08/1986</v>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v>252</v>
+      </c>
+      <c r="J39" t="str">
+        <v>M</v>
+      </c>
+      <c r="K39" t="str">
+        <v>RACHID</v>
+      </c>
+      <c r="L39" t="str">
+        <v>BENKHIRA</v>
+      </c>
+      <c r="M39" t="str">
+        <v>YAMINA</v>
+      </c>
+      <c r="N39" t="str">
+        <v>HAMDAOUI</v>
+      </c>
+      <c r="O39" t="str">
+        <v>ZINEB</v>
+      </c>
+      <c r="P39" t="str">
+        <v>30/09/1989</v>
+      </c>
+      <c r="Q39" t="str">
+        <v/>
+      </c>
+      <c r="R39" t="str">
+        <v/>
+      </c>
+      <c r="S39" t="str">
+        <v/>
+      </c>
+      <c r="T39" t="str">
+        <v>428</v>
+      </c>
+      <c r="U39" t="str">
+        <v>BACHIR</v>
+      </c>
+      <c r="V39" t="str">
+        <v>KOUIDRI</v>
+      </c>
+      <c r="W39" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="str">
+        <v>HASROUF</v>
+      </c>
+      <c r="C40" t="str">
+        <v>MOULOUD</v>
+      </c>
+      <c r="D40" t="str">
+        <v>M</v>
+      </c>
+      <c r="E40" t="str">
+        <v>20/04/1986</v>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <v>M</v>
+      </c>
+      <c r="K40" t="str">
+        <v>SACI</v>
+      </c>
+      <c r="L40" t="str">
+        <v>BELOUADANI</v>
+      </c>
+      <c r="M40" t="str">
+        <v>HANIA</v>
+      </c>
+      <c r="N40" t="str">
+        <v>HAMMADI</v>
+      </c>
+      <c r="O40" t="str">
+        <v>RIM</v>
+      </c>
+      <c r="P40" t="str">
+        <v>19/01/1992</v>
+      </c>
+      <c r="Q40" t="str">
+        <v/>
+      </c>
+      <c r="R40" t="str">
+        <v/>
+      </c>
+      <c r="S40" t="str">
+        <v/>
+      </c>
+      <c r="T40" t="str">
+        <v>21</v>
+      </c>
+      <c r="U40" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="V40" t="str">
+        <v>KHADRAOUI</v>
+      </c>
+      <c r="W40" t="str">
+        <v>MESSAOUDA</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="C41" t="str">
+        <v>BRAHIM</v>
+      </c>
+      <c r="D41" t="str">
+        <v>M</v>
+      </c>
+      <c r="E41" t="str">
+        <v>00/00/1980</v>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <v>M</v>
+      </c>
+      <c r="K41" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="L41" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="M41" t="str">
+        <v>FATMA</v>
+      </c>
+      <c r="N41" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="O41" t="str">
+        <v>NAIMA</v>
+      </c>
+      <c r="P41" t="str">
+        <v>16/12/1991</v>
+      </c>
+      <c r="Q41" t="str">
+        <v/>
+      </c>
+      <c r="R41" t="str">
+        <v/>
+      </c>
+      <c r="S41" t="str">
+        <v/>
+      </c>
+      <c r="T41" t="str">
+        <v>152</v>
+      </c>
+      <c r="U41" t="str">
+        <v>AMER</v>
+      </c>
+      <c r="V41" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="W41" t="str">
+        <v>MEBARKA</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="str">
+        <v>NID</v>
+      </c>
+      <c r="C42" t="str">
+        <v>BACHIR</v>
+      </c>
+      <c r="D42" t="str">
+        <v>M</v>
+      </c>
+      <c r="E42" t="str">
+        <v>01/01/1940</v>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+      <c r="H42" t="str">
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <v>M</v>
+      </c>
+      <c r="K42" t="str">
+        <v>LAKHDAR</v>
+      </c>
+      <c r="L42" t="str">
+        <v>DIDA</v>
+      </c>
+      <c r="M42" t="str">
+        <v>HANIA</v>
+      </c>
+      <c r="N42" t="str">
+        <v>GHERARA</v>
+      </c>
+      <c r="O42" t="str">
+        <v>DJAMILA</v>
+      </c>
+      <c r="P42" t="str">
+        <v>12/11/1982</v>
+      </c>
+      <c r="Q42" t="str">
+        <v/>
+      </c>
+      <c r="R42" t="str">
+        <v/>
+      </c>
+      <c r="S42" t="str">
+        <v/>
+      </c>
+      <c r="T42" t="str">
+        <v>860</v>
+      </c>
+      <c r="U42" t="str">
+        <v>MOHAMED CHAIB</v>
+      </c>
+      <c r="V42" t="str">
+        <v>NADJA</v>
+      </c>
+      <c r="W42" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="str">
+        <v>REZZAG HEBLA</v>
+      </c>
+      <c r="C43" t="str">
+        <v>ARABI</v>
+      </c>
+      <c r="D43" t="str">
+        <v>M</v>
+      </c>
+      <c r="E43" t="str">
+        <v>10/01/1985</v>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <v>6</v>
+      </c>
+      <c r="J43" t="str">
+        <v>M</v>
+      </c>
+      <c r="K43" t="str">
+        <v>LAID</v>
+      </c>
+      <c r="L43" t="str">
+        <v>CHALBI</v>
+      </c>
+      <c r="M43" t="str">
+        <v>KHEDIDJA</v>
+      </c>
+      <c r="N43" t="str">
+        <v>SAOUD</v>
+      </c>
+      <c r="O43" t="str">
+        <v>KARIMA</v>
+      </c>
+      <c r="P43" t="str">
+        <v>00/00/1989</v>
+      </c>
+      <c r="Q43" t="str">
+        <v/>
+      </c>
+      <c r="R43" t="str">
+        <v/>
+      </c>
+      <c r="S43" t="str">
+        <v/>
+      </c>
+      <c r="T43" t="str">
+        <v>982</v>
+      </c>
+      <c r="U43" t="str">
+        <v>AMMAR</v>
+      </c>
+      <c r="V43" t="str">
+        <v>SAOUD</v>
+      </c>
+      <c r="W43" t="str">
+        <v>ZERZOURA</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="str">
+        <v>GOHMES</v>
+      </c>
+      <c r="C44" t="str">
+        <v>SACIA</v>
+      </c>
+      <c r="D44" t="str">
+        <v>F</v>
+      </c>
+      <c r="E44" t="str">
+        <v>00/00/1968</v>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <v>250</v>
+      </c>
+      <c r="J44" t="str">
+        <v>V</v>
+      </c>
+      <c r="K44" t="str">
+        <v>MEBROUK</v>
+      </c>
+      <c r="L44" t="str">
+        <v>LAIBI</v>
+      </c>
+      <c r="M44" t="str">
+        <v xml:space="preserve"> BENT SAYAH</v>
+      </c>
+      <c r="N44" t="str">
+        <v>BEDDIAF</v>
+      </c>
+      <c r="O44" t="str">
+        <v>TIDJANI</v>
+      </c>
+      <c r="P44" t="str">
+        <v>00/00/1921</v>
+      </c>
+      <c r="Q44" t="str">
+        <v/>
+      </c>
+      <c r="R44" t="str">
+        <v/>
+      </c>
+      <c r="S44" t="str">
+        <v/>
+      </c>
+      <c r="T44" t="str">
+        <v>302</v>
+      </c>
+      <c r="U44" t="str">
+        <v>HAMMA</v>
+      </c>
+      <c r="V44" t="str">
+        <v>GUEMARI</v>
+      </c>
+      <c r="W44" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="C45" t="str">
+        <v>MOHAMMED ALI</v>
+      </c>
+      <c r="D45" t="str">
+        <v>M</v>
+      </c>
+      <c r="E45" t="str">
+        <v>13/01/1983</v>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <v>58</v>
+      </c>
+      <c r="J45" t="str">
+        <v>M</v>
+      </c>
+      <c r="K45" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="L45" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="M45" t="str">
+        <v>MEBARKA</v>
+      </c>
+      <c r="N45" t="str">
+        <v>GHENDIR</v>
+      </c>
+      <c r="O45" t="str">
+        <v>NACIRA</v>
+      </c>
+      <c r="P45" t="str">
+        <v>26/01/1993</v>
+      </c>
+      <c r="Q45" t="str">
+        <v/>
+      </c>
+      <c r="R45" t="str">
+        <v/>
+      </c>
+      <c r="S45" t="str">
+        <v/>
+      </c>
+      <c r="T45" t="str">
+        <v>17</v>
+      </c>
+      <c r="U45" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="V45" t="str">
+        <v>GHENDIR</v>
+      </c>
+      <c r="W45" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="str">
+        <v>BENKHIRA</v>
+      </c>
+      <c r="C46" t="str">
+        <v>DJALAL</v>
+      </c>
+      <c r="D46" t="str">
+        <v>M</v>
+      </c>
+      <c r="E46" t="str">
+        <v>15/01/1984</v>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <v>35</v>
+      </c>
+      <c r="J46" t="str">
+        <v>M</v>
+      </c>
+      <c r="K46" t="str">
+        <v>MAHMOUD</v>
+      </c>
+      <c r="L46" t="str">
+        <v>BECHOUA</v>
+      </c>
+      <c r="M46" t="str">
+        <v>FATMA</v>
+      </c>
+      <c r="N46" t="str">
+        <v>KOUIDRI</v>
+      </c>
+      <c r="O46" t="str">
+        <v>WAFFA</v>
+      </c>
+      <c r="P46" t="str">
+        <v>03/11/1993</v>
+      </c>
+      <c r="Q46" t="str">
+        <v/>
+      </c>
+      <c r="R46" t="str">
+        <v/>
+      </c>
+      <c r="S46" t="str">
+        <v/>
+      </c>
+      <c r="T46" t="str">
+        <v>596</v>
+      </c>
+      <c r="U46" t="str">
+        <v>MOHAMMED LAKHDAR</v>
+      </c>
+      <c r="V46" t="str">
+        <v>BENKHIRA</v>
+      </c>
+      <c r="W46" t="str">
+        <v>SOUAD</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="str">
+        <v>GHELANI</v>
+      </c>
+      <c r="C47" t="str">
+        <v xml:space="preserve">MOHAMMED     </v>
+      </c>
+      <c r="D47" t="str">
+        <v>M</v>
+      </c>
+      <c r="E47" t="str">
+        <v>11/01/1986</v>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+      <c r="H47" t="str">
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <v>379</v>
+      </c>
+      <c r="J47" t="str">
+        <v>C</v>
+      </c>
+      <c r="K47" t="str">
+        <v>MOUSSA</v>
+      </c>
+      <c r="L47" t="str">
+        <v>GHELANI</v>
+      </c>
+      <c r="M47" t="str">
+        <v>ZOHRA</v>
+      </c>
+      <c r="N47" t="str">
+        <v>HAFRI</v>
+      </c>
+      <c r="O47" t="str">
+        <v>NADJAT</v>
+      </c>
+      <c r="P47" t="str">
+        <v>04/02/1988</v>
+      </c>
+      <c r="Q47" t="str">
+        <v/>
+      </c>
+      <c r="R47" t="str">
+        <v/>
+      </c>
+      <c r="S47" t="str">
+        <v/>
+      </c>
+      <c r="T47" t="str">
+        <v>23</v>
+      </c>
+      <c r="U47" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="V47" t="str">
+        <v>BOUSAG</v>
+      </c>
+      <c r="W47" t="str">
+        <v>NADIRA</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="str">
+        <v>GHERARA</v>
+      </c>
+      <c r="C48" t="str">
+        <v>AICHA</v>
+      </c>
+      <c r="D48" t="str">
+        <v>F</v>
+      </c>
+      <c r="E48" t="str">
+        <v>31/01/1978</v>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <v>63</v>
+      </c>
+      <c r="J48" t="str">
+        <v>V</v>
+      </c>
+      <c r="K48" t="str">
+        <v>LAKHDAR</v>
+      </c>
+      <c r="L48" t="str">
+        <v>SAOUD</v>
+      </c>
+      <c r="M48" t="str">
+        <v>MEBARKA</v>
+      </c>
+      <c r="N48" t="str">
+        <v>BEYAT</v>
+      </c>
+      <c r="O48" t="str">
+        <v>TAHAR</v>
+      </c>
+      <c r="P48" t="str">
+        <v>24/02/1951</v>
+      </c>
+      <c r="Q48" t="str">
+        <v/>
+      </c>
+      <c r="R48" t="str">
+        <v/>
+      </c>
+      <c r="S48" t="str">
+        <v/>
+      </c>
+      <c r="T48" t="str">
+        <v>309</v>
+      </c>
+      <c r="U48" t="str">
+        <v>LAID</v>
+      </c>
+      <c r="V48" t="str">
+        <v>BEYAT</v>
+      </c>
+      <c r="W48" t="str">
+        <v>ZOHRA</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="str">
+        <v>KADDOUR</v>
+      </c>
+      <c r="C49" t="str">
+        <v>MAHMOUD</v>
+      </c>
+      <c r="D49" t="str">
+        <v>M</v>
+      </c>
+      <c r="E49" t="str">
+        <v>16/11/1981</v>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+      <c r="H49" t="str">
+        <v/>
+      </c>
+      <c r="I49" t="str">
+        <v>1077</v>
+      </c>
+      <c r="J49" t="str">
+        <v>M</v>
+      </c>
+      <c r="K49" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="L49" t="str">
+        <v>BENAZZA</v>
+      </c>
+      <c r="M49" t="str">
+        <v>MEBARKA</v>
+      </c>
+      <c r="N49" t="str">
+        <v>ABID</v>
+      </c>
+      <c r="O49" t="str">
+        <v>MESSAOUDA</v>
+      </c>
+      <c r="P49" t="str">
+        <v>24/02/1990</v>
+      </c>
+      <c r="Q49" t="str">
+        <v/>
+      </c>
+      <c r="R49" t="str">
+        <v/>
+      </c>
+      <c r="S49" t="str">
+        <v/>
+      </c>
+      <c r="T49" t="str">
+        <v>45</v>
+      </c>
+      <c r="U49" t="str">
+        <v>TAHAR</v>
+      </c>
+      <c r="V49" t="str">
+        <v>GUECHAB</v>
+      </c>
+      <c r="W49" t="str">
+        <v>DAOUIA</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="str">
+        <v>GUEMMOULA</v>
+      </c>
+      <c r="C50" t="str">
+        <v>MESSAOUDA</v>
+      </c>
+      <c r="D50" t="str">
+        <v>F</v>
+      </c>
+      <c r="E50" t="str">
+        <v>15/05/1959</v>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+      <c r="H50" t="str">
+        <v/>
+      </c>
+      <c r="I50" t="str">
+        <v>1508</v>
+      </c>
+      <c r="J50" t="str">
+        <v>V</v>
+      </c>
+      <c r="K50" t="str">
+        <v>LAID</v>
+      </c>
+      <c r="L50" t="str">
+        <v>GUEMMOULA</v>
+      </c>
+      <c r="M50" t="str">
+        <v>SALMA</v>
+      </c>
+      <c r="N50" t="str">
+        <v>ZEGRIR</v>
+      </c>
+      <c r="O50" t="str">
+        <v>MOHAMMED ALI</v>
+      </c>
+      <c r="P50" t="str">
+        <v>22/10/1948</v>
+      </c>
+      <c r="Q50" t="str">
+        <v/>
+      </c>
+      <c r="R50" t="str">
+        <v/>
+      </c>
+      <c r="S50" t="str">
+        <v/>
+      </c>
+      <c r="T50" t="str">
+        <v>2439</v>
+      </c>
+      <c r="U50" t="str">
+        <v>MAMMAR</v>
+      </c>
+      <c r="V50" t="str">
+        <v>GUEMMOULA</v>
+      </c>
+      <c r="W50" t="str">
+        <v>AICHA</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="str">
+        <v>KADI</v>
+      </c>
+      <c r="C51" t="str">
+        <v>MAAMAR</v>
+      </c>
+      <c r="D51" t="str">
+        <v>M</v>
+      </c>
+      <c r="E51" t="str">
+        <v>09/05/1986</v>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+      <c r="H51" t="str">
+        <v/>
+      </c>
+      <c r="I51" t="str">
+        <v>139</v>
+      </c>
+      <c r="J51" t="str">
+        <v>M</v>
+      </c>
+      <c r="K51" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="L51" t="str">
+        <v>KADI</v>
+      </c>
+      <c r="M51" t="str">
+        <v>AICHA</v>
+      </c>
+      <c r="N51" t="str">
+        <v>CHINE</v>
+      </c>
+      <c r="O51" t="str">
+        <v>FADHILA</v>
+      </c>
+      <c r="P51" t="str">
+        <v>02/11/1992</v>
+      </c>
+      <c r="Q51" t="str">
+        <v/>
+      </c>
+      <c r="R51" t="str">
+        <v/>
+      </c>
+      <c r="S51" t="str">
+        <v/>
+      </c>
+      <c r="T51" t="str">
+        <v>364</v>
+      </c>
+      <c r="U51" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="V51" t="str">
+        <v>BELHACHANI</v>
+      </c>
+      <c r="W51" t="str">
+        <v>ZOHRA</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="str">
+        <v>KADI</v>
+      </c>
+      <c r="C52" t="str">
+        <v>NOUREDDINE</v>
+      </c>
+      <c r="D52" t="str">
+        <v>M</v>
+      </c>
+      <c r="E52" t="str">
+        <v>01/01/1985</v>
+      </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+      <c r="H52" t="str">
+        <v/>
+      </c>
+      <c r="I52" t="str">
+        <v>22</v>
+      </c>
+      <c r="J52" t="str">
+        <v>M</v>
+      </c>
+      <c r="K52" t="str">
+        <v>MILOUD</v>
+      </c>
+      <c r="L52" t="str">
+        <v>SAOUD</v>
+      </c>
+      <c r="M52" t="str">
+        <v>AICHA</v>
+      </c>
+      <c r="N52" t="str">
+        <v>DOKMA</v>
+      </c>
+      <c r="O52" t="str">
+        <v>HANANE</v>
+      </c>
+      <c r="P52" t="str">
+        <v>12/01/1987</v>
+      </c>
+      <c r="Q52" t="str">
+        <v/>
+      </c>
+      <c r="R52" t="str">
+        <v/>
+      </c>
+      <c r="S52" t="str">
+        <v/>
+      </c>
+      <c r="T52" t="str">
+        <v>14</v>
+      </c>
+      <c r="U52" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="V52" t="str">
+        <v>KHADRAOUI</v>
+      </c>
+      <c r="W52" t="str">
+        <v>SALIHA</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="str">
+        <v>LAGGOUN</v>
+      </c>
+      <c r="C53" t="str">
+        <v>SALMA</v>
+      </c>
+      <c r="D53" t="str">
+        <v>F</v>
+      </c>
+      <c r="E53" t="str">
+        <v>03/06/1965</v>
+      </c>
+      <c r="F53" t="str">
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <v/>
+      </c>
+      <c r="H53" t="str">
+        <v/>
+      </c>
+      <c r="I53" t="str">
+        <v/>
+      </c>
+      <c r="J53" t="str">
+        <v>V</v>
+      </c>
+      <c r="K53" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="L53" t="str">
+        <v>LAGGOUN</v>
+      </c>
+      <c r="M53" t="str">
+        <v>MERIEM</v>
+      </c>
+      <c r="N53" t="str">
+        <v>KHELIFA</v>
+      </c>
+      <c r="O53" t="str">
+        <v>LAICHE</v>
+      </c>
+      <c r="P53" t="str">
+        <v>01/01/1942</v>
+      </c>
+      <c r="Q53" t="str">
+        <v/>
+      </c>
+      <c r="R53" t="str">
+        <v/>
+      </c>
+      <c r="S53" t="str">
+        <v/>
+      </c>
+      <c r="T53" t="str">
+        <v/>
+      </c>
+      <c r="U53" t="str">
+        <v>MOHAMED LAKHDAR</v>
+      </c>
+      <c r="V53" t="str">
+        <v>KHELFAOUI</v>
+      </c>
+      <c r="W53" t="str">
+        <v>MEBROUKA</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="str">
+        <v>HANNOUF</v>
+      </c>
+      <c r="C54" t="str">
+        <v>REDOUANE</v>
+      </c>
+      <c r="D54" t="str">
+        <v>M</v>
+      </c>
+      <c r="E54" t="str">
+        <v>26/03/1975</v>
+      </c>
+      <c r="F54" t="str">
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <v/>
+      </c>
+      <c r="H54" t="str">
+        <v/>
+      </c>
+      <c r="I54" t="str">
+        <v>362</v>
+      </c>
+      <c r="J54" t="str">
+        <v>M</v>
+      </c>
+      <c r="K54" t="str">
+        <v>ABDELKARIM</v>
+      </c>
+      <c r="L54" t="str">
+        <v>BEN SABERA</v>
+      </c>
+      <c r="M54" t="str">
+        <v>AKILA</v>
+      </c>
+      <c r="N54" t="str">
+        <v>HADEF</v>
+      </c>
+      <c r="O54" t="str">
+        <v>WAFIA</v>
+      </c>
+      <c r="P54" t="str">
+        <v>11/05/1983</v>
+      </c>
+      <c r="Q54" t="str">
+        <v/>
+      </c>
+      <c r="R54" t="str">
+        <v/>
+      </c>
+      <c r="S54" t="str">
+        <v/>
+      </c>
+      <c r="T54" t="str">
+        <v>1373</v>
+      </c>
+      <c r="U54" t="str">
+        <v>MOULOUD</v>
+      </c>
+      <c r="V54" t="str">
+        <v>BOUIDER</v>
+      </c>
+      <c r="W54" t="str">
+        <v>AKILA</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="str">
+        <v>KOUTTI</v>
+      </c>
+      <c r="C55" t="str">
+        <v>NACER</v>
+      </c>
+      <c r="D55" t="str">
+        <v>M</v>
+      </c>
+      <c r="E55" t="str">
+        <v>22/03/1980</v>
+      </c>
+      <c r="F55" t="str">
+        <v/>
+      </c>
+      <c r="G55" t="str">
+        <v/>
+      </c>
+      <c r="H55" t="str">
+        <v/>
+      </c>
+      <c r="I55" t="str">
+        <v/>
+      </c>
+      <c r="J55" t="str">
+        <v>M</v>
+      </c>
+      <c r="K55" t="str">
+        <v>SALAH</v>
+      </c>
+      <c r="L55" t="str">
+        <v>BOUDOUH</v>
+      </c>
+      <c r="M55" t="str">
+        <v>FATMA</v>
+      </c>
+      <c r="N55" t="str">
+        <v>MENZER</v>
+      </c>
+      <c r="O55" t="str">
+        <v>IMANE</v>
+      </c>
+      <c r="P55" t="str">
+        <v>23/02/1993</v>
+      </c>
+      <c r="Q55" t="str">
+        <v/>
+      </c>
+      <c r="R55" t="str">
+        <v/>
+      </c>
+      <c r="S55" t="str">
+        <v/>
+      </c>
+      <c r="T55" t="str">
+        <v>46</v>
+      </c>
+      <c r="U55" t="str">
+        <v>ABDELMADJID</v>
+      </c>
+      <c r="V55" t="str">
+        <v>ZEOUAOUI</v>
+      </c>
+      <c r="W55" t="str">
+        <v>FATIMA</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="C56" t="str">
+        <v xml:space="preserve">ALI  </v>
+      </c>
+      <c r="D56" t="str">
+        <v>M</v>
+      </c>
+      <c r="E56" t="str">
+        <v>27/10/1986</v>
+      </c>
+      <c r="F56" t="str">
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <v/>
+      </c>
+      <c r="H56" t="str">
+        <v/>
+      </c>
+      <c r="I56" t="str">
+        <v>333</v>
+      </c>
+      <c r="J56" t="str">
+        <v>M</v>
+      </c>
+      <c r="K56" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="L56" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="M56" t="str">
+        <v>MEBARKA</v>
+      </c>
+      <c r="N56" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="O56" t="str">
+        <v>NADJAT</v>
+      </c>
+      <c r="P56" t="str">
+        <v>20/01/1992</v>
+      </c>
+      <c r="Q56" t="str">
+        <v/>
+      </c>
+      <c r="R56" t="str">
+        <v/>
+      </c>
+      <c r="S56" t="str">
+        <v/>
+      </c>
+      <c r="T56" t="str">
+        <v>12</v>
+      </c>
+      <c r="U56" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="V56" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="W56" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="C57" t="str">
+        <v>BRAHIM</v>
+      </c>
+      <c r="D57" t="str">
+        <v>M</v>
+      </c>
+      <c r="E57" t="str">
+        <v>01/01/1979</v>
+      </c>
+      <c r="F57" t="str">
+        <v/>
+      </c>
+      <c r="G57" t="str">
+        <v/>
+      </c>
+      <c r="H57" t="str">
+        <v/>
+      </c>
+      <c r="I57" t="str">
+        <v/>
+      </c>
+      <c r="J57" t="str">
+        <v>M</v>
+      </c>
+      <c r="K57" t="str">
+        <v>MEBROUK</v>
+      </c>
+      <c r="L57" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="M57" t="str">
+        <v>FATMA</v>
+      </c>
+      <c r="N57" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="O57" t="str">
+        <v>FADHILA</v>
+      </c>
+      <c r="P57" t="str">
+        <v>01/01/1984</v>
+      </c>
+      <c r="Q57" t="str">
+        <v/>
+      </c>
+      <c r="R57" t="str">
+        <v/>
+      </c>
+      <c r="S57" t="str">
+        <v/>
+      </c>
+      <c r="T57" t="str">
+        <v/>
+      </c>
+      <c r="U57" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="V57" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="W57" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="str">
+        <v>GASMI</v>
+      </c>
+      <c r="C58" t="str">
+        <v>SAID</v>
+      </c>
+      <c r="D58" t="str">
+        <v>M</v>
+      </c>
+      <c r="E58" t="str">
+        <v>00/00/1983</v>
+      </c>
+      <c r="F58" t="str">
+        <v/>
+      </c>
+      <c r="G58" t="str">
+        <v/>
+      </c>
+      <c r="H58" t="str">
+        <v/>
+      </c>
+      <c r="I58" t="str">
+        <v>115</v>
+      </c>
+      <c r="J58" t="str">
+        <v>M</v>
+      </c>
+      <c r="K58" t="str">
+        <v>KHADIR</v>
+      </c>
+      <c r="L58" t="str">
+        <v>BENSADIA</v>
+      </c>
+      <c r="M58" t="str">
+        <v>SADIA</v>
+      </c>
+      <c r="N58" t="str">
+        <v>LAHZIEL</v>
+      </c>
+      <c r="O58" t="str">
+        <v>MASSOUDA</v>
+      </c>
+      <c r="P58" t="str">
+        <v>01/01/1985</v>
+      </c>
+      <c r="Q58" t="str">
+        <v/>
+      </c>
+      <c r="R58" t="str">
+        <v/>
+      </c>
+      <c r="S58" t="str">
+        <v/>
+      </c>
+      <c r="T58" t="str">
+        <v>2</v>
+      </c>
+      <c r="U58" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="V58" t="str">
+        <v>SOUD</v>
+      </c>
+      <c r="W58" t="str">
+        <v>FATIMA</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="str">
+        <v>TOUAHAR</v>
+      </c>
+      <c r="C59" t="str">
+        <v>MOKHTAR</v>
+      </c>
+      <c r="D59" t="str">
+        <v>M</v>
+      </c>
+      <c r="E59" t="str">
+        <v>13/06/1971</v>
+      </c>
+      <c r="F59" t="str">
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <v/>
+      </c>
+      <c r="H59" t="str">
+        <v/>
+      </c>
+      <c r="I59" t="str">
+        <v>216</v>
+      </c>
+      <c r="J59" t="str">
+        <v>M</v>
+      </c>
+      <c r="K59" t="str">
+        <v>HOCINE</v>
+      </c>
+      <c r="L59" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="M59" t="str">
+        <v>YAMINA</v>
+      </c>
+      <c r="N59" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="O59" t="str">
+        <v>LAILA</v>
+      </c>
+      <c r="P59" t="str">
+        <v>31/08/1997</v>
+      </c>
+      <c r="Q59" t="str">
+        <v/>
+      </c>
+      <c r="R59" t="str">
+        <v/>
+      </c>
+      <c r="S59" t="str">
+        <v/>
+      </c>
+      <c r="T59" t="str">
+        <v>367</v>
+      </c>
+      <c r="U59" t="str">
+        <v>SAID</v>
+      </c>
+      <c r="V59" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="W59" t="str">
+        <v>YAMINA</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="str">
+        <v xml:space="preserve">TOUIL </v>
+      </c>
+      <c r="C60" t="str">
+        <v>MERIEM</v>
+      </c>
+      <c r="D60" t="str">
+        <v>F</v>
+      </c>
+      <c r="E60" t="str">
+        <v>00/00/1949</v>
+      </c>
+      <c r="F60" t="str">
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <v/>
+      </c>
+      <c r="H60" t="str">
+        <v/>
+      </c>
+      <c r="I60" t="str">
+        <v>2959</v>
+      </c>
+      <c r="J60" t="str">
+        <v>V</v>
+      </c>
+      <c r="K60" t="str">
+        <v>BACHIR</v>
+      </c>
+      <c r="L60" t="str">
+        <v>LEBBOUZ</v>
+      </c>
+      <c r="M60" t="str">
+        <v>FATMA</v>
+      </c>
+      <c r="N60" t="str">
+        <v>BENTERKIA</v>
+      </c>
+      <c r="O60" t="str">
+        <v>KHELIFA</v>
+      </c>
+      <c r="P60" t="str">
+        <v>00/00/1935</v>
+      </c>
+      <c r="Q60" t="str">
+        <v/>
+      </c>
+      <c r="R60" t="str">
+        <v/>
+      </c>
+      <c r="S60" t="str">
+        <v/>
+      </c>
+      <c r="T60" t="str">
+        <v>742</v>
+      </c>
+      <c r="U60" t="str">
+        <v>TAHAR</v>
+      </c>
+      <c r="V60" t="str">
+        <v>ABID</v>
+      </c>
+      <c r="W60" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="str">
+        <v>ZEGAOU</v>
+      </c>
+      <c r="C61" t="str">
+        <v>CHERIF</v>
+      </c>
+      <c r="D61" t="str">
+        <v>M</v>
+      </c>
+      <c r="E61" t="str">
+        <v>17/05/1987</v>
+      </c>
+      <c r="F61" t="str">
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <v/>
+      </c>
+      <c r="H61" t="str">
+        <v/>
+      </c>
+      <c r="I61" t="str">
+        <v>112</v>
+      </c>
+      <c r="J61" t="str">
+        <v>M</v>
+      </c>
+      <c r="K61" t="str">
+        <v>AMMAR</v>
+      </c>
+      <c r="L61" t="str">
+        <v>BACHI</v>
+      </c>
+      <c r="M61" t="str">
+        <v>ZOHRA</v>
+      </c>
+      <c r="N61" t="str">
+        <v>ZEGAOUI</v>
+      </c>
+      <c r="O61" t="str">
+        <v>NOUR ELHOUDA</v>
+      </c>
+      <c r="P61" t="str">
+        <v>23/04/1999</v>
+      </c>
+      <c r="Q61" t="str">
+        <v/>
+      </c>
+      <c r="R61" t="str">
+        <v/>
+      </c>
+      <c r="S61" t="str">
+        <v/>
+      </c>
+      <c r="T61" t="str">
+        <v>414</v>
+      </c>
+      <c r="U61" t="str">
+        <v>KHELIFA</v>
+      </c>
+      <c r="V61" t="str">
+        <v>BEDDIAF</v>
+      </c>
+      <c r="W61" t="str">
+        <v>ZOHRA</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="str">
+        <v>REZZAG HEBLA</v>
+      </c>
+      <c r="C62" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="D62" t="str">
+        <v>M</v>
+      </c>
+      <c r="E62" t="str">
+        <v>05/05/1987</v>
+      </c>
+      <c r="F62" t="str">
+        <v/>
+      </c>
+      <c r="G62" t="str">
+        <v/>
+      </c>
+      <c r="H62" t="str">
+        <v/>
+      </c>
+      <c r="I62" t="str">
+        <v>107</v>
+      </c>
+      <c r="J62" t="str">
+        <v>M</v>
+      </c>
+      <c r="K62" t="str">
+        <v>SAID</v>
+      </c>
+      <c r="L62" t="str">
+        <v>ZOUARI FERHAT</v>
+      </c>
+      <c r="M62" t="str">
+        <v>FATIMA</v>
+      </c>
+      <c r="N62" t="str">
+        <v>SOUILEM</v>
+      </c>
+      <c r="O62" t="str">
+        <v>DALILA</v>
+      </c>
+      <c r="P62" t="str">
+        <v>08/03/1993</v>
+      </c>
+      <c r="Q62" t="str">
+        <v/>
+      </c>
+      <c r="R62" t="str">
+        <v/>
+      </c>
+      <c r="S62" t="str">
+        <v/>
+      </c>
+      <c r="T62" t="str">
+        <v>49</v>
+      </c>
+      <c r="U62" t="str">
+        <v>SAYAH</v>
+      </c>
+      <c r="V62" t="str">
+        <v>REZZAG HEBLA</v>
+      </c>
+      <c r="W62" t="str">
+        <v>KHIERA</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="str">
+        <v>ROUAS</v>
+      </c>
+      <c r="C63" t="str">
+        <v>BRAHIM</v>
+      </c>
+      <c r="D63" t="str">
+        <v>M</v>
+      </c>
+      <c r="E63" t="str">
+        <v>00/00/1983</v>
+      </c>
+      <c r="F63" t="str">
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <v/>
+      </c>
+      <c r="H63" t="str">
+        <v/>
+      </c>
+      <c r="I63" t="str">
+        <v>325</v>
+      </c>
+      <c r="J63" t="str">
+        <v>M</v>
+      </c>
+      <c r="K63" t="str">
+        <v>MOHAMMED TAHAR</v>
+      </c>
+      <c r="L63" t="str">
+        <v>GASMI</v>
+      </c>
+      <c r="M63" t="str">
+        <v>RABIAA</v>
+      </c>
+      <c r="N63" t="str">
+        <v>GASMI</v>
+      </c>
+      <c r="O63" t="str">
+        <v>FAIZA</v>
+      </c>
+      <c r="P63" t="str">
+        <v>21/03/1994</v>
+      </c>
+      <c r="Q63" t="str">
+        <v/>
+      </c>
+      <c r="R63" t="str">
+        <v/>
+      </c>
+      <c r="S63" t="str">
+        <v/>
+      </c>
+      <c r="T63" t="str">
+        <v>252</v>
+      </c>
+      <c r="U63" t="str">
+        <v>LAICHE</v>
+      </c>
+      <c r="V63" t="str">
+        <v>GASMI</v>
+      </c>
+      <c r="W63" t="str">
+        <v>OUMELKHIR</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="str">
+        <v>ROUAS</v>
+      </c>
+      <c r="C64" t="str">
+        <v>MAHMOUD</v>
+      </c>
+      <c r="D64" t="str">
+        <v>M</v>
+      </c>
+      <c r="E64" t="str">
+        <v>00/00/1968</v>
+      </c>
+      <c r="F64" t="str">
+        <v/>
+      </c>
+      <c r="G64" t="str">
+        <v/>
+      </c>
+      <c r="H64" t="str">
+        <v/>
+      </c>
+      <c r="I64" t="str">
+        <v>97</v>
+      </c>
+      <c r="J64" t="str">
+        <v>M</v>
+      </c>
+      <c r="K64" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="L64" t="str">
+        <v>KHADIR</v>
+      </c>
+      <c r="M64" t="str">
+        <v>FATMA</v>
+      </c>
+      <c r="N64" t="str">
+        <v>ROUAS</v>
+      </c>
+      <c r="O64" t="str">
+        <v>MALIKA</v>
+      </c>
+      <c r="P64" t="str">
+        <v>24/06/1981</v>
+      </c>
+      <c r="Q64" t="str">
+        <v/>
+      </c>
+      <c r="R64" t="str">
+        <v/>
+      </c>
+      <c r="S64" t="str">
+        <v/>
+      </c>
+      <c r="T64" t="str">
+        <v>563</v>
+      </c>
+      <c r="U64" t="str">
+        <v>MOHAMMED TAHAR</v>
+      </c>
+      <c r="V64" t="str">
+        <v>MENGAA</v>
+      </c>
+      <c r="W64" t="str">
+        <v>MEBROUKA</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="str">
+        <v>SAHRAOUI</v>
+      </c>
+      <c r="C65" t="str">
+        <v>NAOUIA</v>
+      </c>
+      <c r="D65" t="str">
+        <v>F</v>
+      </c>
+      <c r="E65" t="str">
+        <v>00/00/1961</v>
+      </c>
+      <c r="F65" t="str">
+        <v/>
+      </c>
+      <c r="G65" t="str">
+        <v/>
+      </c>
+      <c r="H65" t="str">
+        <v/>
+      </c>
+      <c r="I65" t="str">
+        <v>83</v>
+      </c>
+      <c r="J65" t="str">
+        <v>V</v>
+      </c>
+      <c r="K65" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="L65" t="str">
+        <v>SAHRAOUI</v>
+      </c>
+      <c r="M65" t="str">
+        <v>ZOHRA</v>
+      </c>
+      <c r="N65" t="str">
+        <v>ABOUB</v>
+      </c>
+      <c r="O65" t="str">
+        <v>ABDELLAH</v>
+      </c>
+      <c r="P65" t="str">
+        <v>00/00/1953</v>
+      </c>
+      <c r="Q65" t="str">
+        <v/>
+      </c>
+      <c r="R65" t="str">
+        <v/>
+      </c>
+      <c r="S65" t="str">
+        <v/>
+      </c>
+      <c r="T65" t="str">
+        <v>180</v>
+      </c>
+      <c r="U65" t="str">
+        <v>MAMMAR</v>
+      </c>
+      <c r="V65" t="str">
+        <v>ABOUB</v>
+      </c>
+      <c r="W65" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="str">
+        <v>SERRAYE</v>
+      </c>
+      <c r="C66" t="str">
+        <v>KHELIFA</v>
+      </c>
+      <c r="D66" t="str">
+        <v>M</v>
+      </c>
+      <c r="E66" t="str">
+        <v>07/07/1986</v>
+      </c>
+      <c r="F66" t="str">
+        <v/>
+      </c>
+      <c r="G66" t="str">
+        <v/>
+      </c>
+      <c r="H66" t="str">
+        <v/>
+      </c>
+      <c r="I66" t="str">
+        <v>125</v>
+      </c>
+      <c r="J66" t="str">
+        <v>M</v>
+      </c>
+      <c r="K66" t="str">
+        <v>SAID</v>
+      </c>
+      <c r="L66" t="str">
+        <v>SERRAYE</v>
+      </c>
+      <c r="M66" t="str">
+        <v>MALIKA</v>
+      </c>
+      <c r="N66" t="str">
+        <v>DJIDEL</v>
+      </c>
+      <c r="O66" t="str">
+        <v>OUARDA</v>
+      </c>
+      <c r="P66" t="str">
+        <v>03/11/1992</v>
+      </c>
+      <c r="Q66" t="str">
+        <v/>
+      </c>
+      <c r="R66" t="str">
+        <v/>
+      </c>
+      <c r="S66" t="str">
+        <v/>
+      </c>
+      <c r="T66" t="str">
+        <v>370</v>
+      </c>
+      <c r="U66" t="str">
+        <v>SAID</v>
+      </c>
+      <c r="V66" t="str">
+        <v>MOUANE</v>
+      </c>
+      <c r="W66" t="str">
+        <v>OUM ELKHIR</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="str">
+        <v>TOUAHAR</v>
+      </c>
+      <c r="C67" t="str">
+        <v>SABAH</v>
+      </c>
+      <c r="D67" t="str">
+        <v>F</v>
+      </c>
+      <c r="E67" t="str">
+        <v>00/00/1981</v>
+      </c>
+      <c r="F67" t="str">
+        <v/>
+      </c>
+      <c r="G67" t="str">
+        <v/>
+      </c>
+      <c r="H67" t="str">
+        <v/>
+      </c>
+      <c r="I67" t="str">
+        <v>309</v>
+      </c>
+      <c r="J67" t="str">
+        <v>D</v>
+      </c>
+      <c r="K67" t="str">
+        <v>HOCINE</v>
+      </c>
+      <c r="L67" t="str">
+        <v>GASMI</v>
+      </c>
+      <c r="M67" t="str">
+        <v>AICHA</v>
+      </c>
+      <c r="N67" t="str">
+        <v/>
+      </c>
+      <c r="O67" t="str">
+        <v/>
+      </c>
+      <c r="P67" t="str">
+        <v/>
+      </c>
+      <c r="Q67" t="str">
+        <v/>
+      </c>
+      <c r="R67" t="str">
+        <v/>
+      </c>
+      <c r="S67" t="str">
+        <v/>
+      </c>
+      <c r="T67" t="str">
+        <v/>
+      </c>
+      <c r="U67" t="str">
+        <v/>
+      </c>
+      <c r="V67" t="str">
+        <v/>
+      </c>
+      <c r="W67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="str">
+        <v>ZEGHOUD</v>
+      </c>
+      <c r="C68" t="str">
+        <v>SAID</v>
+      </c>
+      <c r="D68" t="str">
+        <v>M</v>
+      </c>
+      <c r="E68" t="str">
+        <v>24/10/1984</v>
+      </c>
+      <c r="F68" t="str">
+        <v/>
+      </c>
+      <c r="G68" t="str">
+        <v/>
+      </c>
+      <c r="H68" t="str">
+        <v/>
+      </c>
+      <c r="I68" t="str">
+        <v>827</v>
+      </c>
+      <c r="J68" t="str">
+        <v>M</v>
+      </c>
+      <c r="K68" t="str">
+        <v xml:space="preserve">MOHAMMED       </v>
+      </c>
+      <c r="L68" t="str">
+        <v>TOUAHRI</v>
+      </c>
+      <c r="M68" t="str">
+        <v>AICHA</v>
+      </c>
+      <c r="N68" t="str">
+        <v>BECHOUA</v>
+      </c>
+      <c r="O68" t="str">
+        <v>FADILA</v>
+      </c>
+      <c r="P68" t="str">
+        <v>17/04/1994</v>
+      </c>
+      <c r="Q68" t="str">
+        <v/>
+      </c>
+      <c r="R68" t="str">
+        <v/>
+      </c>
+      <c r="S68" t="str">
+        <v/>
+      </c>
+      <c r="T68" t="str">
+        <v>316</v>
+      </c>
+      <c r="U68" t="str">
+        <v>SAID</v>
+      </c>
+      <c r="V68" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="W68" t="str">
+        <v>FATIHA</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="str">
+        <v>GOSSI</v>
+      </c>
+      <c r="C69" t="str">
+        <v>MESSAOUDA</v>
+      </c>
+      <c r="D69" t="str">
+        <v>F</v>
+      </c>
+      <c r="E69" t="str">
+        <v>21/06/1983</v>
+      </c>
+      <c r="F69" t="str">
+        <v/>
+      </c>
+      <c r="G69" t="str">
+        <v/>
+      </c>
+      <c r="H69" t="str">
+        <v/>
+      </c>
+      <c r="I69" t="str">
+        <v>83</v>
+      </c>
+      <c r="J69" t="str">
+        <v>D</v>
+      </c>
+      <c r="K69" t="str">
+        <v>TAHAR</v>
+      </c>
+      <c r="L69" t="str">
+        <v>GOSSI</v>
+      </c>
+      <c r="M69" t="str">
+        <v>MEBARKA</v>
+      </c>
+      <c r="N69" t="str">
+        <v/>
+      </c>
+      <c r="O69" t="str">
+        <v/>
+      </c>
+      <c r="P69" t="str">
+        <v/>
+      </c>
+      <c r="Q69" t="str">
+        <v/>
+      </c>
+      <c r="R69" t="str">
+        <v/>
+      </c>
+      <c r="S69" t="str">
+        <v/>
+      </c>
+      <c r="T69" t="str">
+        <v/>
+      </c>
+      <c r="U69" t="str">
+        <v/>
+      </c>
+      <c r="V69" t="str">
+        <v/>
+      </c>
+      <c r="W69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="str">
+        <v>MOUANE</v>
+      </c>
+      <c r="C70" t="str">
+        <v>OUMELKHIR</v>
+      </c>
+      <c r="D70" t="str">
+        <v>F</v>
+      </c>
+      <c r="E70" t="str">
+        <v>00/00/1972</v>
+      </c>
+      <c r="F70" t="str">
+        <v/>
+      </c>
+      <c r="G70" t="str">
+        <v/>
+      </c>
+      <c r="H70" t="str">
+        <v/>
+      </c>
+      <c r="I70" t="str">
+        <v>826</v>
+      </c>
+      <c r="J70" t="str">
+        <v>V</v>
+      </c>
+      <c r="K70" t="str">
+        <v>MEBROUK</v>
+      </c>
+      <c r="L70" t="str">
+        <v xml:space="preserve"> OUGGAD</v>
+      </c>
+      <c r="M70" t="str">
+        <v>AICHA</v>
+      </c>
+      <c r="N70" t="str">
+        <v xml:space="preserve"> DJIDEL</v>
+      </c>
+      <c r="O70" t="str">
+        <v>SAID</v>
+      </c>
+      <c r="P70" t="str">
+        <v>01/09/1959</v>
+      </c>
+      <c r="Q70" t="str">
+        <v/>
+      </c>
+      <c r="R70" t="str">
+        <v/>
+      </c>
+      <c r="S70" t="str">
+        <v/>
+      </c>
+      <c r="T70" t="str">
+        <v>2561</v>
+      </c>
+      <c r="U70" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="V70" t="str">
+        <v xml:space="preserve"> BEBBOUKHA</v>
+      </c>
+      <c r="W70" t="str">
+        <v>AICHA</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="str">
+        <v>NEMROUD</v>
+      </c>
+      <c r="C71" t="str">
+        <v>ABDELGHANI</v>
+      </c>
+      <c r="D71" t="str">
+        <v>M</v>
+      </c>
+      <c r="E71" t="str">
+        <v>02/03/1987</v>
+      </c>
+      <c r="F71" t="str">
+        <v/>
+      </c>
+      <c r="G71" t="str">
+        <v/>
+      </c>
+      <c r="H71" t="str">
+        <v/>
+      </c>
+      <c r="I71" t="str">
+        <v/>
+      </c>
+      <c r="J71" t="str">
+        <v>M</v>
+      </c>
+      <c r="K71" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="L71" t="str">
+        <v>BOUAZENI</v>
+      </c>
+      <c r="M71" t="str">
+        <v>KHIRA</v>
+      </c>
+      <c r="N71" t="str">
+        <v>BEBBOUKHA</v>
+      </c>
+      <c r="O71" t="str">
+        <v>FATTOUM</v>
+      </c>
+      <c r="P71" t="str">
+        <v>02/11/1992</v>
+      </c>
+      <c r="Q71" t="str">
+        <v/>
+      </c>
+      <c r="R71" t="str">
+        <v/>
+      </c>
+      <c r="S71" t="str">
+        <v/>
+      </c>
+      <c r="T71" t="str">
+        <v>379</v>
+      </c>
+      <c r="U71" t="str">
+        <v>SAID</v>
+      </c>
+      <c r="V71" t="str">
+        <v>HANED</v>
+      </c>
+      <c r="W71" t="str">
+        <v>HAYAT</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="str">
+        <v>TOUAHRI</v>
+      </c>
+      <c r="C72" t="str">
+        <v>KHEIRA</v>
+      </c>
+      <c r="D72" t="str">
+        <v>F</v>
+      </c>
+      <c r="E72" t="str">
+        <v>00/00/1957</v>
+      </c>
+      <c r="F72" t="str">
+        <v/>
+      </c>
+      <c r="G72" t="str">
+        <v/>
+      </c>
+      <c r="H72" t="str">
+        <v/>
+      </c>
+      <c r="I72" t="str">
+        <v>237</v>
+      </c>
+      <c r="J72" t="str">
+        <v>V</v>
+      </c>
+      <c r="K72" t="str">
+        <v>BELGACEM</v>
+      </c>
+      <c r="L72" t="str">
+        <v>BEKKARI</v>
+      </c>
+      <c r="M72" t="str">
+        <v>KHADRA</v>
+      </c>
+      <c r="N72" t="str">
+        <v>ATTALI</v>
+      </c>
+      <c r="O72" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="P72" t="str">
+        <v>00/00/1930</v>
+      </c>
+      <c r="Q72" t="str">
+        <v/>
+      </c>
+      <c r="R72" t="str">
+        <v/>
+      </c>
+      <c r="S72" t="str">
+        <v/>
+      </c>
+      <c r="T72" t="str">
+        <v>503</v>
+      </c>
+      <c r="U72" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="V72" t="str">
+        <v>MADANI</v>
+      </c>
+      <c r="W72" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="str">
+        <v>NOUGTI</v>
+      </c>
+      <c r="C73" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="D73" t="str">
+        <v>M</v>
+      </c>
+      <c r="E73" t="str">
+        <v>04/03/1985</v>
+      </c>
+      <c r="F73" t="str">
+        <v/>
+      </c>
+      <c r="G73" t="str">
+        <v/>
+      </c>
+      <c r="H73" t="str">
+        <v/>
+      </c>
+      <c r="I73" t="str">
+        <v>10</v>
+      </c>
+      <c r="J73" t="str">
+        <v>M</v>
+      </c>
+      <c r="K73" t="str">
+        <v>BELGACEM</v>
+      </c>
+      <c r="L73" t="str">
+        <v>DOUADI</v>
+      </c>
+      <c r="M73" t="str">
+        <v>MERIEM</v>
+      </c>
+      <c r="N73" t="str">
+        <v>NOUGTI</v>
+      </c>
+      <c r="O73" t="str">
+        <v>DJAMILA</v>
+      </c>
+      <c r="P73" t="str">
+        <v>27/02/1993</v>
+      </c>
+      <c r="Q73" t="str">
+        <v/>
+      </c>
+      <c r="R73" t="str">
+        <v/>
+      </c>
+      <c r="S73" t="str">
+        <v/>
+      </c>
+      <c r="T73" t="str">
+        <v>22</v>
+      </c>
+      <c r="U73" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="V73" t="str">
+        <v>RACHEDI</v>
+      </c>
+      <c r="W73" t="str">
+        <v>ZEHIRA</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="str">
+        <v>DRIDI</v>
+      </c>
+      <c r="C74" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="D74" t="str">
+        <v>M</v>
+      </c>
+      <c r="E74" t="str">
+        <v>25/03/1987</v>
+      </c>
+      <c r="F74" t="str">
+        <v/>
+      </c>
+      <c r="G74" t="str">
+        <v/>
+      </c>
+      <c r="H74" t="str">
+        <v/>
+      </c>
+      <c r="I74" t="str">
+        <v>45</v>
+      </c>
+      <c r="J74" t="str">
+        <v>M</v>
+      </c>
+      <c r="K74" t="str">
+        <v>LAID</v>
+      </c>
+      <c r="L74" t="str">
+        <v>DRIDI</v>
+      </c>
+      <c r="M74" t="str">
+        <v>MERIEM</v>
+      </c>
+      <c r="N74" t="str">
+        <v>DRIDI</v>
+      </c>
+      <c r="O74" t="str">
+        <v>DJAMILA</v>
+      </c>
+      <c r="P74" t="str">
+        <v>23/08/1991</v>
+      </c>
+      <c r="Q74" t="str">
+        <v/>
+      </c>
+      <c r="R74" t="str">
+        <v/>
+      </c>
+      <c r="S74" t="str">
+        <v/>
+      </c>
+      <c r="T74" t="str">
+        <v>23</v>
+      </c>
+      <c r="U74" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="V74" t="str">
+        <v>DRIDI</v>
+      </c>
+      <c r="W74" t="str">
+        <v>MEBROUKA</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="str">
+        <v>LAOUNI</v>
+      </c>
+      <c r="C75" t="str">
+        <v>LAHCEN</v>
+      </c>
+      <c r="D75" t="str">
+        <v>M</v>
+      </c>
+      <c r="E75" t="str">
+        <v>01/02/1987</v>
+      </c>
+      <c r="F75" t="str">
+        <v/>
+      </c>
+      <c r="G75" t="str">
+        <v/>
+      </c>
+      <c r="H75" t="str">
+        <v/>
+      </c>
+      <c r="I75" t="str">
+        <v/>
+      </c>
+      <c r="J75" t="str">
+        <v>M</v>
+      </c>
+      <c r="K75" t="str">
+        <v>ABEDELHAKEM</v>
+      </c>
+      <c r="L75" t="str">
+        <v>BEBBOUKHA</v>
+      </c>
+      <c r="M75" t="str">
+        <v>AICHA</v>
+      </c>
+      <c r="N75" t="str">
+        <v>BEBBOUKHA</v>
+      </c>
+      <c r="O75" t="str">
+        <v>SALMA</v>
+      </c>
+      <c r="P75" t="str">
+        <v>17/05/1996</v>
+      </c>
+      <c r="Q75" t="str">
+        <v/>
+      </c>
+      <c r="R75" t="str">
+        <v/>
+      </c>
+      <c r="S75" t="str">
+        <v/>
+      </c>
+      <c r="T75" t="str">
+        <v>48</v>
+      </c>
+      <c r="U75" t="str">
+        <v>ABDELKADER</v>
+      </c>
+      <c r="V75" t="str">
+        <v>HAMAMA</v>
+      </c>
+      <c r="W75" t="str">
+        <v>ZOHRA</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W75"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/EnquetCNLnew.xlsx
+++ b/EnquetCNLnew.xlsx
@@ -32,8 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -478,40 +479,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>AMMARI</v>
+        <v>BAHDI</v>
       </c>
       <c r="C2" t="str">
-        <v>ZOHRA</v>
+        <v>MESSAOUDA</v>
       </c>
       <c r="D2" t="str">
         <v>F</v>
       </c>
       <c r="E2" t="str">
-        <v>00/00/1952</v>
+        <v>01/07/1985</v>
       </c>
       <c r="F2" t="str">
         <v/>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>OUMIH OUNSA</v>
       </c>
       <c r="H2" t="str">
         <v/>
       </c>
       <c r="I2" t="str">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="J2" t="str">
         <v>D</v>
       </c>
       <c r="K2" t="str">
-        <v>SEGHIR</v>
+        <v>MOSBAH</v>
       </c>
       <c r="L2" t="str">
-        <v>MANGAA</v>
+        <v>MERAD</v>
       </c>
       <c r="M2" t="str">
-        <v>LALIA</v>
+        <v>MEBARKA</v>
       </c>
       <c r="N2" t="str">
         <v/>
@@ -564,7 +565,7 @@
         <v/>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>TOUGGOURT</v>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -620,40 +621,40 @@
         <v>1</v>
       </c>
       <c r="B4" t="str">
-        <v>BAHDI</v>
+        <v>AMMARI</v>
       </c>
       <c r="C4" t="str">
-        <v>MESSAOUDA</v>
+        <v>ZOHRA</v>
       </c>
       <c r="D4" t="str">
         <v>F</v>
       </c>
       <c r="E4" t="str">
-        <v>01/07/1985</v>
+        <v>01/01/1952</v>
       </c>
       <c r="F4" t="str">
         <v/>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H4" t="str">
         <v/>
       </c>
       <c r="I4" t="str">
-        <v>269</v>
+        <v>86</v>
       </c>
       <c r="J4" t="str">
         <v>D</v>
       </c>
       <c r="K4" t="str">
-        <v>MOSBAH</v>
+        <v>SEGHIR</v>
       </c>
       <c r="L4" t="str">
-        <v>MERAD</v>
+        <v>MANGAA</v>
       </c>
       <c r="M4" t="str">
-        <v>MEBARKA</v>
+        <v>LALIA</v>
       </c>
       <c r="N4" t="str">
         <v/>
@@ -706,7 +707,7 @@
         <v/>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v>TOUGGOURT</v>
       </c>
       <c r="H5" t="str">
         <v/>
@@ -762,37 +763,37 @@
         <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v>KHELFAOUI</v>
+        <v>FORTAS</v>
       </c>
       <c r="C6" t="str">
-        <v>ZOHRA</v>
+        <v>SOUAD</v>
       </c>
       <c r="D6" t="str">
         <v>F</v>
       </c>
       <c r="E6" t="str">
-        <v>25/11/1958</v>
+        <v>19/08/1985</v>
       </c>
       <c r="F6" t="str">
         <v/>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H6" t="str">
         <v/>
       </c>
       <c r="I6" t="str">
-        <v>3021</v>
+        <v>354</v>
       </c>
       <c r="J6" t="str">
         <v>D</v>
       </c>
       <c r="K6" t="str">
-        <v>MOHAMMED LATRCHE</v>
+        <v>ALI</v>
       </c>
       <c r="L6" t="str">
-        <v>LAGGOUN</v>
+        <v>FORTAS</v>
       </c>
       <c r="M6" t="str">
         <v>FATMA</v>
@@ -833,37 +834,37 @@
         <v>1</v>
       </c>
       <c r="B7" t="str">
-        <v>MANSOURI</v>
+        <v>KHELFAOUI</v>
       </c>
       <c r="C7" t="str">
-        <v>LAZHAR</v>
+        <v>ZOHRA</v>
       </c>
       <c r="D7" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E7" t="str">
-        <v>P 1986</v>
+        <v>25/11/1958</v>
       </c>
       <c r="F7" t="str">
         <v/>
       </c>
       <c r="G7" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H7" t="str">
         <v/>
       </c>
       <c r="I7" t="str">
-        <v>264</v>
+        <v>3021</v>
       </c>
       <c r="J7" t="str">
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="K7" t="str">
-        <v>HAMMA</v>
+        <v>MOHAMMED LATRCHE</v>
       </c>
       <c r="L7" t="str">
-        <v>MANSOURI</v>
+        <v>LAGGOUN</v>
       </c>
       <c r="M7" t="str">
         <v>FATMA</v>
@@ -904,40 +905,40 @@
         <v>1</v>
       </c>
       <c r="B8" t="str">
-        <v>MILOUDA</v>
+        <v>MANSOURI</v>
       </c>
       <c r="C8" t="str">
-        <v>HAYAT</v>
+        <v>LAZHAR</v>
       </c>
       <c r="D8" t="str">
         <v>M</v>
       </c>
       <c r="E8" t="str">
-        <v>10/06/1982</v>
+        <v>01/01/1986</v>
       </c>
       <c r="F8" t="str">
         <v/>
       </c>
       <c r="G8" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H8" t="str">
         <v/>
       </c>
       <c r="I8" t="str">
-        <v>479</v>
+        <v>264</v>
       </c>
       <c r="J8" t="str">
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="K8" t="str">
-        <v>BEDDA</v>
+        <v>HAMMA</v>
       </c>
       <c r="L8" t="str">
-        <v>DIDA</v>
+        <v>MANSOURI</v>
       </c>
       <c r="M8" t="str">
-        <v>AICHA</v>
+        <v>FATMA</v>
       </c>
       <c r="N8" t="str">
         <v/>
@@ -975,40 +976,40 @@
         <v>1</v>
       </c>
       <c r="B9" t="str">
-        <v>FORTAS</v>
+        <v>MILOUDA</v>
       </c>
       <c r="C9" t="str">
-        <v>SOUAD</v>
+        <v>HAYAT</v>
       </c>
       <c r="D9" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E9" t="str">
-        <v>19/08/1985</v>
+        <v>10/06/1982</v>
       </c>
       <c r="F9" t="str">
         <v/>
       </c>
       <c r="G9" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H9" t="str">
         <v/>
       </c>
       <c r="I9" t="str">
-        <v>354</v>
+        <v>479</v>
       </c>
       <c r="J9" t="str">
         <v>D</v>
       </c>
       <c r="K9" t="str">
-        <v>ALI</v>
+        <v>BEDDA</v>
       </c>
       <c r="L9" t="str">
-        <v>FORTAS</v>
+        <v>DIDA</v>
       </c>
       <c r="M9" t="str">
-        <v>FATMA</v>
+        <v>AICHA</v>
       </c>
       <c r="N9" t="str">
         <v/>
@@ -1061,7 +1062,7 @@
         <v/>
       </c>
       <c r="G10" t="str">
-        <v/>
+        <v>NEZLA</v>
       </c>
       <c r="H10" t="str">
         <v/>
@@ -1132,7 +1133,7 @@
         <v/>
       </c>
       <c r="G11" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H11" t="str">
         <v/>
@@ -1191,67 +1192,67 @@
         <v>ALIAT</v>
       </c>
       <c r="C12" t="str">
-        <v>MOHAMED SGHIR</v>
+        <v>LAICHE</v>
       </c>
       <c r="D12" t="str">
         <v>M</v>
       </c>
       <c r="E12" t="str">
-        <v>22/09/1984</v>
+        <v>22/02/1971</v>
       </c>
       <c r="F12" t="str">
         <v/>
       </c>
       <c r="G12" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H12" t="str">
         <v/>
       </c>
       <c r="I12" t="str">
-        <v>798</v>
+        <v>68</v>
       </c>
       <c r="J12" t="str">
         <v>M</v>
       </c>
       <c r="K12" t="str">
-        <v>LAICHE</v>
+        <v>MESSAOUD</v>
       </c>
       <c r="L12" t="str">
-        <v>KADI</v>
+        <v>BELADJAL</v>
       </c>
       <c r="M12" t="str">
-        <v>MALIKA</v>
+        <v>MEBROUKA</v>
       </c>
       <c r="N12" t="str">
-        <v>GUENOUA</v>
+        <v>ALIAT</v>
       </c>
       <c r="O12" t="str">
-        <v>FOUZIA</v>
+        <v>FARIDA</v>
       </c>
       <c r="P12" t="str">
-        <v>04/05/1995</v>
+        <v>01/01/1970</v>
       </c>
       <c r="Q12" t="str">
         <v/>
       </c>
       <c r="R12" t="str">
-        <v/>
+        <v>ELOUED</v>
       </c>
       <c r="S12" t="str">
         <v/>
       </c>
       <c r="T12" t="str">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="U12" t="str">
-        <v>MOHAMMED</v>
+        <v>LARBI</v>
       </c>
       <c r="V12" t="str">
-        <v>DOUH</v>
+        <v>BELADJAL</v>
       </c>
       <c r="W12" t="str">
-        <v>FATIHA</v>
+        <v>OUMELKHIR</v>
       </c>
     </row>
     <row r="13">
@@ -1262,67 +1263,67 @@
         <v>ALIAT</v>
       </c>
       <c r="C13" t="str">
-        <v>SAYAH</v>
+        <v>MOHAMED SGHIR</v>
       </c>
       <c r="D13" t="str">
         <v>M</v>
       </c>
       <c r="E13" t="str">
-        <v>00/00/1977</v>
+        <v>22/09/1984</v>
       </c>
       <c r="F13" t="str">
         <v/>
       </c>
       <c r="G13" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H13" t="str">
         <v/>
       </c>
       <c r="I13" t="str">
-        <v>660</v>
+        <v>798</v>
       </c>
       <c r="J13" t="str">
         <v>M</v>
       </c>
       <c r="K13" t="str">
-        <v>MAMMAR</v>
+        <v>LAICHE</v>
       </c>
       <c r="L13" t="str">
-        <v>MOUSSAOUI</v>
+        <v>KADI</v>
       </c>
       <c r="M13" t="str">
-        <v>MERIEM</v>
+        <v>MALIKA</v>
       </c>
       <c r="N13" t="str">
-        <v>ALIAT</v>
+        <v>GUENOUA</v>
       </c>
       <c r="O13" t="str">
-        <v>HAYAT</v>
+        <v>FOUZIA</v>
       </c>
       <c r="P13" t="str">
-        <v>24/11/1983</v>
+        <v>04/05/1995</v>
       </c>
       <c r="Q13" t="str">
         <v/>
       </c>
       <c r="R13" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S13" t="str">
         <v/>
       </c>
       <c r="T13" t="str">
-        <v>158</v>
+        <v>372</v>
       </c>
       <c r="U13" t="str">
-        <v>MESSAOUD</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="V13" t="str">
-        <v>SERRAYE</v>
+        <v>DOUH</v>
       </c>
       <c r="W13" t="str">
-        <v>NEDJEMA</v>
+        <v>FATIHA</v>
       </c>
     </row>
     <row r="14">
@@ -1330,70 +1331,70 @@
         <v>1</v>
       </c>
       <c r="B14" t="str">
-        <v>AMMARI</v>
+        <v>ALIAT</v>
       </c>
       <c r="C14" t="str">
-        <v xml:space="preserve">MOHAMMED </v>
+        <v>SAYAH</v>
       </c>
       <c r="D14" t="str">
         <v>M</v>
       </c>
       <c r="E14" t="str">
-        <v>03/10/1985</v>
+        <v>01/01/1977</v>
       </c>
       <c r="F14" t="str">
         <v/>
       </c>
       <c r="G14" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H14" t="str">
         <v/>
       </c>
       <c r="I14" t="str">
-        <v>119</v>
+        <v>660</v>
       </c>
       <c r="J14" t="str">
         <v>M</v>
       </c>
       <c r="K14" t="str">
+        <v>MAMMAR</v>
+      </c>
+      <c r="L14" t="str">
+        <v>MOUSSAOUI</v>
+      </c>
+      <c r="M14" t="str">
+        <v>MERIEM</v>
+      </c>
+      <c r="N14" t="str">
+        <v>ALIAT</v>
+      </c>
+      <c r="O14" t="str">
+        <v>HAYAT</v>
+      </c>
+      <c r="P14" t="str">
+        <v>24/11/1983</v>
+      </c>
+      <c r="Q14" t="str">
+        <v/>
+      </c>
+      <c r="R14" t="str">
+        <v>TOUGGOURT</v>
+      </c>
+      <c r="S14" t="str">
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <v>158</v>
+      </c>
+      <c r="U14" t="str">
         <v>MESSAOUD</v>
       </c>
-      <c r="L14" t="str">
-        <v>AMMARI</v>
-      </c>
-      <c r="M14" t="str">
-        <v>SAIDA</v>
-      </c>
-      <c r="N14" t="str">
-        <v>AMMARI</v>
-      </c>
-      <c r="O14" t="str">
-        <v>NOURA</v>
-      </c>
-      <c r="P14" t="str">
-        <v>15/03/1990</v>
-      </c>
-      <c r="Q14" t="str">
-        <v/>
-      </c>
-      <c r="R14" t="str">
-        <v/>
-      </c>
-      <c r="S14" t="str">
-        <v/>
-      </c>
-      <c r="T14" t="str">
-        <v>32</v>
-      </c>
-      <c r="U14" t="str">
-        <v>TIDJANI</v>
-      </c>
       <c r="V14" t="str">
-        <v>AMMARI</v>
+        <v>SERRAYE</v>
       </c>
       <c r="W14" t="str">
-        <v>YAMINA</v>
+        <v>NEDJEMA</v>
       </c>
     </row>
     <row r="15">
@@ -1401,70 +1402,70 @@
         <v>1</v>
       </c>
       <c r="B15" t="str">
-        <v>BELMESMAR</v>
+        <v>AMMARI</v>
       </c>
       <c r="C15" t="str">
-        <v>REBIHA</v>
+        <v xml:space="preserve">MOHAMMED </v>
       </c>
       <c r="D15" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E15" t="str">
-        <v>P 1967</v>
+        <v>03/10/1985</v>
       </c>
       <c r="F15" t="str">
         <v/>
       </c>
       <c r="G15" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H15" t="str">
         <v/>
       </c>
       <c r="I15" t="str">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="J15" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K15" t="str">
-        <v>MOHAMMED</v>
+        <v>MESSAOUD</v>
       </c>
       <c r="L15" t="str">
-        <v>BENGUCHOUCHE</v>
+        <v>AMMARI</v>
       </c>
       <c r="M15" t="str">
-        <v>MEBARKA</v>
+        <v>SAIDA</v>
       </c>
       <c r="N15" t="str">
-        <v>ROAS</v>
+        <v>AMMARI</v>
       </c>
       <c r="O15" t="str">
-        <v>MOHAMMED</v>
+        <v>NOURA</v>
       </c>
       <c r="P15" t="str">
-        <v>P 1958</v>
+        <v>15/03/1990</v>
       </c>
       <c r="Q15" t="str">
         <v/>
       </c>
       <c r="R15" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S15" t="str">
         <v/>
       </c>
       <c r="T15" t="str">
-        <v>/////</v>
+        <v>32</v>
       </c>
       <c r="U15" t="str">
-        <v>AHMED</v>
+        <v>TIDJANI</v>
       </c>
       <c r="V15" t="str">
-        <v>ROAS</v>
+        <v>AMMARI</v>
       </c>
       <c r="W15" t="str">
-        <v>AICHE</v>
+        <v>YAMINA</v>
       </c>
     </row>
     <row r="16">
@@ -1472,70 +1473,70 @@
         <v>1</v>
       </c>
       <c r="B16" t="str">
-        <v>AMMARI</v>
+        <v>BEKKARI</v>
       </c>
       <c r="C16" t="str">
-        <v>ZOHRA</v>
+        <v>MOHAMMED DJEMOI</v>
       </c>
       <c r="D16" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E16" t="str">
-        <v>25/12/1947</v>
+        <v>01/01/1979</v>
       </c>
       <c r="F16" t="str">
         <v/>
       </c>
       <c r="G16" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H16" t="str">
         <v/>
       </c>
       <c r="I16" t="str">
-        <v>3674</v>
+        <v>355</v>
       </c>
       <c r="J16" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K16" t="str">
-        <v>TIDJANI</v>
+        <v>LAICHE</v>
       </c>
       <c r="L16" t="str">
-        <v>TALBI</v>
+        <v>LAHZIEL</v>
       </c>
       <c r="M16" t="str">
-        <v>HALIMA</v>
+        <v>MESSAOUDA</v>
       </c>
       <c r="N16" t="str">
-        <v>AMMARI</v>
+        <v>LAHZIEL</v>
       </c>
       <c r="O16" t="str">
-        <v>DJEMOI</v>
+        <v>SAFIA</v>
       </c>
       <c r="P16" t="str">
-        <v>00/00/1937</v>
+        <v>21/01/1991</v>
       </c>
       <c r="Q16" t="str">
         <v/>
       </c>
       <c r="R16" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S16" t="str">
         <v/>
       </c>
       <c r="T16" t="str">
-        <v>494</v>
+        <v>10</v>
       </c>
       <c r="U16" t="str">
-        <v>ALI</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="V16" t="str">
-        <v>ATBI</v>
+        <v>MESMARI</v>
       </c>
       <c r="W16" t="str">
-        <v>FATMA</v>
+        <v>MEBROUKA</v>
       </c>
     </row>
     <row r="17">
@@ -1543,70 +1544,70 @@
         <v>1</v>
       </c>
       <c r="B17" t="str">
-        <v>ALIAT</v>
+        <v>BELMESMAR</v>
       </c>
       <c r="C17" t="str">
-        <v>LAICHE</v>
+        <v>REBIHA</v>
       </c>
       <c r="D17" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E17" t="str">
-        <v>22/02/1971</v>
+        <v>01/01/1967</v>
       </c>
       <c r="F17" t="str">
         <v/>
       </c>
       <c r="G17" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H17" t="str">
         <v/>
       </c>
       <c r="I17" t="str">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="J17" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K17" t="str">
-        <v>MESSAOUD</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="L17" t="str">
-        <v>BELADJAL</v>
+        <v>BENGUCHOUCHE</v>
       </c>
       <c r="M17" t="str">
-        <v>MEBROUKA</v>
+        <v>MEBARKA</v>
       </c>
       <c r="N17" t="str">
-        <v>ALIAT</v>
+        <v>ROAS</v>
       </c>
       <c r="O17" t="str">
-        <v>FARIDA</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="P17" t="str">
-        <v>00/00/1970</v>
+        <v>01/01 1958</v>
       </c>
       <c r="Q17" t="str">
         <v/>
       </c>
       <c r="R17" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S17" t="str">
         <v/>
       </c>
       <c r="T17" t="str">
-        <v>76</v>
+        <v>/////</v>
       </c>
       <c r="U17" t="str">
-        <v>LARBI</v>
+        <v>AHMED</v>
       </c>
       <c r="V17" t="str">
-        <v>BELADJAL</v>
+        <v>ROAS</v>
       </c>
       <c r="W17" t="str">
-        <v>OUMELKHIR</v>
+        <v>AICHE</v>
       </c>
     </row>
     <row r="18">
@@ -1614,70 +1615,70 @@
         <v>1</v>
       </c>
       <c r="B18" t="str">
-        <v>BECHOUA</v>
+        <v>BEN AZZA</v>
       </c>
       <c r="C18" t="str">
-        <v>ABDALLAH</v>
+        <v>ABDELBAST</v>
       </c>
       <c r="D18" t="str">
         <v>M</v>
       </c>
       <c r="E18" t="str">
-        <v>P 1978</v>
+        <v>26/10/1978</v>
       </c>
       <c r="F18" t="str">
         <v/>
       </c>
       <c r="G18" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H18" t="str">
         <v/>
       </c>
       <c r="I18" t="str">
-        <v>387</v>
+        <v>651</v>
       </c>
       <c r="J18" t="str">
         <v>M</v>
       </c>
       <c r="K18" t="str">
-        <v>MAMMAR</v>
+        <v>ALI</v>
       </c>
       <c r="L18" t="str">
-        <v>BECHOUA</v>
+        <v>GEUMOULI</v>
       </c>
       <c r="M18" t="str">
-        <v>KHEDIDJA</v>
+        <v>SALMA</v>
       </c>
       <c r="N18" t="str">
-        <v>BENSADIA</v>
+        <v>DOKMA</v>
       </c>
       <c r="O18" t="str">
-        <v>SOUAD</v>
+        <v>MERIEM</v>
       </c>
       <c r="P18" t="str">
-        <v>P 1991</v>
+        <v>24/06/1989</v>
       </c>
       <c r="Q18" t="str">
         <v/>
       </c>
       <c r="R18" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S18" t="str">
         <v/>
       </c>
       <c r="T18" t="str">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="U18" t="str">
-        <v>BACHIR</v>
+        <v>MOHAMED LAKHDAR</v>
       </c>
       <c r="V18" t="str">
-        <v>BEKKARI</v>
+        <v>GAABI</v>
       </c>
       <c r="W18" t="str">
-        <v>MESSAOUDA</v>
+        <v>DJEMAA</v>
       </c>
     </row>
     <row r="19">
@@ -1685,70 +1686,70 @@
         <v>1</v>
       </c>
       <c r="B19" t="str">
-        <v>BEKKARI</v>
+        <v>BENADDA</v>
       </c>
       <c r="C19" t="str">
-        <v>MOHAMMED DJEMOI</v>
+        <v>KHALIFA</v>
       </c>
       <c r="D19" t="str">
         <v>M</v>
       </c>
       <c r="E19" t="str">
-        <v>P 1979</v>
+        <v>08/11/1982</v>
       </c>
       <c r="F19" t="str">
         <v/>
       </c>
       <c r="G19" t="str">
-        <v/>
+        <v>TOUGGOURT</v>
       </c>
       <c r="H19" t="str">
         <v/>
       </c>
       <c r="I19" t="str">
-        <v/>
+        <v>792</v>
       </c>
       <c r="J19" t="str">
         <v>M</v>
       </c>
       <c r="K19" t="str">
-        <v>LAICHE</v>
+        <v>MILOUD</v>
       </c>
       <c r="L19" t="str">
-        <v>LAHZIEL</v>
+        <v>RABEHI</v>
       </c>
       <c r="M19" t="str">
-        <v>MESSAOUDA</v>
+        <v>MEBARKA</v>
       </c>
       <c r="N19" t="str">
-        <v>LAHZIEL</v>
+        <v>MAMMERI</v>
       </c>
       <c r="O19" t="str">
-        <v>SAFIA</v>
+        <v>AMINA</v>
       </c>
       <c r="P19" t="str">
-        <v>21/01/1991</v>
+        <v>25/04/1992</v>
       </c>
       <c r="Q19" t="str">
         <v/>
       </c>
       <c r="R19" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S19" t="str">
         <v/>
       </c>
       <c r="T19" t="str">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="U19" t="str">
-        <v>MOHAMMED</v>
+        <v>MESSAOUD</v>
       </c>
       <c r="V19" t="str">
-        <v>MESMARI</v>
+        <v>MAMMERI</v>
       </c>
       <c r="W19" t="str">
-        <v>MEBROUKA</v>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="20">
@@ -1756,70 +1757,70 @@
         <v>1</v>
       </c>
       <c r="B20" t="str">
-        <v>BEN AZZA</v>
+        <v>BENAOUN</v>
       </c>
       <c r="C20" t="str">
-        <v>ABDELBAST</v>
+        <v>DJEMOI</v>
       </c>
       <c r="D20" t="str">
         <v>M</v>
       </c>
       <c r="E20" t="str">
-        <v>26/10/1978</v>
+        <v>01/01/1976</v>
       </c>
       <c r="F20" t="str">
         <v/>
       </c>
       <c r="G20" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H20" t="str">
         <v/>
       </c>
       <c r="I20" t="str">
-        <v>651</v>
+        <v>560</v>
       </c>
       <c r="J20" t="str">
         <v>M</v>
       </c>
       <c r="K20" t="str">
-        <v>ALI</v>
+        <v>LAID</v>
       </c>
       <c r="L20" t="str">
-        <v>GEUMOULI</v>
+        <v>DRIDI</v>
       </c>
       <c r="M20" t="str">
-        <v>SALMA</v>
+        <v>MEBROUKA</v>
       </c>
       <c r="N20" t="str">
-        <v>DOKMA</v>
+        <v>GHEBACHE</v>
       </c>
       <c r="O20" t="str">
-        <v>MERIEM</v>
+        <v>ZOULIKHA</v>
       </c>
       <c r="P20" t="str">
-        <v>24/06/1989</v>
+        <v>19/10/1985</v>
       </c>
       <c r="Q20" t="str">
         <v/>
       </c>
       <c r="R20" t="str">
-        <v/>
+        <v>BENNACEUR</v>
       </c>
       <c r="S20" t="str">
         <v/>
       </c>
       <c r="T20" t="str">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="U20" t="str">
-        <v>MOHAMED LAKHDAR</v>
+        <v>BACHIR</v>
       </c>
       <c r="V20" t="str">
-        <v>GAABI</v>
+        <v>GHEBACHE</v>
       </c>
       <c r="W20" t="str">
-        <v>DJEMAA</v>
+        <v>SOUAD</v>
       </c>
     </row>
     <row r="21">
@@ -1827,70 +1828,70 @@
         <v>1</v>
       </c>
       <c r="B21" t="str">
-        <v>BENKHIRA</v>
+        <v>BECHOUA</v>
       </c>
       <c r="C21" t="str">
-        <v>AHMED</v>
+        <v>ABDALLAH</v>
       </c>
       <c r="D21" t="str">
         <v>M</v>
       </c>
       <c r="E21" t="str">
-        <v>29/01/1978</v>
+        <v>01/01/1978</v>
       </c>
       <c r="F21" t="str">
         <v/>
       </c>
       <c r="G21" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H21" t="str">
         <v/>
       </c>
       <c r="I21" t="str">
-        <v/>
+        <v>387</v>
       </c>
       <c r="J21" t="str">
         <v>M</v>
       </c>
       <c r="K21" t="str">
-        <v>TAHAR</v>
+        <v>MAMMAR</v>
       </c>
       <c r="L21" t="str">
-        <v>BENKHIRA</v>
+        <v>BECHOUA</v>
       </c>
       <c r="M21" t="str">
-        <v>MERIEM</v>
+        <v>KHEDIDJA</v>
       </c>
       <c r="N21" t="str">
-        <v xml:space="preserve">BENKHIRA </v>
+        <v>BENSADIA</v>
       </c>
       <c r="O21" t="str">
-        <v>AMRIA</v>
+        <v>SOUAD</v>
       </c>
       <c r="P21" t="str">
-        <v>08/06/1980</v>
+        <v>01/01/1991</v>
       </c>
       <c r="Q21" t="str">
         <v/>
       </c>
       <c r="R21" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S21" t="str">
         <v/>
       </c>
       <c r="T21" t="str">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="U21" t="str">
-        <v>MOHAMMED LAKHDAR</v>
+        <v>BACHIR</v>
       </c>
       <c r="V21" t="str">
-        <v xml:space="preserve">REZEG HABLA </v>
+        <v>BEKKARI</v>
       </c>
       <c r="W21" t="str">
-        <v>SAFIA</v>
+        <v>MESSAOUDA</v>
       </c>
     </row>
     <row r="22">
@@ -1898,70 +1899,70 @@
         <v>1</v>
       </c>
       <c r="B22" t="str">
-        <v>BENOUMENA</v>
+        <v>BEDDIAF</v>
       </c>
       <c r="C22" t="str">
-        <v>SAIDA</v>
+        <v>SLIMANE</v>
       </c>
       <c r="D22" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E22" t="str">
-        <v>07/11/1969</v>
+        <v>01/01/1950</v>
       </c>
       <c r="F22" t="str">
         <v/>
       </c>
       <c r="G22" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H22" t="str">
         <v/>
       </c>
       <c r="I22" t="str">
-        <v>2188</v>
+        <v>2480</v>
       </c>
       <c r="J22" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K22" t="str">
-        <v>MOHAMMED</v>
+        <v>HAMMA</v>
       </c>
       <c r="L22" t="str">
-        <v>KHIECHA</v>
+        <v>BEDDIAF</v>
       </c>
       <c r="M22" t="str">
-        <v>FATMA ZOHRA</v>
+        <v>ZOHRA</v>
       </c>
       <c r="N22" t="str">
-        <v>GOHMES</v>
+        <v>BELMOSTEFA</v>
       </c>
       <c r="O22" t="str">
-        <v>MEBROUK</v>
+        <v>HALIMA</v>
       </c>
       <c r="P22" t="str">
-        <v>00/00/1926</v>
+        <v>12/04/1958</v>
       </c>
       <c r="Q22" t="str">
         <v/>
       </c>
       <c r="R22" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S22" t="str">
         <v/>
       </c>
       <c r="T22" t="str">
-        <v>1598</v>
+        <v>972</v>
       </c>
       <c r="U22" t="str">
         <v>AHMED</v>
       </c>
       <c r="V22" t="str">
-        <v>GOHMES</v>
+        <v>SAOUD</v>
       </c>
       <c r="W22" t="str">
-        <v>MESSAOUDA</v>
+        <v>MEBROUKA</v>
       </c>
     </row>
     <row r="23">
@@ -1969,70 +1970,70 @@
         <v>1</v>
       </c>
       <c r="B23" t="str">
-        <v>BOUGOSSA</v>
+        <v>BENKHIRA</v>
       </c>
       <c r="C23" t="str">
-        <v>NACIRA</v>
+        <v>AHMED</v>
       </c>
       <c r="D23" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E23" t="str">
-        <v>00/00/1973</v>
+        <v>29/01/1978</v>
       </c>
       <c r="F23" t="str">
         <v/>
       </c>
       <c r="G23" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H23" t="str">
         <v/>
       </c>
       <c r="I23" t="str">
-        <v>185</v>
+        <v/>
       </c>
       <c r="J23" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K23" t="str">
-        <v>LAKHDAR</v>
+        <v>TAHAR</v>
       </c>
       <c r="L23" t="str">
-        <v>MERAD</v>
+        <v>BENKHIRA</v>
       </c>
       <c r="M23" t="str">
-        <v>DAOUIA</v>
+        <v>MERIEM</v>
       </c>
       <c r="N23" t="str">
-        <v>LEBBOUZ</v>
+        <v xml:space="preserve">BENKHIRA </v>
       </c>
       <c r="O23" t="str">
-        <v>ISMAIL</v>
+        <v>AMRIA</v>
       </c>
       <c r="P23" t="str">
-        <v>07/11/1966</v>
+        <v>08/06/1980</v>
       </c>
       <c r="Q23" t="str">
         <v/>
       </c>
       <c r="R23" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S23" t="str">
         <v/>
       </c>
       <c r="T23" t="str">
-        <v>288</v>
+        <v>404</v>
       </c>
       <c r="U23" t="str">
-        <v>MOHAMMED</v>
+        <v>MOHAMMED LAKHDAR</v>
       </c>
       <c r="V23" t="str">
-        <v>ARIF</v>
+        <v xml:space="preserve">REZEG HABLA </v>
       </c>
       <c r="W23" t="str">
-        <v>FATMA</v>
+        <v>SAFIA</v>
       </c>
     </row>
     <row r="24">
@@ -2040,70 +2041,70 @@
         <v>1</v>
       </c>
       <c r="B24" t="str">
-        <v>BACHI</v>
+        <v>BERROUTI</v>
       </c>
       <c r="C24" t="str">
-        <v>ZOHRA</v>
+        <v>MOHAMMED LAID</v>
       </c>
       <c r="D24" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E24" t="str">
-        <v>00/00/1962</v>
+        <v>13/12/1975</v>
       </c>
       <c r="F24" t="str">
         <v/>
       </c>
       <c r="G24" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H24" t="str">
         <v/>
       </c>
       <c r="I24" t="str">
-        <v>136</v>
+        <v>726</v>
       </c>
       <c r="J24" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K24" t="str">
-        <v>MESSAOUD</v>
+        <v>TIDJANI</v>
       </c>
       <c r="L24" t="str">
-        <v>RABEHI</v>
+        <v>BERROUTI</v>
       </c>
       <c r="M24" t="str">
-        <v>MESSAOUDA</v>
+        <v>ZOUBIDA</v>
       </c>
       <c r="N24" t="str">
-        <v>ZEGAOU</v>
+        <v>ZAROUANA</v>
       </c>
       <c r="O24" t="str">
-        <v>AMMAR</v>
+        <v>MERYEM</v>
       </c>
       <c r="P24" t="str">
-        <v>00/00/1952</v>
+        <v>19/03/1984</v>
       </c>
       <c r="Q24" t="str">
         <v/>
       </c>
       <c r="R24" t="str">
-        <v/>
+        <v>NEGRINE-TEBESSA</v>
       </c>
       <c r="S24" t="str">
         <v/>
       </c>
       <c r="T24" t="str">
-        <v>391</v>
+        <v>75</v>
       </c>
       <c r="U24" t="str">
-        <v>MOHAMMED</v>
+        <v>ABDELLATIF</v>
       </c>
       <c r="V24" t="str">
-        <v>BOUGOSSA</v>
+        <v>MEBAREK</v>
       </c>
       <c r="W24" t="str">
-        <v>FATMA</v>
+        <v>YAMINA</v>
       </c>
     </row>
     <row r="25">
@@ -2111,70 +2112,70 @@
         <v>1</v>
       </c>
       <c r="B25" t="str">
-        <v>BEDDIAF</v>
+        <v>AMMARI</v>
       </c>
       <c r="C25" t="str">
-        <v>SLIMANE</v>
+        <v>ZOHRA</v>
       </c>
       <c r="D25" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E25" t="str">
-        <v>00/00/1950</v>
+        <v>25/12/1947</v>
       </c>
       <c r="F25" t="str">
         <v/>
       </c>
       <c r="G25" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H25" t="str">
         <v/>
       </c>
       <c r="I25" t="str">
-        <v>2480</v>
+        <v>3674</v>
       </c>
       <c r="J25" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K25" t="str">
-        <v>HAMMA</v>
+        <v>TIDJANI</v>
       </c>
       <c r="L25" t="str">
-        <v>BEDDIAF</v>
+        <v>TALBI</v>
       </c>
       <c r="M25" t="str">
-        <v>ZOHRA</v>
+        <v>HALIMA</v>
       </c>
       <c r="N25" t="str">
-        <v>BELMOSTEFA</v>
+        <v>AMMARI</v>
       </c>
       <c r="O25" t="str">
-        <v>HALIMA</v>
+        <v>DJEMOI</v>
       </c>
       <c r="P25" t="str">
-        <v>12/04/1958</v>
+        <v>01/01/1937</v>
       </c>
       <c r="Q25" t="str">
         <v/>
       </c>
       <c r="R25" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S25" t="str">
         <v/>
       </c>
       <c r="T25" t="str">
-        <v>972</v>
+        <v>494</v>
       </c>
       <c r="U25" t="str">
-        <v>AHMED</v>
+        <v>ALI</v>
       </c>
       <c r="V25" t="str">
-        <v>SAOUD</v>
+        <v>ATBI</v>
       </c>
       <c r="W25" t="str">
-        <v>MEBROUKA</v>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="26">
@@ -2182,70 +2183,70 @@
         <v>1</v>
       </c>
       <c r="B26" t="str">
-        <v>CHINE</v>
+        <v>BENOUMENA</v>
       </c>
       <c r="C26" t="str">
-        <v>SAID</v>
+        <v>SAIDA</v>
       </c>
       <c r="D26" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E26" t="str">
-        <v>19/02/1975</v>
+        <v>07/11/1969</v>
       </c>
       <c r="F26" t="str">
         <v/>
       </c>
       <c r="G26" t="str">
-        <v/>
+        <v>NEZLA</v>
       </c>
       <c r="H26" t="str">
         <v/>
       </c>
       <c r="I26" t="str">
-        <v>69</v>
+        <v>2188</v>
       </c>
       <c r="J26" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K26" t="str">
-        <v>LAICHE</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="L26" t="str">
-        <v>KHALFAOUI</v>
+        <v>KHIECHA</v>
       </c>
       <c r="M26" t="str">
-        <v>ZAHRA</v>
+        <v>FATMA ZOHRA</v>
       </c>
       <c r="N26" t="str">
-        <v>BELMESSAOUD</v>
+        <v>GOHMES</v>
       </c>
       <c r="O26" t="str">
-        <v>MABROUKA</v>
+        <v>MEBROUK</v>
       </c>
       <c r="P26" t="str">
-        <v>11/10/1980</v>
+        <v>01/01/1926</v>
       </c>
       <c r="Q26" t="str">
         <v/>
       </c>
       <c r="R26" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S26" t="str">
         <v/>
       </c>
       <c r="T26" t="str">
-        <v>821</v>
+        <v>1598</v>
       </c>
       <c r="U26" t="str">
-        <v>BERIK</v>
+        <v>AHMED</v>
       </c>
       <c r="V26" t="str">
-        <v>BELMESSAOUD</v>
+        <v>GOHMES</v>
       </c>
       <c r="W26" t="str">
-        <v>FATMA</v>
+        <v>MESSAOUDA</v>
       </c>
     </row>
     <row r="27">
@@ -2268,7 +2269,7 @@
         <v/>
       </c>
       <c r="G27" t="str">
-        <v/>
+        <v>NEZLA</v>
       </c>
       <c r="H27" t="str">
         <v/>
@@ -2301,7 +2302,7 @@
         <v/>
       </c>
       <c r="R27" t="str">
-        <v/>
+        <v>ELKHADARIA BOUIRA</v>
       </c>
       <c r="S27" t="str">
         <v/>
@@ -2324,49 +2325,49 @@
         <v>1</v>
       </c>
       <c r="B28" t="str">
-        <v>BERROUTI</v>
+        <v>CHETIOUI</v>
       </c>
       <c r="C28" t="str">
-        <v>MOHAMMED LAID</v>
+        <v>NADJAH</v>
       </c>
       <c r="D28" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E28" t="str">
-        <v>13/12/1975</v>
+        <v>28/09/1986</v>
       </c>
       <c r="F28" t="str">
         <v/>
       </c>
       <c r="G28" t="str">
-        <v/>
+        <v xml:space="preserve">TEBESBEST </v>
       </c>
       <c r="H28" t="str">
         <v/>
       </c>
       <c r="I28" t="str">
-        <v>726</v>
+        <v>213</v>
       </c>
       <c r="J28" t="str">
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="K28" t="str">
-        <v>TIDJANI</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="L28" t="str">
-        <v>BERROUTI</v>
+        <v>AMMARI</v>
       </c>
       <c r="M28" t="str">
-        <v>ZOUBIDA</v>
+        <v>AICHA</v>
       </c>
       <c r="N28" t="str">
-        <v>ZAROUANA</v>
+        <v/>
       </c>
       <c r="O28" t="str">
-        <v>MERYEM</v>
+        <v/>
       </c>
       <c r="P28" t="str">
-        <v>19/03/1984</v>
+        <v/>
       </c>
       <c r="Q28" t="str">
         <v/>
@@ -2378,16 +2379,16 @@
         <v/>
       </c>
       <c r="T28" t="str">
-        <v>75</v>
+        <v/>
       </c>
       <c r="U28" t="str">
-        <v>ABDELLATIF</v>
+        <v/>
       </c>
       <c r="V28" t="str">
-        <v>MEBAREK</v>
+        <v/>
       </c>
       <c r="W28" t="str">
-        <v>YAMINA</v>
+        <v/>
       </c>
     </row>
     <row r="29">
@@ -2395,49 +2396,49 @@
         <v>1</v>
       </c>
       <c r="B29" t="str">
-        <v>CHETIOUI</v>
+        <v>DJEDIAI</v>
       </c>
       <c r="C29" t="str">
-        <v>KAMEL</v>
+        <v>SOUAD</v>
       </c>
       <c r="D29" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E29" t="str">
-        <v>14/07/1979</v>
+        <v>03/03/1972</v>
       </c>
       <c r="F29" t="str">
         <v/>
       </c>
       <c r="G29" t="str">
-        <v/>
+        <v>ELHAMADIN39</v>
       </c>
       <c r="H29" t="str">
         <v/>
       </c>
       <c r="I29" t="str">
-        <v>442</v>
+        <v>318</v>
       </c>
       <c r="J29" t="str">
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="K29" t="str">
-        <v xml:space="preserve">MOHAMMED   </v>
+        <v>MOHAMED LAID</v>
       </c>
       <c r="L29" t="str">
-        <v>AMMARI</v>
+        <v>LAMOUCHI</v>
       </c>
       <c r="M29" t="str">
-        <v>AICHA</v>
+        <v>HAKKA</v>
       </c>
       <c r="N29" t="str">
-        <v>BESSACI</v>
+        <v/>
       </c>
       <c r="O29" t="str">
-        <v>KHIRA</v>
+        <v/>
       </c>
       <c r="P29" t="str">
-        <v>01/06/1987</v>
+        <v/>
       </c>
       <c r="Q29" t="str">
         <v/>
@@ -2449,16 +2450,16 @@
         <v/>
       </c>
       <c r="T29" t="str">
-        <v>118</v>
+        <v/>
       </c>
       <c r="U29" t="str">
-        <v>AHMED</v>
+        <v/>
       </c>
       <c r="V29" t="str">
-        <v>BESSACI</v>
+        <v/>
       </c>
       <c r="W29" t="str">
-        <v>DJAMILA</v>
+        <v/>
       </c>
     </row>
     <row r="30">
@@ -2466,70 +2467,70 @@
         <v>1</v>
       </c>
       <c r="B30" t="str">
-        <v>CHETIOUI</v>
+        <v>BOUGOSSA</v>
       </c>
       <c r="C30" t="str">
-        <v>NADJAH</v>
+        <v>NACIRA</v>
       </c>
       <c r="D30" t="str">
         <v>F</v>
       </c>
       <c r="E30" t="str">
-        <v>28/09/1986</v>
+        <v>01/01/1973</v>
       </c>
       <c r="F30" t="str">
         <v/>
       </c>
       <c r="G30" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H30" t="str">
         <v/>
       </c>
       <c r="I30" t="str">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="J30" t="str">
-        <v>D</v>
+        <v>V</v>
       </c>
       <c r="K30" t="str">
+        <v>LAKHDAR</v>
+      </c>
+      <c r="L30" t="str">
+        <v>MERAD</v>
+      </c>
+      <c r="M30" t="str">
+        <v>DAOUIA</v>
+      </c>
+      <c r="N30" t="str">
+        <v>LEBBOUZ</v>
+      </c>
+      <c r="O30" t="str">
+        <v>ISMAIL</v>
+      </c>
+      <c r="P30" t="str">
+        <v>07/11/1966</v>
+      </c>
+      <c r="Q30" t="str">
+        <v/>
+      </c>
+      <c r="R30" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="S30" t="str">
+        <v/>
+      </c>
+      <c r="T30" t="str">
+        <v>288</v>
+      </c>
+      <c r="U30" t="str">
         <v>MOHAMMED</v>
       </c>
-      <c r="L30" t="str">
-        <v>AMMARI</v>
-      </c>
-      <c r="M30" t="str">
-        <v>AICHA</v>
-      </c>
-      <c r="N30" t="str">
-        <v/>
-      </c>
-      <c r="O30" t="str">
-        <v/>
-      </c>
-      <c r="P30" t="str">
-        <v/>
-      </c>
-      <c r="Q30" t="str">
-        <v/>
-      </c>
-      <c r="R30" t="str">
-        <v/>
-      </c>
-      <c r="S30" t="str">
-        <v/>
-      </c>
-      <c r="T30" t="str">
-        <v/>
-      </c>
-      <c r="U30" t="str">
-        <v/>
-      </c>
       <c r="V30" t="str">
-        <v/>
+        <v>ARIF</v>
       </c>
       <c r="W30" t="str">
-        <v/>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="31">
@@ -2537,70 +2538,70 @@
         <v>1</v>
       </c>
       <c r="B31" t="str">
-        <v>BENADDA</v>
+        <v>CHETIOUI</v>
       </c>
       <c r="C31" t="str">
-        <v>KHALIFA</v>
+        <v>KAMEL</v>
       </c>
       <c r="D31" t="str">
         <v>M</v>
       </c>
       <c r="E31" t="str">
-        <v>08/11/1982</v>
+        <v>14/07/1979</v>
       </c>
       <c r="F31" t="str">
         <v/>
       </c>
       <c r="G31" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H31" t="str">
         <v/>
       </c>
       <c r="I31" t="str">
-        <v>792</v>
+        <v>442</v>
       </c>
       <c r="J31" t="str">
         <v>M</v>
       </c>
       <c r="K31" t="str">
-        <v>MILOUD</v>
+        <v xml:space="preserve">MOHAMMED   </v>
       </c>
       <c r="L31" t="str">
-        <v>RABEHI</v>
+        <v>AMMARI</v>
       </c>
       <c r="M31" t="str">
-        <v>MEBARKA</v>
+        <v>AICHA</v>
       </c>
       <c r="N31" t="str">
-        <v>MAMMERI</v>
+        <v>BESSACI</v>
       </c>
       <c r="O31" t="str">
-        <v>AMINA</v>
+        <v>KHIRA</v>
       </c>
       <c r="P31" t="str">
-        <v>25/04/1992</v>
+        <v>01/06/1987</v>
       </c>
       <c r="Q31" t="str">
         <v/>
       </c>
       <c r="R31" t="str">
-        <v/>
+        <v>ELALIA</v>
       </c>
       <c r="S31" t="str">
         <v/>
       </c>
       <c r="T31" t="str">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="U31" t="str">
-        <v>MESSAOUD</v>
+        <v>AHMED</v>
       </c>
       <c r="V31" t="str">
-        <v>MAMMERI</v>
+        <v>BESSACI</v>
       </c>
       <c r="W31" t="str">
-        <v>FATMA</v>
+        <v>DJAMILA</v>
       </c>
     </row>
     <row r="32">
@@ -2608,70 +2609,70 @@
         <v>1</v>
       </c>
       <c r="B32" t="str">
-        <v>BENAOUN</v>
+        <v>BACHI</v>
       </c>
       <c r="C32" t="str">
-        <v>DJEMOI</v>
+        <v>ZOHRA</v>
       </c>
       <c r="D32" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E32" t="str">
-        <v>00/00/1976</v>
+        <v>01/01/1962</v>
       </c>
       <c r="F32" t="str">
         <v/>
       </c>
       <c r="G32" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H32" t="str">
         <v/>
       </c>
       <c r="I32" t="str">
-        <v/>
+        <v>136</v>
       </c>
       <c r="J32" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K32" t="str">
-        <v>LAID</v>
+        <v>MESSAOUD</v>
       </c>
       <c r="L32" t="str">
-        <v>DRIDI</v>
+        <v>RABEHI</v>
       </c>
       <c r="M32" t="str">
-        <v>MEBROUKA</v>
+        <v>MESSAOUDA</v>
       </c>
       <c r="N32" t="str">
-        <v>GHEBACHE</v>
+        <v>ZEGAOU</v>
       </c>
       <c r="O32" t="str">
-        <v>ZOULIKHA</v>
+        <v>AMMAR</v>
       </c>
       <c r="P32" t="str">
-        <v>19/10/1985</v>
+        <v>01/01/1952</v>
       </c>
       <c r="Q32" t="str">
         <v/>
       </c>
       <c r="R32" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S32" t="str">
         <v/>
       </c>
       <c r="T32" t="str">
-        <v>230</v>
+        <v>391</v>
       </c>
       <c r="U32" t="str">
-        <v>BACHIR</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="V32" t="str">
-        <v>GHEBACHE</v>
+        <v>BOUGOSSA</v>
       </c>
       <c r="W32" t="str">
-        <v>SOUAD</v>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="33">
@@ -2679,70 +2680,70 @@
         <v>1</v>
       </c>
       <c r="B33" t="str">
-        <v>DOKMA</v>
+        <v>CHINE</v>
       </c>
       <c r="C33" t="str">
-        <v>DJAMEL</v>
+        <v>CHOUIKHA</v>
       </c>
       <c r="D33" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E33" t="str">
-        <v>29/06/1976</v>
+        <v>17/01/1957</v>
       </c>
       <c r="F33" t="str">
         <v/>
       </c>
       <c r="G33" t="str">
-        <v/>
+        <v>NEZLA</v>
       </c>
       <c r="H33" t="str">
         <v/>
       </c>
       <c r="I33" t="str">
-        <v>1204</v>
+        <v>145</v>
       </c>
       <c r="J33" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K33" t="str">
-        <v>MOHAMMED</v>
+        <v>AHMED</v>
       </c>
       <c r="L33" t="str">
-        <v>HAMMADI</v>
+        <v>DJEBBAS</v>
       </c>
       <c r="M33" t="str">
-        <v>ZOHRA</v>
+        <v>FATMA</v>
       </c>
       <c r="N33" t="str">
-        <v>BOUNEGAB</v>
+        <v>DIDA</v>
       </c>
       <c r="O33" t="str">
-        <v>HANANE</v>
+        <v>AHMED</v>
       </c>
       <c r="P33" t="str">
-        <v>25/04/1993</v>
+        <v>01/01/1935</v>
       </c>
       <c r="Q33" t="str">
         <v/>
       </c>
       <c r="R33" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S33" t="str">
         <v/>
       </c>
       <c r="T33" t="str">
-        <v>119</v>
+        <v>2089</v>
       </c>
       <c r="U33" t="str">
-        <v>MOHAMMED TAHAR</v>
+        <v>LARBI</v>
       </c>
       <c r="V33" t="str">
-        <v>RAHMANI</v>
+        <v>ABID</v>
       </c>
       <c r="W33" t="str">
-        <v>ZOHRA</v>
+        <v>SALMA</v>
       </c>
     </row>
     <row r="34">
@@ -2753,64 +2754,64 @@
         <v>CHINE</v>
       </c>
       <c r="C34" t="str">
-        <v>YAHIA</v>
+        <v>SAID</v>
       </c>
       <c r="D34" t="str">
         <v>M</v>
       </c>
       <c r="E34" t="str">
-        <v>01/10/1986</v>
+        <v>19/02/1975</v>
       </c>
       <c r="F34" t="str">
         <v/>
       </c>
       <c r="G34" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H34" t="str">
         <v/>
       </c>
       <c r="I34" t="str">
-        <v>314</v>
+        <v>69</v>
       </c>
       <c r="J34" t="str">
         <v>M</v>
       </c>
       <c r="K34" t="str">
-        <v>EL HAFED</v>
+        <v>LAICHE</v>
       </c>
       <c r="L34" t="str">
-        <v>CHINE</v>
+        <v>KHALFAOUI</v>
       </c>
       <c r="M34" t="str">
-        <v>KHADRA</v>
+        <v>ZAHRA</v>
       </c>
       <c r="N34" t="str">
-        <v>GUEMMOULI</v>
+        <v>BELMESSAOUD</v>
       </c>
       <c r="O34" t="str">
-        <v>FAIZA</v>
+        <v>MABROUKA</v>
       </c>
       <c r="P34" t="str">
-        <v>10/02/1999</v>
+        <v>11/10/1980</v>
       </c>
       <c r="Q34" t="str">
         <v/>
       </c>
       <c r="R34" t="str">
-        <v/>
+        <v>ROBAH - ELOUED</v>
       </c>
       <c r="S34" t="str">
         <v/>
       </c>
       <c r="T34" t="str">
-        <v>44</v>
+        <v>821</v>
       </c>
       <c r="U34" t="str">
-        <v>ALI</v>
+        <v>BERIK</v>
       </c>
       <c r="V34" t="str">
-        <v>GHERIER</v>
+        <v>BELMESSAOUD</v>
       </c>
       <c r="W34" t="str">
         <v>FATMA</v>
@@ -2821,70 +2822,70 @@
         <v>1</v>
       </c>
       <c r="B35" t="str">
-        <v>CHINE</v>
+        <v>DRIDI</v>
       </c>
       <c r="C35" t="str">
-        <v>CHOUIKHA</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="D35" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E35" t="str">
-        <v>17/01/1957</v>
+        <v>25/03/1987</v>
       </c>
       <c r="F35" t="str">
         <v/>
       </c>
       <c r="G35" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H35" t="str">
         <v/>
       </c>
       <c r="I35" t="str">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="J35" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K35" t="str">
-        <v>AHMED</v>
+        <v>LAID</v>
       </c>
       <c r="L35" t="str">
-        <v>DJEBBAS</v>
+        <v>DRIDI</v>
       </c>
       <c r="M35" t="str">
-        <v>FATMA</v>
+        <v>MERIEM</v>
       </c>
       <c r="N35" t="str">
-        <v>DIDA</v>
+        <v>DRIDI</v>
       </c>
       <c r="O35" t="str">
-        <v>AHMED</v>
+        <v>DJAMILA</v>
       </c>
       <c r="P35" t="str">
-        <v>00/00/1935</v>
+        <v>23/08/1991</v>
       </c>
       <c r="Q35" t="str">
         <v/>
       </c>
       <c r="R35" t="str">
-        <v/>
+        <v>TEMACINE</v>
       </c>
       <c r="S35" t="str">
         <v/>
       </c>
       <c r="T35" t="str">
-        <v>2089</v>
+        <v>23</v>
       </c>
       <c r="U35" t="str">
-        <v>LARBI</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="V35" t="str">
-        <v>ABID</v>
+        <v>DRIDI</v>
       </c>
       <c r="W35" t="str">
-        <v>SALMA</v>
+        <v>MEBROUKA</v>
       </c>
     </row>
     <row r="36">
@@ -2892,70 +2893,70 @@
         <v>1</v>
       </c>
       <c r="B36" t="str">
-        <v>DJEDIAI</v>
+        <v>GHELANI</v>
       </c>
       <c r="C36" t="str">
-        <v>SAIDA</v>
+        <v xml:space="preserve">MOHAMMED     </v>
       </c>
       <c r="D36" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E36" t="str">
-        <v>P 1966</v>
+        <v>11/01/1986</v>
       </c>
       <c r="F36" t="str">
         <v/>
       </c>
       <c r="G36" t="str">
-        <v/>
+        <v>ANNABA</v>
       </c>
       <c r="H36" t="str">
         <v/>
       </c>
       <c r="I36" t="str">
-        <v>195</v>
+        <v>379</v>
       </c>
       <c r="J36" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K36" t="str">
-        <v>MOHAMMED</v>
+        <v>MOUSSA</v>
       </c>
       <c r="L36" t="str">
-        <v>MERKHOUFI</v>
+        <v>GHELANI</v>
       </c>
       <c r="M36" t="str">
         <v>ZOHRA</v>
       </c>
       <c r="N36" t="str">
-        <v>KOUIDRI</v>
+        <v>HAFRI</v>
       </c>
       <c r="O36" t="str">
-        <v>SAID</v>
+        <v>NADJAT</v>
       </c>
       <c r="P36" t="str">
-        <v>22/09/1962</v>
+        <v>04/02/1988</v>
       </c>
       <c r="Q36" t="str">
         <v/>
       </c>
       <c r="R36" t="str">
-        <v/>
+        <v>BENNACEUR</v>
       </c>
       <c r="S36" t="str">
         <v/>
       </c>
       <c r="T36" t="str">
-        <v/>
+        <v>23</v>
       </c>
       <c r="U36" t="str">
-        <v>LAKHDAR</v>
+        <v>AHMED</v>
       </c>
       <c r="V36" t="str">
-        <v>SEKHER</v>
+        <v>BOUSAG</v>
       </c>
       <c r="W36" t="str">
-        <v>HANIA</v>
+        <v>NADIRA</v>
       </c>
     </row>
     <row r="37">
@@ -2963,70 +2964,70 @@
         <v>1</v>
       </c>
       <c r="B37" t="str">
-        <v>DJEDIAI</v>
+        <v>KOUTTI</v>
       </c>
       <c r="C37" t="str">
-        <v>SOUAD</v>
+        <v>NACER</v>
       </c>
       <c r="D37" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E37" t="str">
-        <v>03/03/1972</v>
+        <v>22/03/1980</v>
       </c>
       <c r="F37" t="str">
         <v/>
       </c>
       <c r="G37" t="str">
-        <v/>
+        <v>MAMAA</v>
       </c>
       <c r="H37" t="str">
         <v/>
       </c>
       <c r="I37" t="str">
-        <v/>
+        <v>178</v>
       </c>
       <c r="J37" t="str">
-        <v>D</v>
+        <v>M</v>
       </c>
       <c r="K37" t="str">
-        <v>MOHAMED LAID</v>
+        <v>SALAH</v>
       </c>
       <c r="L37" t="str">
-        <v>LAMOUCHI</v>
+        <v>BOUDOUH</v>
       </c>
       <c r="M37" t="str">
-        <v>HAKKA</v>
+        <v>FATMA</v>
       </c>
       <c r="N37" t="str">
-        <v/>
+        <v>MENZER</v>
       </c>
       <c r="O37" t="str">
-        <v/>
+        <v>IMANE</v>
       </c>
       <c r="P37" t="str">
-        <v/>
+        <v>23/02/1993</v>
       </c>
       <c r="Q37" t="str">
         <v/>
       </c>
       <c r="R37" t="str">
-        <v/>
+        <v>MMDER BATNA</v>
       </c>
       <c r="S37" t="str">
         <v/>
       </c>
       <c r="T37" t="str">
-        <v/>
+        <v>46</v>
       </c>
       <c r="U37" t="str">
-        <v/>
+        <v>ABDELMADJID</v>
       </c>
       <c r="V37" t="str">
-        <v/>
+        <v>ZEOUAOUI</v>
       </c>
       <c r="W37" t="str">
-        <v/>
+        <v>FATIMA</v>
       </c>
     </row>
     <row r="38">
@@ -3034,67 +3035,67 @@
         <v>1</v>
       </c>
       <c r="B38" t="str">
-        <v>DOUH</v>
+        <v>GOHMES</v>
       </c>
       <c r="C38" t="str">
-        <v>SOUAD</v>
+        <v>SACIA</v>
       </c>
       <c r="D38" t="str">
         <v>F</v>
       </c>
       <c r="E38" t="str">
-        <v>18/10/1972</v>
+        <v>01/01/1968</v>
       </c>
       <c r="F38" t="str">
         <v/>
       </c>
       <c r="G38" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H38" t="str">
         <v/>
       </c>
       <c r="I38" t="str">
-        <v>2303</v>
+        <v>250</v>
       </c>
       <c r="J38" t="str">
         <v>V</v>
       </c>
       <c r="K38" t="str">
-        <v>MAMMAR</v>
+        <v>MEBROUK</v>
       </c>
       <c r="L38" t="str">
-        <v>ARIF</v>
+        <v>LAIBI</v>
       </c>
       <c r="M38" t="str">
-        <v>FATMA</v>
+        <v xml:space="preserve"> BENT SAYAH</v>
       </c>
       <c r="N38" t="str">
-        <v>LEBBOUZ</v>
+        <v>BEDDIAF</v>
       </c>
       <c r="O38" t="str">
-        <v>ISMAIL</v>
+        <v>TIDJANI</v>
       </c>
       <c r="P38" t="str">
-        <v>07/11/1966</v>
+        <v>01/01/1921</v>
       </c>
       <c r="Q38" t="str">
         <v/>
       </c>
       <c r="R38" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S38" t="str">
         <v/>
       </c>
       <c r="T38" t="str">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="U38" t="str">
-        <v>MOHAMMED</v>
+        <v>HAMMA</v>
       </c>
       <c r="V38" t="str">
-        <v>ARIF</v>
+        <v>GUEMARI</v>
       </c>
       <c r="W38" t="str">
         <v>FATMA</v>
@@ -3105,70 +3106,70 @@
         <v>1</v>
       </c>
       <c r="B39" t="str">
-        <v>HAMDAOUI</v>
+        <v>GUEMMOULA</v>
       </c>
       <c r="C39" t="str">
-        <v>MESSAOUD</v>
+        <v>MESSAOUDA</v>
       </c>
       <c r="D39" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E39" t="str">
-        <v>16/08/1986</v>
+        <v>15/05/1959</v>
       </c>
       <c r="F39" t="str">
         <v/>
       </c>
       <c r="G39" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H39" t="str">
         <v/>
       </c>
       <c r="I39" t="str">
-        <v>252</v>
+        <v>1508</v>
       </c>
       <c r="J39" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K39" t="str">
-        <v>RACHID</v>
+        <v>LAID</v>
       </c>
       <c r="L39" t="str">
-        <v>BENKHIRA</v>
+        <v>GUEMMOULA</v>
       </c>
       <c r="M39" t="str">
-        <v>YAMINA</v>
+        <v>SALMA</v>
       </c>
       <c r="N39" t="str">
-        <v>HAMDAOUI</v>
+        <v>ZEGRIR</v>
       </c>
       <c r="O39" t="str">
-        <v>ZINEB</v>
+        <v>MOHAMMED ALI</v>
       </c>
       <c r="P39" t="str">
-        <v>30/09/1989</v>
+        <v>22/10/1948</v>
       </c>
       <c r="Q39" t="str">
         <v/>
       </c>
       <c r="R39" t="str">
-        <v/>
+        <v>DJAMAA</v>
       </c>
       <c r="S39" t="str">
         <v/>
       </c>
       <c r="T39" t="str">
-        <v>428</v>
+        <v>2439</v>
       </c>
       <c r="U39" t="str">
-        <v>BACHIR</v>
+        <v>MAMMAR</v>
       </c>
       <c r="V39" t="str">
-        <v>KOUIDRI</v>
+        <v>GUEMMOULA</v>
       </c>
       <c r="W39" t="str">
-        <v>FATMA</v>
+        <v>AICHA</v>
       </c>
     </row>
     <row r="40">
@@ -3176,70 +3177,70 @@
         <v>1</v>
       </c>
       <c r="B40" t="str">
-        <v>HASROUF</v>
+        <v>BENKHIRA</v>
       </c>
       <c r="C40" t="str">
-        <v>MOULOUD</v>
+        <v>DJALAL</v>
       </c>
       <c r="D40" t="str">
         <v>M</v>
       </c>
       <c r="E40" t="str">
-        <v>20/04/1986</v>
+        <v>15/01/1984</v>
       </c>
       <c r="F40" t="str">
         <v/>
       </c>
       <c r="G40" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H40" t="str">
         <v/>
       </c>
       <c r="I40" t="str">
-        <v/>
+        <v>35</v>
       </c>
       <c r="J40" t="str">
         <v>M</v>
       </c>
       <c r="K40" t="str">
-        <v>SACI</v>
+        <v>MAHMOUD</v>
       </c>
       <c r="L40" t="str">
-        <v>BELOUADANI</v>
+        <v>BECHOUA</v>
       </c>
       <c r="M40" t="str">
-        <v>HANIA</v>
+        <v>FATMA</v>
       </c>
       <c r="N40" t="str">
-        <v>HAMMADI</v>
+        <v>KOUIDRI</v>
       </c>
       <c r="O40" t="str">
-        <v>RIM</v>
+        <v>WAFFA</v>
       </c>
       <c r="P40" t="str">
-        <v>19/01/1992</v>
+        <v>03/11/1993</v>
       </c>
       <c r="Q40" t="str">
         <v/>
       </c>
       <c r="R40" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S40" t="str">
         <v/>
       </c>
       <c r="T40" t="str">
-        <v>21</v>
+        <v>596</v>
       </c>
       <c r="U40" t="str">
-        <v>AHMED</v>
+        <v>MOHAMMED LAKHDAR</v>
       </c>
       <c r="V40" t="str">
-        <v>KHADRAOUI</v>
+        <v>BENKHIRA</v>
       </c>
       <c r="W40" t="str">
-        <v>MESSAOUDA</v>
+        <v>SOUAD</v>
       </c>
     </row>
     <row r="41">
@@ -3247,70 +3248,70 @@
         <v>1</v>
       </c>
       <c r="B41" t="str">
-        <v>MANSOURI</v>
+        <v>HANNOUF</v>
       </c>
       <c r="C41" t="str">
-        <v>BRAHIM</v>
+        <v>REDOUANE</v>
       </c>
       <c r="D41" t="str">
         <v>M</v>
       </c>
       <c r="E41" t="str">
-        <v>00/00/1980</v>
+        <v>26/03/1975</v>
       </c>
       <c r="F41" t="str">
         <v/>
       </c>
       <c r="G41" t="str">
-        <v/>
+        <v>TAHIR-DJIDJEL</v>
       </c>
       <c r="H41" t="str">
         <v/>
       </c>
       <c r="I41" t="str">
-        <v/>
+        <v>362</v>
       </c>
       <c r="J41" t="str">
         <v>M</v>
       </c>
       <c r="K41" t="str">
-        <v>AHMED</v>
+        <v>ABDELKARIM</v>
       </c>
       <c r="L41" t="str">
-        <v>MANSOURI</v>
+        <v>BEN SABERA</v>
       </c>
       <c r="M41" t="str">
-        <v>FATMA</v>
+        <v>AKILA</v>
       </c>
       <c r="N41" t="str">
-        <v>MANSOURI</v>
+        <v>HADEF</v>
       </c>
       <c r="O41" t="str">
-        <v>NAIMA</v>
+        <v>WAFIA</v>
       </c>
       <c r="P41" t="str">
-        <v>16/12/1991</v>
+        <v>11/05/1983</v>
       </c>
       <c r="Q41" t="str">
         <v/>
       </c>
       <c r="R41" t="str">
-        <v/>
+        <v>DJIDJEL</v>
       </c>
       <c r="S41" t="str">
         <v/>
       </c>
       <c r="T41" t="str">
-        <v>152</v>
+        <v>1373</v>
       </c>
       <c r="U41" t="str">
-        <v>AMER</v>
+        <v>MOULOUD</v>
       </c>
       <c r="V41" t="str">
-        <v>MANSOURI</v>
+        <v>BOUIDER</v>
       </c>
       <c r="W41" t="str">
-        <v>MEBARKA</v>
+        <v>AKILA</v>
       </c>
     </row>
     <row r="42">
@@ -3318,70 +3319,70 @@
         <v>1</v>
       </c>
       <c r="B42" t="str">
-        <v>NID</v>
+        <v>HASROUF</v>
       </c>
       <c r="C42" t="str">
-        <v>BACHIR</v>
+        <v>MOULOUD</v>
       </c>
       <c r="D42" t="str">
         <v>M</v>
       </c>
       <c r="E42" t="str">
-        <v>01/01/1940</v>
+        <v>20/04/1986</v>
       </c>
       <c r="F42" t="str">
         <v/>
       </c>
       <c r="G42" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H42" t="str">
         <v/>
       </c>
       <c r="I42" t="str">
-        <v/>
+        <v>125</v>
       </c>
       <c r="J42" t="str">
         <v>M</v>
       </c>
       <c r="K42" t="str">
-        <v>LAKHDAR</v>
+        <v>SACI</v>
       </c>
       <c r="L42" t="str">
-        <v>DIDA</v>
+        <v>BELOUADANI</v>
       </c>
       <c r="M42" t="str">
         <v>HANIA</v>
       </c>
       <c r="N42" t="str">
-        <v>GHERARA</v>
+        <v>HAMMADI</v>
       </c>
       <c r="O42" t="str">
-        <v>DJAMILA</v>
+        <v>RIM</v>
       </c>
       <c r="P42" t="str">
-        <v>12/11/1982</v>
+        <v>19/01/1992</v>
       </c>
       <c r="Q42" t="str">
         <v/>
       </c>
       <c r="R42" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S42" t="str">
         <v/>
       </c>
       <c r="T42" t="str">
-        <v>860</v>
+        <v>21</v>
       </c>
       <c r="U42" t="str">
-        <v>MOHAMED CHAIB</v>
+        <v>AHMED</v>
       </c>
       <c r="V42" t="str">
-        <v>NADJA</v>
+        <v>KHADRAOUI</v>
       </c>
       <c r="W42" t="str">
-        <v>FATMA</v>
+        <v>MESSAOUDA</v>
       </c>
     </row>
     <row r="43">
@@ -3389,70 +3390,70 @@
         <v>1</v>
       </c>
       <c r="B43" t="str">
-        <v>REZZAG HEBLA</v>
+        <v>KADDOUR</v>
       </c>
       <c r="C43" t="str">
-        <v>ARABI</v>
+        <v>MAHMOUD</v>
       </c>
       <c r="D43" t="str">
         <v>M</v>
       </c>
       <c r="E43" t="str">
-        <v>10/01/1985</v>
+        <v>16/11/1981</v>
       </c>
       <c r="F43" t="str">
         <v/>
       </c>
       <c r="G43" t="str">
-        <v/>
+        <v>GUEMAR</v>
       </c>
       <c r="H43" t="str">
         <v/>
       </c>
       <c r="I43" t="str">
-        <v>6</v>
+        <v>1077</v>
       </c>
       <c r="J43" t="str">
         <v>M</v>
       </c>
       <c r="K43" t="str">
-        <v>LAID</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="L43" t="str">
-        <v>CHALBI</v>
+        <v>BENAZZA</v>
       </c>
       <c r="M43" t="str">
-        <v>KHEDIDJA</v>
+        <v>MEBARKA</v>
       </c>
       <c r="N43" t="str">
-        <v>SAOUD</v>
+        <v>ABID</v>
       </c>
       <c r="O43" t="str">
-        <v>KARIMA</v>
+        <v>MESSAOUDA</v>
       </c>
       <c r="P43" t="str">
-        <v>00/00/1989</v>
+        <v>24/02/1990</v>
       </c>
       <c r="Q43" t="str">
         <v/>
       </c>
       <c r="R43" t="str">
-        <v/>
+        <v>BENNACEUR</v>
       </c>
       <c r="S43" t="str">
         <v/>
       </c>
       <c r="T43" t="str">
-        <v>982</v>
+        <v>45</v>
       </c>
       <c r="U43" t="str">
-        <v>AMMAR</v>
+        <v>TAHAR</v>
       </c>
       <c r="V43" t="str">
-        <v>SAOUD</v>
+        <v>GUECHAB</v>
       </c>
       <c r="W43" t="str">
-        <v>ZERZOURA</v>
+        <v>DAOUIA</v>
       </c>
     </row>
     <row r="44">
@@ -3460,70 +3461,70 @@
         <v>1</v>
       </c>
       <c r="B44" t="str">
-        <v>GOHMES</v>
+        <v>GASMI</v>
       </c>
       <c r="C44" t="str">
-        <v>SACIA</v>
+        <v>SAID</v>
       </c>
       <c r="D44" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E44" t="str">
-        <v>00/00/1968</v>
+        <v>01/01/1983</v>
       </c>
       <c r="F44" t="str">
         <v/>
       </c>
       <c r="G44" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H44" t="str">
         <v/>
       </c>
       <c r="I44" t="str">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="J44" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K44" t="str">
-        <v>MEBROUK</v>
+        <v>KHADIR</v>
       </c>
       <c r="L44" t="str">
-        <v>LAIBI</v>
+        <v>BENSADIA</v>
       </c>
       <c r="M44" t="str">
-        <v xml:space="preserve"> BENT SAYAH</v>
+        <v>SADIA</v>
       </c>
       <c r="N44" t="str">
-        <v>BEDDIAF</v>
+        <v>LAHZIEL</v>
       </c>
       <c r="O44" t="str">
-        <v>TIDJANI</v>
+        <v>MASSOUDA</v>
       </c>
       <c r="P44" t="str">
-        <v>00/00/1921</v>
+        <v>01/01/1985</v>
       </c>
       <c r="Q44" t="str">
         <v/>
       </c>
       <c r="R44" t="str">
-        <v/>
+        <v>TEBSBEST</v>
       </c>
       <c r="S44" t="str">
         <v/>
       </c>
       <c r="T44" t="str">
-        <v>302</v>
+        <v>2</v>
       </c>
       <c r="U44" t="str">
-        <v>HAMMA</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="V44" t="str">
-        <v>GUEMARI</v>
+        <v>SOUD</v>
       </c>
       <c r="W44" t="str">
-        <v>FATMA</v>
+        <v>FATIMA</v>
       </c>
     </row>
     <row r="45">
@@ -3531,49 +3532,49 @@
         <v>1</v>
       </c>
       <c r="B45" t="str">
-        <v>MANSOURI</v>
+        <v>GOSSI</v>
       </c>
       <c r="C45" t="str">
-        <v>MOHAMMED ALI</v>
+        <v>MESSAOUDA</v>
       </c>
       <c r="D45" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E45" t="str">
-        <v>13/01/1983</v>
+        <v>21/06/1983</v>
       </c>
       <c r="F45" t="str">
         <v/>
       </c>
       <c r="G45" t="str">
-        <v/>
+        <v>TOUGGOURT</v>
       </c>
       <c r="H45" t="str">
         <v/>
       </c>
       <c r="I45" t="str">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="J45" t="str">
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="K45" t="str">
-        <v>ALI</v>
+        <v>TAHAR</v>
       </c>
       <c r="L45" t="str">
-        <v>MANSOURI</v>
+        <v>GOSSI</v>
       </c>
       <c r="M45" t="str">
         <v>MEBARKA</v>
       </c>
       <c r="N45" t="str">
-        <v>GHENDIR</v>
+        <v/>
       </c>
       <c r="O45" t="str">
-        <v>NACIRA</v>
+        <v/>
       </c>
       <c r="P45" t="str">
-        <v>26/01/1993</v>
+        <v/>
       </c>
       <c r="Q45" t="str">
         <v/>
@@ -3585,16 +3586,16 @@
         <v/>
       </c>
       <c r="T45" t="str">
-        <v>17</v>
+        <v/>
       </c>
       <c r="U45" t="str">
-        <v>MOHAMMED</v>
+        <v/>
       </c>
       <c r="V45" t="str">
-        <v>GHENDIR</v>
+        <v/>
       </c>
       <c r="W45" t="str">
-        <v>FATMA</v>
+        <v/>
       </c>
     </row>
     <row r="46">
@@ -3602,70 +3603,70 @@
         <v>1</v>
       </c>
       <c r="B46" t="str">
-        <v>BENKHIRA</v>
+        <v>KADI</v>
       </c>
       <c r="C46" t="str">
-        <v>DJALAL</v>
+        <v>NOUREDDINE</v>
       </c>
       <c r="D46" t="str">
         <v>M</v>
       </c>
       <c r="E46" t="str">
-        <v>15/01/1984</v>
+        <v>01/01/1985</v>
       </c>
       <c r="F46" t="str">
         <v/>
       </c>
       <c r="G46" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H46" t="str">
         <v/>
       </c>
       <c r="I46" t="str">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J46" t="str">
         <v>M</v>
       </c>
       <c r="K46" t="str">
-        <v>MAHMOUD</v>
+        <v>MILOUD</v>
       </c>
       <c r="L46" t="str">
-        <v>BECHOUA</v>
+        <v>SAOUD</v>
       </c>
       <c r="M46" t="str">
-        <v>FATMA</v>
+        <v>AICHA</v>
       </c>
       <c r="N46" t="str">
-        <v>KOUIDRI</v>
+        <v>DOKMA</v>
       </c>
       <c r="O46" t="str">
-        <v>WAFFA</v>
+        <v>HANANE</v>
       </c>
       <c r="P46" t="str">
-        <v>03/11/1993</v>
+        <v>12/01/1987</v>
       </c>
       <c r="Q46" t="str">
         <v/>
       </c>
       <c r="R46" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S46" t="str">
         <v/>
       </c>
       <c r="T46" t="str">
-        <v>596</v>
+        <v>14</v>
       </c>
       <c r="U46" t="str">
-        <v>MOHAMMED LAKHDAR</v>
+        <v>AHMED</v>
       </c>
       <c r="V46" t="str">
-        <v>BENKHIRA</v>
+        <v>KHADRAOUI</v>
       </c>
       <c r="W46" t="str">
-        <v>SOUAD</v>
+        <v>SALIHA</v>
       </c>
     </row>
     <row r="47">
@@ -3673,70 +3674,70 @@
         <v>1</v>
       </c>
       <c r="B47" t="str">
-        <v>GHELANI</v>
+        <v>LAOUNI</v>
       </c>
       <c r="C47" t="str">
-        <v xml:space="preserve">MOHAMMED     </v>
+        <v>LAHCEN</v>
       </c>
       <c r="D47" t="str">
         <v>M</v>
       </c>
       <c r="E47" t="str">
-        <v>11/01/1986</v>
+        <v>01/02/1987</v>
       </c>
       <c r="F47" t="str">
         <v/>
       </c>
       <c r="G47" t="str">
-        <v/>
+        <v>BENNACER</v>
       </c>
       <c r="H47" t="str">
         <v/>
       </c>
       <c r="I47" t="str">
-        <v>379</v>
+        <v/>
       </c>
       <c r="J47" t="str">
-        <v>C</v>
+        <v>M</v>
       </c>
       <c r="K47" t="str">
-        <v>MOUSSA</v>
+        <v>ABEDELHAKEM</v>
       </c>
       <c r="L47" t="str">
-        <v>GHELANI</v>
+        <v>BEBBOUKHA</v>
       </c>
       <c r="M47" t="str">
+        <v>AICHA</v>
+      </c>
+      <c r="N47" t="str">
+        <v>BEBBOUKHA</v>
+      </c>
+      <c r="O47" t="str">
+        <v>SALMA</v>
+      </c>
+      <c r="P47" t="str">
+        <v>17/05/1996</v>
+      </c>
+      <c r="Q47" t="str">
+        <v/>
+      </c>
+      <c r="R47" t="str">
+        <v>DEBDAB</v>
+      </c>
+      <c r="S47" t="str">
+        <v/>
+      </c>
+      <c r="T47" t="str">
+        <v>48</v>
+      </c>
+      <c r="U47" t="str">
+        <v>ABDELKADER</v>
+      </c>
+      <c r="V47" t="str">
+        <v>HAMAMA</v>
+      </c>
+      <c r="W47" t="str">
         <v>ZOHRA</v>
-      </c>
-      <c r="N47" t="str">
-        <v>HAFRI</v>
-      </c>
-      <c r="O47" t="str">
-        <v>NADJAT</v>
-      </c>
-      <c r="P47" t="str">
-        <v>04/02/1988</v>
-      </c>
-      <c r="Q47" t="str">
-        <v/>
-      </c>
-      <c r="R47" t="str">
-        <v/>
-      </c>
-      <c r="S47" t="str">
-        <v/>
-      </c>
-      <c r="T47" t="str">
-        <v>23</v>
-      </c>
-      <c r="U47" t="str">
-        <v>AHMED</v>
-      </c>
-      <c r="V47" t="str">
-        <v>BOUSAG</v>
-      </c>
-      <c r="W47" t="str">
-        <v>NADIRA</v>
       </c>
     </row>
     <row r="48">
@@ -3744,70 +3745,70 @@
         <v>1</v>
       </c>
       <c r="B48" t="str">
-        <v>GHERARA</v>
+        <v>MANSOURI</v>
       </c>
       <c r="C48" t="str">
-        <v>AICHA</v>
+        <v>BRAHIM</v>
       </c>
       <c r="D48" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E48" t="str">
-        <v>31/01/1978</v>
+        <v>01/01/1979</v>
       </c>
       <c r="F48" t="str">
         <v/>
       </c>
       <c r="G48" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H48" t="str">
         <v/>
       </c>
       <c r="I48" t="str">
-        <v>63</v>
+        <v>336</v>
       </c>
       <c r="J48" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K48" t="str">
-        <v>LAKHDAR</v>
+        <v>MEBROUK</v>
       </c>
       <c r="L48" t="str">
-        <v>SAOUD</v>
+        <v>MANSOURI</v>
       </c>
       <c r="M48" t="str">
-        <v>MEBARKA</v>
+        <v>FATMA</v>
       </c>
       <c r="N48" t="str">
-        <v>BEYAT</v>
+        <v>MANSOURI</v>
       </c>
       <c r="O48" t="str">
-        <v>TAHAR</v>
+        <v>FADHILA</v>
       </c>
       <c r="P48" t="str">
-        <v>24/02/1951</v>
+        <v>01/01/1984</v>
       </c>
       <c r="Q48" t="str">
         <v/>
       </c>
       <c r="R48" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S48" t="str">
         <v/>
       </c>
       <c r="T48" t="str">
-        <v>309</v>
+        <v/>
       </c>
       <c r="U48" t="str">
-        <v>LAID</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="V48" t="str">
-        <v>BEYAT</v>
+        <v>MANSOURI</v>
       </c>
       <c r="W48" t="str">
-        <v>ZOHRA</v>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="49">
@@ -3815,70 +3816,70 @@
         <v>1</v>
       </c>
       <c r="B49" t="str">
-        <v>KADDOUR</v>
+        <v>MANSOURI</v>
       </c>
       <c r="C49" t="str">
-        <v>MAHMOUD</v>
+        <v>BRAHIM</v>
       </c>
       <c r="D49" t="str">
         <v>M</v>
       </c>
       <c r="E49" t="str">
-        <v>16/11/1981</v>
+        <v>01/01/1980</v>
       </c>
       <c r="F49" t="str">
         <v/>
       </c>
       <c r="G49" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H49" t="str">
         <v/>
       </c>
       <c r="I49" t="str">
-        <v>1077</v>
+        <v>552</v>
       </c>
       <c r="J49" t="str">
         <v>M</v>
       </c>
       <c r="K49" t="str">
-        <v>MOHAMMED</v>
+        <v>AHMED</v>
       </c>
       <c r="L49" t="str">
-        <v>BENAZZA</v>
+        <v>MANSOURI</v>
       </c>
       <c r="M49" t="str">
+        <v>FATMA</v>
+      </c>
+      <c r="N49" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="O49" t="str">
+        <v>NAIMA</v>
+      </c>
+      <c r="P49" t="str">
+        <v>16/12/1991</v>
+      </c>
+      <c r="Q49" t="str">
+        <v/>
+      </c>
+      <c r="R49" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="S49" t="str">
+        <v/>
+      </c>
+      <c r="T49" t="str">
+        <v>152</v>
+      </c>
+      <c r="U49" t="str">
+        <v>AMER</v>
+      </c>
+      <c r="V49" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="W49" t="str">
         <v>MEBARKA</v>
-      </c>
-      <c r="N49" t="str">
-        <v>ABID</v>
-      </c>
-      <c r="O49" t="str">
-        <v>MESSAOUDA</v>
-      </c>
-      <c r="P49" t="str">
-        <v>24/02/1990</v>
-      </c>
-      <c r="Q49" t="str">
-        <v/>
-      </c>
-      <c r="R49" t="str">
-        <v/>
-      </c>
-      <c r="S49" t="str">
-        <v/>
-      </c>
-      <c r="T49" t="str">
-        <v>45</v>
-      </c>
-      <c r="U49" t="str">
-        <v>TAHAR</v>
-      </c>
-      <c r="V49" t="str">
-        <v>GUECHAB</v>
-      </c>
-      <c r="W49" t="str">
-        <v>DAOUIA</v>
       </c>
     </row>
     <row r="50">
@@ -3886,70 +3887,70 @@
         <v>1</v>
       </c>
       <c r="B50" t="str">
-        <v>GUEMMOULA</v>
+        <v>MANSOURI</v>
       </c>
       <c r="C50" t="str">
-        <v>MESSAOUDA</v>
+        <v xml:space="preserve">ALI  </v>
       </c>
       <c r="D50" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E50" t="str">
-        <v>15/05/1959</v>
+        <v>27/10/1986</v>
       </c>
       <c r="F50" t="str">
         <v/>
       </c>
       <c r="G50" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H50" t="str">
         <v/>
       </c>
       <c r="I50" t="str">
-        <v>1508</v>
+        <v>333</v>
       </c>
       <c r="J50" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K50" t="str">
-        <v>LAID</v>
+        <v>AHMED</v>
       </c>
       <c r="L50" t="str">
-        <v>GUEMMOULA</v>
+        <v>MANSOURI</v>
       </c>
       <c r="M50" t="str">
-        <v>SALMA</v>
+        <v>MEBARKA</v>
       </c>
       <c r="N50" t="str">
-        <v>ZEGRIR</v>
+        <v>MANSOURI</v>
       </c>
       <c r="O50" t="str">
-        <v>MOHAMMED ALI</v>
+        <v>NADJAT</v>
       </c>
       <c r="P50" t="str">
-        <v>22/10/1948</v>
+        <v>20/01/1992</v>
       </c>
       <c r="Q50" t="str">
         <v/>
       </c>
       <c r="R50" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S50" t="str">
         <v/>
       </c>
       <c r="T50" t="str">
-        <v>2439</v>
+        <v>12</v>
       </c>
       <c r="U50" t="str">
-        <v>MAMMAR</v>
+        <v>ALI</v>
       </c>
       <c r="V50" t="str">
-        <v>GUEMMOULA</v>
+        <v>MANSOURI</v>
       </c>
       <c r="W50" t="str">
-        <v>AICHA</v>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="51">
@@ -3957,70 +3958,70 @@
         <v>1</v>
       </c>
       <c r="B51" t="str">
-        <v>KADI</v>
+        <v>MOUANE</v>
       </c>
       <c r="C51" t="str">
-        <v>MAAMAR</v>
+        <v>OUMELKHIR</v>
       </c>
       <c r="D51" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E51" t="str">
-        <v>09/05/1986</v>
+        <v>01/01/1972</v>
       </c>
       <c r="F51" t="str">
         <v/>
       </c>
       <c r="G51" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H51" t="str">
         <v/>
       </c>
       <c r="I51" t="str">
-        <v>139</v>
+        <v>826</v>
       </c>
       <c r="J51" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K51" t="str">
-        <v>ALI</v>
+        <v>MEBROUK</v>
       </c>
       <c r="L51" t="str">
-        <v>KADI</v>
+        <v xml:space="preserve"> OUGGAD</v>
       </c>
       <c r="M51" t="str">
         <v>AICHA</v>
       </c>
       <c r="N51" t="str">
-        <v>CHINE</v>
+        <v xml:space="preserve"> DJIDEL</v>
       </c>
       <c r="O51" t="str">
-        <v>FADHILA</v>
+        <v>SAID</v>
       </c>
       <c r="P51" t="str">
-        <v>02/11/1992</v>
+        <v>01/09/1959</v>
       </c>
       <c r="Q51" t="str">
         <v/>
       </c>
       <c r="R51" t="str">
-        <v/>
+        <v>NEZLA</v>
       </c>
       <c r="S51" t="str">
         <v/>
       </c>
       <c r="T51" t="str">
-        <v>364</v>
+        <v>2561</v>
       </c>
       <c r="U51" t="str">
-        <v>MOHAMMED</v>
+        <v>AHMED</v>
       </c>
       <c r="V51" t="str">
-        <v>BELHACHANI</v>
+        <v xml:space="preserve"> BEBBOUKHA</v>
       </c>
       <c r="W51" t="str">
-        <v>ZOHRA</v>
+        <v>AICHA</v>
       </c>
     </row>
     <row r="52">
@@ -4028,70 +4029,70 @@
         <v>1</v>
       </c>
       <c r="B52" t="str">
-        <v>KADI</v>
+        <v>DOKMA</v>
       </c>
       <c r="C52" t="str">
-        <v>NOUREDDINE</v>
+        <v>DJAMEL</v>
       </c>
       <c r="D52" t="str">
         <v>M</v>
       </c>
       <c r="E52" t="str">
-        <v>01/01/1985</v>
+        <v>29/06/1976</v>
       </c>
       <c r="F52" t="str">
         <v/>
       </c>
       <c r="G52" t="str">
-        <v/>
+        <v>TOUGGOURT</v>
       </c>
       <c r="H52" t="str">
         <v/>
       </c>
       <c r="I52" t="str">
-        <v>22</v>
+        <v>1204</v>
       </c>
       <c r="J52" t="str">
         <v>M</v>
       </c>
       <c r="K52" t="str">
-        <v>MILOUD</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="L52" t="str">
-        <v>SAOUD</v>
+        <v>HAMMADI</v>
       </c>
       <c r="M52" t="str">
-        <v>AICHA</v>
+        <v>ZOHRA</v>
       </c>
       <c r="N52" t="str">
-        <v>DOKMA</v>
+        <v>BOUNEGAB</v>
       </c>
       <c r="O52" t="str">
         <v>HANANE</v>
       </c>
       <c r="P52" t="str">
-        <v>12/01/1987</v>
+        <v>25/04/1993</v>
       </c>
       <c r="Q52" t="str">
         <v/>
       </c>
       <c r="R52" t="str">
-        <v/>
+        <v>BENNACEUR</v>
       </c>
       <c r="S52" t="str">
         <v/>
       </c>
       <c r="T52" t="str">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="U52" t="str">
-        <v>AHMED</v>
+        <v>MOHAMMED TAHAR</v>
       </c>
       <c r="V52" t="str">
-        <v>KHADRAOUI</v>
+        <v>RAHMANI</v>
       </c>
       <c r="W52" t="str">
-        <v>SALIHA</v>
+        <v>ZOHRA</v>
       </c>
     </row>
     <row r="53">
@@ -4099,70 +4100,70 @@
         <v>1</v>
       </c>
       <c r="B53" t="str">
-        <v>LAGGOUN</v>
+        <v>KADI</v>
       </c>
       <c r="C53" t="str">
-        <v>SALMA</v>
+        <v>MAAMAR</v>
       </c>
       <c r="D53" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E53" t="str">
-        <v>03/06/1965</v>
+        <v>09/05/1986</v>
       </c>
       <c r="F53" t="str">
         <v/>
       </c>
       <c r="G53" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H53" t="str">
         <v/>
       </c>
       <c r="I53" t="str">
-        <v/>
+        <v>139</v>
       </c>
       <c r="J53" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K53" t="str">
-        <v>AHMED</v>
+        <v>ALI</v>
       </c>
       <c r="L53" t="str">
-        <v>LAGGOUN</v>
+        <v>KADI</v>
       </c>
       <c r="M53" t="str">
-        <v>MERIEM</v>
+        <v>AICHA</v>
       </c>
       <c r="N53" t="str">
-        <v>KHELIFA</v>
+        <v>CHINE</v>
       </c>
       <c r="O53" t="str">
-        <v>LAICHE</v>
+        <v>FADHILA</v>
       </c>
       <c r="P53" t="str">
-        <v>01/01/1942</v>
+        <v>02/11/1992</v>
       </c>
       <c r="Q53" t="str">
         <v/>
       </c>
       <c r="R53" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S53" t="str">
         <v/>
       </c>
       <c r="T53" t="str">
-        <v/>
+        <v>364</v>
       </c>
       <c r="U53" t="str">
-        <v>MOHAMED LAKHDAR</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="V53" t="str">
-        <v>KHELFAOUI</v>
+        <v>BELHACHANI</v>
       </c>
       <c r="W53" t="str">
-        <v>MEBROUKA</v>
+        <v>ZOHRA</v>
       </c>
     </row>
     <row r="54">
@@ -4170,70 +4171,70 @@
         <v>1</v>
       </c>
       <c r="B54" t="str">
-        <v>HANNOUF</v>
+        <v>ROUAS</v>
       </c>
       <c r="C54" t="str">
-        <v>REDOUANE</v>
+        <v>MAHMOUD</v>
       </c>
       <c r="D54" t="str">
         <v>M</v>
       </c>
       <c r="E54" t="str">
-        <v>26/03/1975</v>
+        <v>01/01/1968</v>
       </c>
       <c r="F54" t="str">
         <v/>
       </c>
       <c r="G54" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H54" t="str">
         <v/>
       </c>
       <c r="I54" t="str">
-        <v>362</v>
+        <v>97</v>
       </c>
       <c r="J54" t="str">
         <v>M</v>
       </c>
       <c r="K54" t="str">
-        <v>ABDELKARIM</v>
+        <v>ALI</v>
       </c>
       <c r="L54" t="str">
-        <v>BEN SABERA</v>
+        <v>KHADIR</v>
       </c>
       <c r="M54" t="str">
-        <v>AKILA</v>
+        <v>FATMA</v>
       </c>
       <c r="N54" t="str">
-        <v>HADEF</v>
+        <v>ROUAS</v>
       </c>
       <c r="O54" t="str">
-        <v>WAFIA</v>
+        <v>MALIKA</v>
       </c>
       <c r="P54" t="str">
-        <v>11/05/1983</v>
+        <v>24/06/1981</v>
       </c>
       <c r="Q54" t="str">
         <v/>
       </c>
       <c r="R54" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S54" t="str">
         <v/>
       </c>
       <c r="T54" t="str">
-        <v>1373</v>
+        <v>563</v>
       </c>
       <c r="U54" t="str">
-        <v>MOULOUD</v>
+        <v>MOHAMMED TAHAR</v>
       </c>
       <c r="V54" t="str">
-        <v>BOUIDER</v>
+        <v>MENGAA</v>
       </c>
       <c r="W54" t="str">
-        <v>AKILA</v>
+        <v>MEBROUKA</v>
       </c>
     </row>
     <row r="55">
@@ -4241,70 +4242,70 @@
         <v>1</v>
       </c>
       <c r="B55" t="str">
-        <v>KOUTTI</v>
+        <v>DJEDIAI</v>
       </c>
       <c r="C55" t="str">
-        <v>NACER</v>
+        <v>SAIDA</v>
       </c>
       <c r="D55" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E55" t="str">
-        <v>22/03/1980</v>
+        <v>01/01/1966</v>
       </c>
       <c r="F55" t="str">
         <v/>
       </c>
       <c r="G55" t="str">
-        <v/>
+        <v>M'NAGUER</v>
       </c>
       <c r="H55" t="str">
         <v/>
       </c>
       <c r="I55" t="str">
-        <v/>
+        <v>195</v>
       </c>
       <c r="J55" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K55" t="str">
-        <v>SALAH</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="L55" t="str">
-        <v>BOUDOUH</v>
+        <v>MERKHOUFI</v>
       </c>
       <c r="M55" t="str">
-        <v>FATMA</v>
+        <v>ZOHRA</v>
       </c>
       <c r="N55" t="str">
-        <v>MENZER</v>
+        <v>KOUIDRI</v>
       </c>
       <c r="O55" t="str">
-        <v>IMANE</v>
+        <v>SAID</v>
       </c>
       <c r="P55" t="str">
-        <v>23/02/1993</v>
+        <v>22/09/1962</v>
       </c>
       <c r="Q55" t="str">
         <v/>
       </c>
       <c r="R55" t="str">
-        <v/>
+        <v>BEN ASOUED</v>
       </c>
       <c r="S55" t="str">
         <v/>
       </c>
       <c r="T55" t="str">
-        <v>46</v>
+        <v/>
       </c>
       <c r="U55" t="str">
-        <v>ABDELMADJID</v>
+        <v>LAKHDAR</v>
       </c>
       <c r="V55" t="str">
-        <v>ZEOUAOUI</v>
+        <v>SEKHER</v>
       </c>
       <c r="W55" t="str">
-        <v>FATIMA</v>
+        <v>HANIA</v>
       </c>
     </row>
     <row r="56">
@@ -4312,67 +4313,67 @@
         <v>1</v>
       </c>
       <c r="B56" t="str">
-        <v>MANSOURI</v>
+        <v>CHINE</v>
       </c>
       <c r="C56" t="str">
-        <v xml:space="preserve">ALI  </v>
+        <v>YAHIA</v>
       </c>
       <c r="D56" t="str">
         <v>M</v>
       </c>
       <c r="E56" t="str">
-        <v>27/10/1986</v>
+        <v>01/10/1986</v>
       </c>
       <c r="F56" t="str">
         <v/>
       </c>
       <c r="G56" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H56" t="str">
         <v/>
       </c>
       <c r="I56" t="str">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="J56" t="str">
         <v>M</v>
       </c>
       <c r="K56" t="str">
-        <v>AHMED</v>
+        <v>EL HAFED</v>
       </c>
       <c r="L56" t="str">
-        <v>MANSOURI</v>
+        <v>CHINE</v>
       </c>
       <c r="M56" t="str">
-        <v>MEBARKA</v>
+        <v>KHADRA</v>
       </c>
       <c r="N56" t="str">
-        <v>MANSOURI</v>
+        <v>GUEMMOULI</v>
       </c>
       <c r="O56" t="str">
-        <v>NADJAT</v>
+        <v>FAIZA</v>
       </c>
       <c r="P56" t="str">
-        <v>20/01/1992</v>
+        <v>10/02/1999</v>
       </c>
       <c r="Q56" t="str">
         <v/>
       </c>
       <c r="R56" t="str">
-        <v/>
+        <v>BENNACEUR</v>
       </c>
       <c r="S56" t="str">
         <v/>
       </c>
       <c r="T56" t="str">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="U56" t="str">
         <v>ALI</v>
       </c>
       <c r="V56" t="str">
-        <v>MANSOURI</v>
+        <v>GHERIER</v>
       </c>
       <c r="W56" t="str">
         <v>FATMA</v>
@@ -4386,64 +4387,64 @@
         <v>MANSOURI</v>
       </c>
       <c r="C57" t="str">
-        <v>BRAHIM</v>
+        <v>MOHAMMED ALI</v>
       </c>
       <c r="D57" t="str">
         <v>M</v>
       </c>
       <c r="E57" t="str">
-        <v>01/01/1979</v>
+        <v>13/01/1983</v>
       </c>
       <c r="F57" t="str">
         <v/>
       </c>
       <c r="G57" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H57" t="str">
         <v/>
       </c>
       <c r="I57" t="str">
-        <v/>
+        <v>58</v>
       </c>
       <c r="J57" t="str">
         <v>M</v>
       </c>
       <c r="K57" t="str">
-        <v>MEBROUK</v>
+        <v>ALI</v>
       </c>
       <c r="L57" t="str">
         <v>MANSOURI</v>
       </c>
       <c r="M57" t="str">
-        <v>FATMA</v>
+        <v>MEBARKA</v>
       </c>
       <c r="N57" t="str">
-        <v>MANSOURI</v>
+        <v>GHENDIR</v>
       </c>
       <c r="O57" t="str">
-        <v>FADHILA</v>
+        <v>NACIRA</v>
       </c>
       <c r="P57" t="str">
-        <v>01/01/1984</v>
+        <v>26/01/1993</v>
       </c>
       <c r="Q57" t="str">
         <v/>
       </c>
       <c r="R57" t="str">
-        <v/>
+        <v>TEBESBEST</v>
       </c>
       <c r="S57" t="str">
         <v/>
       </c>
       <c r="T57" t="str">
-        <v/>
+        <v>17</v>
       </c>
       <c r="U57" t="str">
         <v>MOHAMMED</v>
       </c>
       <c r="V57" t="str">
-        <v>MANSOURI</v>
+        <v>GHENDIR</v>
       </c>
       <c r="W57" t="str">
         <v>FATMA</v>
@@ -4454,70 +4455,70 @@
         <v>1</v>
       </c>
       <c r="B58" t="str">
-        <v>GASMI</v>
+        <v>NID</v>
       </c>
       <c r="C58" t="str">
-        <v>SAID</v>
+        <v>BACHIR</v>
       </c>
       <c r="D58" t="str">
         <v>M</v>
       </c>
       <c r="E58" t="str">
-        <v>00/00/1983</v>
+        <v>01/01/1940</v>
       </c>
       <c r="F58" t="str">
         <v/>
       </c>
       <c r="G58" t="str">
-        <v/>
+        <v>REGUIBA</v>
       </c>
       <c r="H58" t="str">
         <v/>
       </c>
       <c r="I58" t="str">
-        <v>115</v>
+        <v>5599</v>
       </c>
       <c r="J58" t="str">
         <v>M</v>
       </c>
       <c r="K58" t="str">
-        <v>KHADIR</v>
+        <v>LAKHDAR</v>
       </c>
       <c r="L58" t="str">
-        <v>BENSADIA</v>
+        <v>DIDA</v>
       </c>
       <c r="M58" t="str">
-        <v>SADIA</v>
+        <v>HANIA</v>
       </c>
       <c r="N58" t="str">
-        <v>LAHZIEL</v>
+        <v>GHERARA</v>
       </c>
       <c r="O58" t="str">
-        <v>MASSOUDA</v>
+        <v>DJAMILA</v>
       </c>
       <c r="P58" t="str">
-        <v>01/01/1985</v>
+        <v>12/11/1982</v>
       </c>
       <c r="Q58" t="str">
         <v/>
       </c>
       <c r="R58" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S58" t="str">
         <v/>
       </c>
       <c r="T58" t="str">
-        <v>2</v>
+        <v>860</v>
       </c>
       <c r="U58" t="str">
-        <v>MOHAMMED</v>
+        <v>MOHAMED CHAIB</v>
       </c>
       <c r="V58" t="str">
-        <v>SOUD</v>
+        <v>NADJA</v>
       </c>
       <c r="W58" t="str">
-        <v>FATIMA</v>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="59">
@@ -4525,70 +4526,70 @@
         <v>1</v>
       </c>
       <c r="B59" t="str">
-        <v>TOUAHAR</v>
+        <v>REZZAG HEBLA</v>
       </c>
       <c r="C59" t="str">
-        <v>MOKHTAR</v>
+        <v>ARABI</v>
       </c>
       <c r="D59" t="str">
         <v>M</v>
       </c>
       <c r="E59" t="str">
-        <v>13/06/1971</v>
+        <v>10/01/1985</v>
       </c>
       <c r="F59" t="str">
         <v/>
       </c>
       <c r="G59" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H59" t="str">
         <v/>
       </c>
       <c r="I59" t="str">
-        <v>216</v>
+        <v>6</v>
       </c>
       <c r="J59" t="str">
         <v>M</v>
       </c>
       <c r="K59" t="str">
-        <v>HOCINE</v>
+        <v>LAID</v>
       </c>
       <c r="L59" t="str">
-        <v>AMMARI</v>
+        <v>CHALBI</v>
       </c>
       <c r="M59" t="str">
-        <v>YAMINA</v>
+        <v>KHEDIDJA</v>
       </c>
       <c r="N59" t="str">
-        <v>AMMARI</v>
+        <v>SAOUD</v>
       </c>
       <c r="O59" t="str">
-        <v>LAILA</v>
+        <v>KARIMA</v>
       </c>
       <c r="P59" t="str">
-        <v>31/08/1997</v>
+        <v>01/01/1989</v>
       </c>
       <c r="Q59" t="str">
         <v/>
       </c>
       <c r="R59" t="str">
-        <v/>
+        <v>TOUGGOURT</v>
       </c>
       <c r="S59" t="str">
         <v/>
       </c>
       <c r="T59" t="str">
-        <v>367</v>
+        <v>982</v>
       </c>
       <c r="U59" t="str">
-        <v>SAID</v>
+        <v>AMMAR</v>
       </c>
       <c r="V59" t="str">
-        <v>AMMARI</v>
+        <v>SAOUD</v>
       </c>
       <c r="W59" t="str">
-        <v>YAMINA</v>
+        <v>ZERZOURA</v>
       </c>
     </row>
     <row r="60">
@@ -4596,70 +4597,70 @@
         <v>1</v>
       </c>
       <c r="B60" t="str">
-        <v xml:space="preserve">TOUIL </v>
+        <v>REZZAG HEBLA</v>
       </c>
       <c r="C60" t="str">
-        <v>MERIEM</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="D60" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E60" t="str">
-        <v>00/00/1949</v>
+        <v>05/05/1987</v>
       </c>
       <c r="F60" t="str">
         <v/>
       </c>
       <c r="G60" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H60" t="str">
         <v/>
       </c>
       <c r="I60" t="str">
-        <v>2959</v>
+        <v>107</v>
       </c>
       <c r="J60" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K60" t="str">
-        <v>BACHIR</v>
+        <v>SAID</v>
       </c>
       <c r="L60" t="str">
-        <v>LEBBOUZ</v>
+        <v>ZOUARI FERHAT</v>
       </c>
       <c r="M60" t="str">
-        <v>FATMA</v>
+        <v>FATIMA</v>
       </c>
       <c r="N60" t="str">
-        <v>BENTERKIA</v>
+        <v>SOUILEM</v>
       </c>
       <c r="O60" t="str">
-        <v>KHELIFA</v>
+        <v>DALILA</v>
       </c>
       <c r="P60" t="str">
-        <v>00/00/1935</v>
+        <v>08/03/1993</v>
       </c>
       <c r="Q60" t="str">
         <v/>
       </c>
       <c r="R60" t="str">
-        <v/>
+        <v>TEBSBEST</v>
       </c>
       <c r="S60" t="str">
         <v/>
       </c>
       <c r="T60" t="str">
-        <v>742</v>
+        <v>49</v>
       </c>
       <c r="U60" t="str">
-        <v>TAHAR</v>
+        <v>SAYAH</v>
       </c>
       <c r="V60" t="str">
-        <v>ABID</v>
+        <v>REZZAG HEBLA</v>
       </c>
       <c r="W60" t="str">
-        <v>FATMA</v>
+        <v>KHIERA</v>
       </c>
     </row>
     <row r="61">
@@ -4667,70 +4668,70 @@
         <v>1</v>
       </c>
       <c r="B61" t="str">
-        <v>ZEGAOU</v>
+        <v>SERRAYE</v>
       </c>
       <c r="C61" t="str">
-        <v>CHERIF</v>
+        <v>KHELIFA</v>
       </c>
       <c r="D61" t="str">
         <v>M</v>
       </c>
       <c r="E61" t="str">
-        <v>17/05/1987</v>
+        <v>07/07/1986</v>
       </c>
       <c r="F61" t="str">
         <v/>
       </c>
       <c r="G61" t="str">
-        <v/>
+        <v>BENNACER</v>
       </c>
       <c r="H61" t="str">
         <v/>
       </c>
       <c r="I61" t="str">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="J61" t="str">
         <v>M</v>
       </c>
       <c r="K61" t="str">
-        <v>AMMAR</v>
+        <v>SAID</v>
       </c>
       <c r="L61" t="str">
-        <v>BACHI</v>
+        <v>SERRAYE</v>
       </c>
       <c r="M61" t="str">
-        <v>ZOHRA</v>
+        <v>MALIKA</v>
       </c>
       <c r="N61" t="str">
-        <v>ZEGAOUI</v>
+        <v>DJIDEL</v>
       </c>
       <c r="O61" t="str">
-        <v>NOUR ELHOUDA</v>
+        <v>OUARDA</v>
       </c>
       <c r="P61" t="str">
-        <v>23/04/1999</v>
+        <v>03/11/1992</v>
       </c>
       <c r="Q61" t="str">
         <v/>
       </c>
       <c r="R61" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S61" t="str">
         <v/>
       </c>
       <c r="T61" t="str">
-        <v>414</v>
+        <v>370</v>
       </c>
       <c r="U61" t="str">
-        <v>KHELIFA</v>
+        <v>SAID</v>
       </c>
       <c r="V61" t="str">
-        <v>BEDDIAF</v>
+        <v>MOUANE</v>
       </c>
       <c r="W61" t="str">
-        <v>ZOHRA</v>
+        <v>OUM ELKHIR</v>
       </c>
     </row>
     <row r="62">
@@ -4738,70 +4739,70 @@
         <v>1</v>
       </c>
       <c r="B62" t="str">
-        <v>REZZAG HEBLA</v>
+        <v>DOUH</v>
       </c>
       <c r="C62" t="str">
+        <v>SOUAD</v>
+      </c>
+      <c r="D62" t="str">
+        <v>F</v>
+      </c>
+      <c r="E62" t="str">
+        <v>18/10/1972</v>
+      </c>
+      <c r="F62" t="str">
+        <v/>
+      </c>
+      <c r="G62" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="H62" t="str">
+        <v/>
+      </c>
+      <c r="I62" t="str">
+        <v>2303</v>
+      </c>
+      <c r="J62" t="str">
+        <v>V</v>
+      </c>
+      <c r="K62" t="str">
+        <v>MAMMAR</v>
+      </c>
+      <c r="L62" t="str">
+        <v>ARIF</v>
+      </c>
+      <c r="M62" t="str">
+        <v>FATMA</v>
+      </c>
+      <c r="N62" t="str">
+        <v>LEBBOUZ</v>
+      </c>
+      <c r="O62" t="str">
+        <v>ISMAIL</v>
+      </c>
+      <c r="P62" t="str">
+        <v>07/11/1966</v>
+      </c>
+      <c r="Q62" t="str">
+        <v/>
+      </c>
+      <c r="R62" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="S62" t="str">
+        <v/>
+      </c>
+      <c r="T62" t="str">
+        <v>288</v>
+      </c>
+      <c r="U62" t="str">
         <v>MOHAMMED</v>
       </c>
-      <c r="D62" t="str">
-        <v>M</v>
-      </c>
-      <c r="E62" t="str">
-        <v>05/05/1987</v>
-      </c>
-      <c r="F62" t="str">
-        <v/>
-      </c>
-      <c r="G62" t="str">
-        <v/>
-      </c>
-      <c r="H62" t="str">
-        <v/>
-      </c>
-      <c r="I62" t="str">
-        <v>107</v>
-      </c>
-      <c r="J62" t="str">
-        <v>M</v>
-      </c>
-      <c r="K62" t="str">
-        <v>SAID</v>
-      </c>
-      <c r="L62" t="str">
-        <v>ZOUARI FERHAT</v>
-      </c>
-      <c r="M62" t="str">
-        <v>FATIMA</v>
-      </c>
-      <c r="N62" t="str">
-        <v>SOUILEM</v>
-      </c>
-      <c r="O62" t="str">
-        <v>DALILA</v>
-      </c>
-      <c r="P62" t="str">
-        <v>08/03/1993</v>
-      </c>
-      <c r="Q62" t="str">
-        <v/>
-      </c>
-      <c r="R62" t="str">
-        <v/>
-      </c>
-      <c r="S62" t="str">
-        <v/>
-      </c>
-      <c r="T62" t="str">
-        <v>49</v>
-      </c>
-      <c r="U62" t="str">
-        <v>SAYAH</v>
-      </c>
       <c r="V62" t="str">
-        <v>REZZAG HEBLA</v>
+        <v>ARIF</v>
       </c>
       <c r="W62" t="str">
-        <v>KHIERA</v>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="63">
@@ -4809,70 +4810,70 @@
         <v>1</v>
       </c>
       <c r="B63" t="str">
-        <v>ROUAS</v>
+        <v>ZEGHOUD</v>
       </c>
       <c r="C63" t="str">
-        <v>BRAHIM</v>
+        <v>SAID</v>
       </c>
       <c r="D63" t="str">
         <v>M</v>
       </c>
       <c r="E63" t="str">
-        <v>00/00/1983</v>
+        <v>24/10/1984</v>
       </c>
       <c r="F63" t="str">
         <v/>
       </c>
       <c r="G63" t="str">
-        <v/>
+        <v>TOUGGOURT</v>
       </c>
       <c r="H63" t="str">
         <v/>
       </c>
       <c r="I63" t="str">
-        <v>325</v>
+        <v>827</v>
       </c>
       <c r="J63" t="str">
         <v>M</v>
       </c>
       <c r="K63" t="str">
-        <v>MOHAMMED TAHAR</v>
+        <v xml:space="preserve">MOHAMMED       </v>
       </c>
       <c r="L63" t="str">
-        <v>GASMI</v>
+        <v>TOUAHRI</v>
       </c>
       <c r="M63" t="str">
-        <v>RABIAA</v>
+        <v>AICHA</v>
       </c>
       <c r="N63" t="str">
-        <v>GASMI</v>
+        <v>BECHOUA</v>
       </c>
       <c r="O63" t="str">
-        <v>FAIZA</v>
+        <v>FADILA</v>
       </c>
       <c r="P63" t="str">
-        <v>21/03/1994</v>
+        <v>17/04/1994</v>
       </c>
       <c r="Q63" t="str">
         <v/>
       </c>
       <c r="R63" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S63" t="str">
         <v/>
       </c>
       <c r="T63" t="str">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="U63" t="str">
-        <v>LAICHE</v>
+        <v>SAID</v>
       </c>
       <c r="V63" t="str">
-        <v>GASMI</v>
+        <v>MANSOURI</v>
       </c>
       <c r="W63" t="str">
-        <v>OUMELKHIR</v>
+        <v>FATIHA</v>
       </c>
     </row>
     <row r="64">
@@ -4883,67 +4884,67 @@
         <v>ROUAS</v>
       </c>
       <c r="C64" t="str">
-        <v>MAHMOUD</v>
+        <v>BRAHIM</v>
       </c>
       <c r="D64" t="str">
         <v>M</v>
       </c>
       <c r="E64" t="str">
-        <v>00/00/1968</v>
+        <v>01/01/1983</v>
       </c>
       <c r="F64" t="str">
         <v/>
       </c>
       <c r="G64" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H64" t="str">
         <v/>
       </c>
       <c r="I64" t="str">
-        <v>97</v>
+        <v>325</v>
       </c>
       <c r="J64" t="str">
         <v>M</v>
       </c>
       <c r="K64" t="str">
-        <v>ALI</v>
+        <v>MOHAMMED TAHAR</v>
       </c>
       <c r="L64" t="str">
-        <v>KHADIR</v>
+        <v>GASMI</v>
       </c>
       <c r="M64" t="str">
-        <v>FATMA</v>
+        <v>RABIAA</v>
       </c>
       <c r="N64" t="str">
-        <v>ROUAS</v>
+        <v>GASMI</v>
       </c>
       <c r="O64" t="str">
-        <v>MALIKA</v>
+        <v>FAIZA</v>
       </c>
       <c r="P64" t="str">
-        <v>24/06/1981</v>
+        <v>21/03/1994</v>
       </c>
       <c r="Q64" t="str">
         <v/>
       </c>
       <c r="R64" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S64" t="str">
         <v/>
       </c>
       <c r="T64" t="str">
-        <v>563</v>
+        <v>252</v>
       </c>
       <c r="U64" t="str">
-        <v>MOHAMMED TAHAR</v>
+        <v>LAICHE</v>
       </c>
       <c r="V64" t="str">
-        <v>MENGAA</v>
+        <v>GASMI</v>
       </c>
       <c r="W64" t="str">
-        <v>MEBROUKA</v>
+        <v>OUMELKHIR</v>
       </c>
     </row>
     <row r="65">
@@ -4960,13 +4961,13 @@
         <v>F</v>
       </c>
       <c r="E65" t="str">
-        <v>00/00/1961</v>
+        <v>01/01/1961</v>
       </c>
       <c r="F65" t="str">
         <v/>
       </c>
       <c r="G65" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H65" t="str">
         <v/>
@@ -4993,13 +4994,13 @@
         <v>ABDELLAH</v>
       </c>
       <c r="P65" t="str">
-        <v>00/00/1953</v>
+        <v>01/01/1953</v>
       </c>
       <c r="Q65" t="str">
         <v/>
       </c>
       <c r="R65" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S65" t="str">
         <v/>
@@ -5022,49 +5023,49 @@
         <v>1</v>
       </c>
       <c r="B66" t="str">
-        <v>SERRAYE</v>
+        <v>TOUAHAR</v>
       </c>
       <c r="C66" t="str">
-        <v>KHELIFA</v>
+        <v>SABAH</v>
       </c>
       <c r="D66" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E66" t="str">
-        <v>07/07/1986</v>
+        <v>01/01/1981</v>
       </c>
       <c r="F66" t="str">
         <v/>
       </c>
       <c r="G66" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H66" t="str">
         <v/>
       </c>
       <c r="I66" t="str">
-        <v>125</v>
+        <v>309</v>
       </c>
       <c r="J66" t="str">
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="K66" t="str">
-        <v>SAID</v>
+        <v>HOCINE</v>
       </c>
       <c r="L66" t="str">
-        <v>SERRAYE</v>
+        <v>GASMI</v>
       </c>
       <c r="M66" t="str">
-        <v>MALIKA</v>
+        <v>AICHA</v>
       </c>
       <c r="N66" t="str">
-        <v>DJIDEL</v>
+        <v/>
       </c>
       <c r="O66" t="str">
-        <v>OUARDA</v>
+        <v/>
       </c>
       <c r="P66" t="str">
-        <v>03/11/1992</v>
+        <v/>
       </c>
       <c r="Q66" t="str">
         <v/>
@@ -5076,16 +5077,16 @@
         <v/>
       </c>
       <c r="T66" t="str">
-        <v>370</v>
+        <v/>
       </c>
       <c r="U66" t="str">
-        <v>SAID</v>
+        <v/>
       </c>
       <c r="V66" t="str">
-        <v>MOUANE</v>
+        <v/>
       </c>
       <c r="W66" t="str">
-        <v>OUM ELKHIR</v>
+        <v/>
       </c>
     </row>
     <row r="67">
@@ -5093,70 +5094,70 @@
         <v>1</v>
       </c>
       <c r="B67" t="str">
-        <v>TOUAHAR</v>
+        <v>HAMDAOUI</v>
       </c>
       <c r="C67" t="str">
-        <v>SABAH</v>
+        <v>MESSAOUD</v>
       </c>
       <c r="D67" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E67" t="str">
-        <v>00/00/1981</v>
+        <v>16/08/1986</v>
       </c>
       <c r="F67" t="str">
         <v/>
       </c>
       <c r="G67" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H67" t="str">
         <v/>
       </c>
       <c r="I67" t="str">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="J67" t="str">
-        <v>D</v>
+        <v>M</v>
       </c>
       <c r="K67" t="str">
-        <v>HOCINE</v>
+        <v>RACHID</v>
       </c>
       <c r="L67" t="str">
-        <v>GASMI</v>
+        <v>BENKHIRA</v>
       </c>
       <c r="M67" t="str">
-        <v>AICHA</v>
+        <v>YAMINA</v>
       </c>
       <c r="N67" t="str">
-        <v/>
+        <v>HAMDAOUI</v>
       </c>
       <c r="O67" t="str">
-        <v/>
+        <v>ZINEB</v>
       </c>
       <c r="P67" t="str">
-        <v/>
+        <v>30/09/1989</v>
       </c>
       <c r="Q67" t="str">
         <v/>
       </c>
       <c r="R67" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S67" t="str">
         <v/>
       </c>
       <c r="T67" t="str">
-        <v/>
+        <v>428</v>
       </c>
       <c r="U67" t="str">
-        <v/>
+        <v>BACHIR</v>
       </c>
       <c r="V67" t="str">
-        <v/>
+        <v>KOUIDRI</v>
       </c>
       <c r="W67" t="str">
-        <v/>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="68">
@@ -5164,70 +5165,70 @@
         <v>1</v>
       </c>
       <c r="B68" t="str">
-        <v>ZEGHOUD</v>
+        <v xml:space="preserve">TOUIL </v>
       </c>
       <c r="C68" t="str">
-        <v>SAID</v>
+        <v>MERIEM</v>
       </c>
       <c r="D68" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E68" t="str">
-        <v>24/10/1984</v>
+        <v>01/01/1949</v>
       </c>
       <c r="F68" t="str">
         <v/>
       </c>
       <c r="G68" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H68" t="str">
         <v/>
       </c>
       <c r="I68" t="str">
-        <v>827</v>
+        <v>2959</v>
       </c>
       <c r="J68" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K68" t="str">
-        <v xml:space="preserve">MOHAMMED       </v>
+        <v>BACHIR</v>
       </c>
       <c r="L68" t="str">
-        <v>TOUAHRI</v>
+        <v>LEBBOUZ</v>
       </c>
       <c r="M68" t="str">
-        <v>AICHA</v>
+        <v>FATMA</v>
       </c>
       <c r="N68" t="str">
-        <v>BECHOUA</v>
+        <v>BENTERKIA</v>
       </c>
       <c r="O68" t="str">
-        <v>FADILA</v>
+        <v>KHELIFA</v>
       </c>
       <c r="P68" t="str">
-        <v>17/04/1994</v>
+        <v>01/01/1935</v>
       </c>
       <c r="Q68" t="str">
         <v/>
       </c>
       <c r="R68" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S68" t="str">
         <v/>
       </c>
       <c r="T68" t="str">
-        <v>316</v>
+        <v>742</v>
       </c>
       <c r="U68" t="str">
-        <v>SAID</v>
+        <v>TAHAR</v>
       </c>
       <c r="V68" t="str">
-        <v>MANSOURI</v>
+        <v>ABID</v>
       </c>
       <c r="W68" t="str">
-        <v>FATIHA</v>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="69">
@@ -5235,70 +5236,70 @@
         <v>1</v>
       </c>
       <c r="B69" t="str">
-        <v>GOSSI</v>
+        <v>ZEGAOU</v>
       </c>
       <c r="C69" t="str">
-        <v>MESSAOUDA</v>
+        <v>CHERIF</v>
       </c>
       <c r="D69" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E69" t="str">
-        <v>21/06/1983</v>
+        <v>17/05/1987</v>
       </c>
       <c r="F69" t="str">
         <v/>
       </c>
       <c r="G69" t="str">
-        <v/>
+        <v>M'NAGUER</v>
       </c>
       <c r="H69" t="str">
         <v/>
       </c>
       <c r="I69" t="str">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="J69" t="str">
-        <v>D</v>
+        <v>M</v>
       </c>
       <c r="K69" t="str">
-        <v>TAHAR</v>
+        <v>AMMAR</v>
       </c>
       <c r="L69" t="str">
-        <v>GOSSI</v>
+        <v>BACHI</v>
       </c>
       <c r="M69" t="str">
-        <v>MEBARKA</v>
+        <v>ZOHRA</v>
       </c>
       <c r="N69" t="str">
-        <v/>
+        <v>ZEGAOUI</v>
       </c>
       <c r="O69" t="str">
-        <v/>
+        <v>NOUR ELHOUDA</v>
       </c>
       <c r="P69" t="str">
-        <v/>
+        <v>23/04/1999</v>
       </c>
       <c r="Q69" t="str">
         <v/>
       </c>
       <c r="R69" t="str">
-        <v/>
+        <v>ROUISSAT</v>
       </c>
       <c r="S69" t="str">
         <v/>
       </c>
       <c r="T69" t="str">
-        <v/>
+        <v>414</v>
       </c>
       <c r="U69" t="str">
-        <v/>
+        <v>KHELIFA</v>
       </c>
       <c r="V69" t="str">
-        <v/>
+        <v>BEDDIAF</v>
       </c>
       <c r="W69" t="str">
-        <v/>
+        <v>ZOHRA</v>
       </c>
     </row>
     <row r="70">
@@ -5306,70 +5307,70 @@
         <v>1</v>
       </c>
       <c r="B70" t="str">
-        <v>MOUANE</v>
+        <v>NOUGTI</v>
       </c>
       <c r="C70" t="str">
-        <v>OUMELKHIR</v>
+        <v>ALI</v>
       </c>
       <c r="D70" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E70" t="str">
-        <v>00/00/1972</v>
+        <v>04/03/1985</v>
       </c>
       <c r="F70" t="str">
         <v/>
       </c>
       <c r="G70" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H70" t="str">
         <v/>
       </c>
       <c r="I70" t="str">
-        <v>826</v>
+        <v>10</v>
       </c>
       <c r="J70" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K70" t="str">
-        <v>MEBROUK</v>
+        <v>BELGACEM</v>
       </c>
       <c r="L70" t="str">
-        <v xml:space="preserve"> OUGGAD</v>
+        <v>DOUADI</v>
       </c>
       <c r="M70" t="str">
-        <v>AICHA</v>
+        <v>MERIEM</v>
       </c>
       <c r="N70" t="str">
-        <v xml:space="preserve"> DJIDEL</v>
+        <v>NOUGTI</v>
       </c>
       <c r="O70" t="str">
-        <v>SAID</v>
+        <v>DJAMILA</v>
       </c>
       <c r="P70" t="str">
-        <v>01/09/1959</v>
+        <v>27/02/1993</v>
       </c>
       <c r="Q70" t="str">
         <v/>
       </c>
       <c r="R70" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S70" t="str">
         <v/>
       </c>
       <c r="T70" t="str">
-        <v>2561</v>
+        <v>22</v>
       </c>
       <c r="U70" t="str">
         <v>AHMED</v>
       </c>
       <c r="V70" t="str">
-        <v xml:space="preserve"> BEBBOUKHA</v>
+        <v>RACHEDI</v>
       </c>
       <c r="W70" t="str">
-        <v>AICHA</v>
+        <v>ZEHIRA</v>
       </c>
     </row>
     <row r="71">
@@ -5377,70 +5378,70 @@
         <v>1</v>
       </c>
       <c r="B71" t="str">
-        <v>NEMROUD</v>
+        <v>GHERARA</v>
       </c>
       <c r="C71" t="str">
-        <v>ABDELGHANI</v>
+        <v>AICHA</v>
       </c>
       <c r="D71" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E71" t="str">
-        <v>02/03/1987</v>
+        <v>31/01/1978</v>
       </c>
       <c r="F71" t="str">
         <v/>
       </c>
       <c r="G71" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H71" t="str">
         <v/>
       </c>
       <c r="I71" t="str">
-        <v/>
+        <v>63</v>
       </c>
       <c r="J71" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K71" t="str">
-        <v>AHMED</v>
+        <v>LAKHDAR</v>
       </c>
       <c r="L71" t="str">
-        <v>BOUAZENI</v>
+        <v>SAOUD</v>
       </c>
       <c r="M71" t="str">
-        <v>KHIRA</v>
+        <v>MEBARKA</v>
       </c>
       <c r="N71" t="str">
-        <v>BEBBOUKHA</v>
+        <v>BEYAT</v>
       </c>
       <c r="O71" t="str">
-        <v>FATTOUM</v>
+        <v>TAHAR</v>
       </c>
       <c r="P71" t="str">
-        <v>02/11/1992</v>
+        <v>24/02/1951</v>
       </c>
       <c r="Q71" t="str">
         <v/>
       </c>
       <c r="R71" t="str">
-        <v/>
+        <v>ELOUED</v>
       </c>
       <c r="S71" t="str">
         <v/>
       </c>
       <c r="T71" t="str">
-        <v>379</v>
+        <v>309</v>
       </c>
       <c r="U71" t="str">
-        <v>SAID</v>
+        <v>LAID</v>
       </c>
       <c r="V71" t="str">
-        <v>HANED</v>
+        <v>BEYAT</v>
       </c>
       <c r="W71" t="str">
-        <v>HAYAT</v>
+        <v>ZOHRA</v>
       </c>
     </row>
     <row r="72">
@@ -5457,13 +5458,13 @@
         <v>F</v>
       </c>
       <c r="E72" t="str">
-        <v>00/00/1957</v>
+        <v>01/01/1957</v>
       </c>
       <c r="F72" t="str">
         <v/>
       </c>
       <c r="G72" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H72" t="str">
         <v/>
@@ -5490,13 +5491,13 @@
         <v>MOHAMMED</v>
       </c>
       <c r="P72" t="str">
-        <v>00/00/1930</v>
+        <v>01/01/1930</v>
       </c>
       <c r="Q72" t="str">
         <v/>
       </c>
       <c r="R72" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S72" t="str">
         <v/>
@@ -5519,70 +5520,70 @@
         <v>1</v>
       </c>
       <c r="B73" t="str">
-        <v>NOUGTI</v>
+        <v>NEMROUD</v>
       </c>
       <c r="C73" t="str">
-        <v>ALI</v>
+        <v>ABDELGHANI</v>
       </c>
       <c r="D73" t="str">
         <v>M</v>
       </c>
       <c r="E73" t="str">
-        <v>04/03/1985</v>
+        <v>02/03/1987</v>
       </c>
       <c r="F73" t="str">
         <v/>
       </c>
       <c r="G73" t="str">
-        <v/>
+        <v>KHEMIS MLIANA</v>
       </c>
       <c r="H73" t="str">
         <v/>
       </c>
       <c r="I73" t="str">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="J73" t="str">
         <v>M</v>
       </c>
       <c r="K73" t="str">
-        <v>BELGACEM</v>
+        <v>AHMED</v>
       </c>
       <c r="L73" t="str">
-        <v>DOUADI</v>
+        <v>BOUAZENI</v>
       </c>
       <c r="M73" t="str">
-        <v>MERIEM</v>
+        <v>KHIRA</v>
       </c>
       <c r="N73" t="str">
-        <v>NOUGTI</v>
+        <v>BEBBOUKHA</v>
       </c>
       <c r="O73" t="str">
-        <v>DJAMILA</v>
+        <v>FATTOUM</v>
       </c>
       <c r="P73" t="str">
-        <v>27/02/1993</v>
+        <v>02/11/1992</v>
       </c>
       <c r="Q73" t="str">
         <v/>
       </c>
       <c r="R73" t="str">
-        <v/>
+        <v>TOUGOURET</v>
       </c>
       <c r="S73" t="str">
         <v/>
       </c>
       <c r="T73" t="str">
-        <v>22</v>
+        <v>379</v>
       </c>
       <c r="U73" t="str">
-        <v>AHMED</v>
+        <v>SAID</v>
       </c>
       <c r="V73" t="str">
-        <v>RACHEDI</v>
+        <v>HANED</v>
       </c>
       <c r="W73" t="str">
-        <v>ZEHIRA</v>
+        <v>HAYAT</v>
       </c>
     </row>
     <row r="74">
@@ -5590,70 +5591,70 @@
         <v>1</v>
       </c>
       <c r="B74" t="str">
-        <v>DRIDI</v>
+        <v>TOUAHAR</v>
       </c>
       <c r="C74" t="str">
-        <v>MOHAMMED</v>
+        <v>MOKHTAR</v>
       </c>
       <c r="D74" t="str">
         <v>M</v>
       </c>
       <c r="E74" t="str">
-        <v>25/03/1987</v>
+        <v>13/06/1971</v>
       </c>
       <c r="F74" t="str">
         <v/>
       </c>
       <c r="G74" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H74" t="str">
         <v/>
       </c>
       <c r="I74" t="str">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="J74" t="str">
         <v>M</v>
       </c>
       <c r="K74" t="str">
-        <v>LAID</v>
+        <v>HOCINE</v>
       </c>
       <c r="L74" t="str">
-        <v>DRIDI</v>
+        <v>AMMARI</v>
       </c>
       <c r="M74" t="str">
-        <v>MERIEM</v>
+        <v>YAMINA</v>
       </c>
       <c r="N74" t="str">
-        <v>DRIDI</v>
+        <v>AMMARI</v>
       </c>
       <c r="O74" t="str">
-        <v>DJAMILA</v>
+        <v>LAILA</v>
       </c>
       <c r="P74" t="str">
-        <v>23/08/1991</v>
+        <v>31/08/1997</v>
       </c>
       <c r="Q74" t="str">
         <v/>
       </c>
       <c r="R74" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S74" t="str">
         <v/>
       </c>
       <c r="T74" t="str">
-        <v>23</v>
+        <v>367</v>
       </c>
       <c r="U74" t="str">
-        <v>MOHAMMED</v>
+        <v>SAID</v>
       </c>
       <c r="V74" t="str">
-        <v>DRIDI</v>
+        <v>AMMARI</v>
       </c>
       <c r="W74" t="str">
-        <v>MEBROUKA</v>
+        <v>YAMINA</v>
       </c>
     </row>
     <row r="75">
@@ -5661,70 +5662,70 @@
         <v>1</v>
       </c>
       <c r="B75" t="str">
-        <v>LAOUNI</v>
+        <v>LAGGOUN</v>
       </c>
       <c r="C75" t="str">
-        <v>LAHCEN</v>
+        <v>SALMA</v>
       </c>
       <c r="D75" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E75" t="str">
-        <v>01/02/1987</v>
+        <v>03/06/1965</v>
       </c>
       <c r="F75" t="str">
         <v/>
       </c>
       <c r="G75" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="H75" t="str">
         <v/>
       </c>
       <c r="I75" t="str">
-        <v/>
+        <v>123</v>
       </c>
       <c r="J75" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K75" t="str">
-        <v>ABEDELHAKEM</v>
+        <v>AHMED</v>
       </c>
       <c r="L75" t="str">
-        <v>BEBBOUKHA</v>
+        <v>LAGGOUN</v>
       </c>
       <c r="M75" t="str">
-        <v>AICHA</v>
+        <v>MERIEM</v>
       </c>
       <c r="N75" t="str">
-        <v>BEBBOUKHA</v>
+        <v>KHELIFA</v>
       </c>
       <c r="O75" t="str">
-        <v>SALMA</v>
+        <v>LAICHE</v>
       </c>
       <c r="P75" t="str">
-        <v>17/05/1996</v>
+        <v>01/01/1942</v>
       </c>
       <c r="Q75" t="str">
         <v/>
       </c>
       <c r="R75" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S75" t="str">
         <v/>
       </c>
       <c r="T75" t="str">
-        <v>48</v>
+        <v/>
       </c>
       <c r="U75" t="str">
-        <v>ABDELKADER</v>
+        <v>MOHAMED LAKHDAR</v>
       </c>
       <c r="V75" t="str">
-        <v>HAMAMA</v>
+        <v>KHELFAOUI</v>
       </c>
       <c r="W75" t="str">
-        <v>ZOHRA</v>
+        <v>MEBROUKA</v>
       </c>
     </row>
   </sheetData>

--- a/EnquetCNLnew.xlsx
+++ b/EnquetCNLnew.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W75"/>
+  <dimension ref="A1:W92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -479,40 +479,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>BAHDI</v>
+        <v>AMMARI</v>
       </c>
       <c r="C2" t="str">
-        <v>MESSAOUDA</v>
+        <v>ZOHRA</v>
       </c>
       <c r="D2" t="str">
         <v>F</v>
       </c>
       <c r="E2" t="str">
-        <v>01/07/1985</v>
+        <v>01/01/1952</v>
       </c>
       <c r="F2" t="str">
         <v/>
       </c>
       <c r="G2" t="str">
-        <v>OUMIH OUNSA</v>
+        <v>TAIBET</v>
       </c>
       <c r="H2" t="str">
         <v/>
       </c>
       <c r="I2" t="str">
-        <v>269</v>
+        <v>86</v>
       </c>
       <c r="J2" t="str">
         <v>D</v>
       </c>
       <c r="K2" t="str">
-        <v>MOSBAH</v>
+        <v>SEGHIR</v>
       </c>
       <c r="L2" t="str">
-        <v>MERAD</v>
+        <v>MANGAA</v>
       </c>
       <c r="M2" t="str">
-        <v>MEBARKA</v>
+        <v>LALIA</v>
       </c>
       <c r="N2" t="str">
         <v/>
@@ -550,40 +550,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>BELMESMAR</v>
+        <v>BAHDI</v>
       </c>
       <c r="C3" t="str">
-        <v>SALIHA</v>
+        <v>MESSAOUDA</v>
       </c>
       <c r="D3" t="str">
         <v>F</v>
       </c>
       <c r="E3" t="str">
-        <v>26/03/1980</v>
+        <v>01/07/1985</v>
       </c>
       <c r="F3" t="str">
         <v/>
       </c>
       <c r="G3" t="str">
-        <v>TOUGGOURT</v>
+        <v>OUMIH OUNSA</v>
       </c>
       <c r="H3" t="str">
         <v/>
       </c>
       <c r="I3" t="str">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="J3" t="str">
         <v>D</v>
       </c>
       <c r="K3" t="str">
-        <v>MOHAMMED</v>
+        <v>MOSBAH</v>
       </c>
       <c r="L3" t="str">
-        <v>AMMARI</v>
+        <v>MERAD</v>
       </c>
       <c r="M3" t="str">
-        <v>KHEDIDJA</v>
+        <v>MEBARKA</v>
       </c>
       <c r="N3" t="str">
         <v/>
@@ -621,40 +621,40 @@
         <v>1</v>
       </c>
       <c r="B4" t="str">
-        <v>AMMARI</v>
+        <v>BELMESMAR</v>
       </c>
       <c r="C4" t="str">
-        <v>ZOHRA</v>
+        <v>SALIHA</v>
       </c>
       <c r="D4" t="str">
         <v>F</v>
       </c>
       <c r="E4" t="str">
-        <v>01/01/1952</v>
+        <v>26/03/1980</v>
       </c>
       <c r="F4" t="str">
         <v/>
       </c>
       <c r="G4" t="str">
-        <v>TAIBET</v>
+        <v>TOUGGOURT</v>
       </c>
       <c r="H4" t="str">
         <v/>
       </c>
       <c r="I4" t="str">
-        <v>86</v>
+        <v>250</v>
       </c>
       <c r="J4" t="str">
         <v>D</v>
       </c>
       <c r="K4" t="str">
-        <v>SEGHIR</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="L4" t="str">
-        <v>MANGAA</v>
+        <v>AMMARI</v>
       </c>
       <c r="M4" t="str">
-        <v>LALIA</v>
+        <v>KHEDIDJA</v>
       </c>
       <c r="N4" t="str">
         <v/>
@@ -692,40 +692,40 @@
         <v>1</v>
       </c>
       <c r="B5" t="str">
-        <v>HAMMADI</v>
+        <v>FORTAS</v>
       </c>
       <c r="C5" t="str">
-        <v>NAIMA</v>
+        <v>SOUAD</v>
       </c>
       <c r="D5" t="str">
         <v>F</v>
       </c>
       <c r="E5" t="str">
-        <v>22/08/1987</v>
+        <v>19/08/1985</v>
       </c>
       <c r="F5" t="str">
         <v/>
       </c>
       <c r="G5" t="str">
-        <v>TOUGGOURT</v>
+        <v>TAIBET</v>
       </c>
       <c r="H5" t="str">
         <v/>
       </c>
       <c r="I5" t="str">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="J5" t="str">
         <v>D</v>
       </c>
       <c r="K5" t="str">
-        <v>MESSAOUD</v>
+        <v>ALI</v>
       </c>
       <c r="L5" t="str">
-        <v>HAMMADI</v>
+        <v>FORTAS</v>
       </c>
       <c r="M5" t="str">
-        <v>MERIEM</v>
+        <v>FATMA</v>
       </c>
       <c r="N5" t="str">
         <v/>
@@ -763,40 +763,40 @@
         <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v>FORTAS</v>
+        <v>HAMMADI</v>
       </c>
       <c r="C6" t="str">
-        <v>SOUAD</v>
+        <v>NAIMA</v>
       </c>
       <c r="D6" t="str">
         <v>F</v>
       </c>
       <c r="E6" t="str">
-        <v>19/08/1985</v>
+        <v>22/08/1987</v>
       </c>
       <c r="F6" t="str">
         <v/>
       </c>
       <c r="G6" t="str">
-        <v>TAIBET</v>
+        <v>TOUGGOURT</v>
       </c>
       <c r="H6" t="str">
         <v/>
       </c>
       <c r="I6" t="str">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="J6" t="str">
         <v>D</v>
       </c>
       <c r="K6" t="str">
-        <v>ALI</v>
+        <v>MESSAOUD</v>
       </c>
       <c r="L6" t="str">
-        <v>FORTAS</v>
+        <v>HAMMADI</v>
       </c>
       <c r="M6" t="str">
-        <v>FATMA</v>
+        <v>MERIEM</v>
       </c>
       <c r="N6" t="str">
         <v/>
@@ -1047,40 +1047,40 @@
         <v>1</v>
       </c>
       <c r="B10" t="str">
-        <v>SAOUD</v>
+        <v>CHINE</v>
       </c>
       <c r="C10" t="str">
-        <v>FATMA</v>
+        <v>FARIDA</v>
       </c>
       <c r="D10" t="str">
         <v>F</v>
       </c>
       <c r="E10" t="str">
-        <v>25/08/1984</v>
+        <v>15/07/1985</v>
       </c>
       <c r="F10" t="str">
         <v/>
       </c>
       <c r="G10" t="str">
-        <v>NEZLA</v>
+        <v>TAIBET</v>
       </c>
       <c r="H10" t="str">
         <v/>
       </c>
       <c r="I10" t="str">
-        <v>667</v>
+        <v>348</v>
       </c>
       <c r="J10" t="str">
         <v>D</v>
       </c>
       <c r="K10" t="str">
-        <v>LAKHDAR</v>
+        <v>ALI</v>
       </c>
       <c r="L10" t="str">
-        <v>DJALOUL</v>
+        <v>BENSAIDA</v>
       </c>
       <c r="M10" t="str">
-        <v>MESSAOUDA</v>
+        <v>FATMA</v>
       </c>
       <c r="N10" t="str">
         <v/>
@@ -1118,16 +1118,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="str">
-        <v>CHINE</v>
+        <v>TOUAHAR</v>
       </c>
       <c r="C11" t="str">
-        <v>FARIDA</v>
+        <v>AMAL</v>
       </c>
       <c r="D11" t="str">
         <v>F</v>
       </c>
       <c r="E11" t="str">
-        <v>15/07/1985</v>
+        <v>01/01/1983</v>
       </c>
       <c r="F11" t="str">
         <v/>
@@ -1139,19 +1139,19 @@
         <v/>
       </c>
       <c r="I11" t="str">
-        <v>348</v>
+        <v>130</v>
       </c>
       <c r="J11" t="str">
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="K11" t="str">
-        <v>ALI</v>
+        <v>HOCINE</v>
       </c>
       <c r="L11" t="str">
-        <v>BENSAIDA</v>
+        <v>AMMARI</v>
       </c>
       <c r="M11" t="str">
-        <v>FATMA</v>
+        <v>YAMNA</v>
       </c>
       <c r="N11" t="str">
         <v/>
@@ -1189,16 +1189,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="str">
-        <v>ALIAT</v>
+        <v>FREDJ</v>
       </c>
       <c r="C12" t="str">
-        <v>LAICHE</v>
+        <v>SALIHA</v>
       </c>
       <c r="D12" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E12" t="str">
-        <v>22/02/1971</v>
+        <v>20/03/1978</v>
       </c>
       <c r="F12" t="str">
         <v/>
@@ -1210,49 +1210,49 @@
         <v/>
       </c>
       <c r="I12" t="str">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="J12" t="str">
-        <v>M</v>
+        <v>C</v>
       </c>
       <c r="K12" t="str">
-        <v>MESSAOUD</v>
+        <v>BRAHIM</v>
       </c>
       <c r="L12" t="str">
-        <v>BELADJAL</v>
+        <v>OUGGAD</v>
       </c>
       <c r="M12" t="str">
-        <v>MEBROUKA</v>
+        <v>ZOHRA</v>
       </c>
       <c r="N12" t="str">
-        <v>ALIAT</v>
+        <v/>
       </c>
       <c r="O12" t="str">
-        <v>FARIDA</v>
+        <v/>
       </c>
       <c r="P12" t="str">
-        <v>01/01/1970</v>
+        <v/>
       </c>
       <c r="Q12" t="str">
         <v/>
       </c>
       <c r="R12" t="str">
-        <v>ELOUED</v>
+        <v/>
       </c>
       <c r="S12" t="str">
         <v/>
       </c>
       <c r="T12" t="str">
-        <v>76</v>
+        <v/>
       </c>
       <c r="U12" t="str">
-        <v>LARBI</v>
+        <v/>
       </c>
       <c r="V12" t="str">
-        <v>BELADJAL</v>
+        <v/>
       </c>
       <c r="W12" t="str">
-        <v>OUMELKHIR</v>
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -1260,16 +1260,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="str">
-        <v>ALIAT</v>
+        <v>BERKAOUI</v>
       </c>
       <c r="C13" t="str">
-        <v>MOHAMED SGHIR</v>
+        <v>MANSORA</v>
       </c>
       <c r="D13" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E13" t="str">
-        <v>22/09/1984</v>
+        <v>22/04/1982</v>
       </c>
       <c r="F13" t="str">
         <v/>
@@ -1281,49 +1281,49 @@
         <v/>
       </c>
       <c r="I13" t="str">
-        <v>798</v>
+        <v>361</v>
       </c>
       <c r="J13" t="str">
-        <v>M</v>
+        <v>C</v>
       </c>
       <c r="K13" t="str">
-        <v>LAICHE</v>
+        <v>HAMMADI</v>
       </c>
       <c r="L13" t="str">
-        <v>KADI</v>
+        <v>ZIAD</v>
       </c>
       <c r="M13" t="str">
-        <v>MALIKA</v>
+        <v>BOUKA</v>
       </c>
       <c r="N13" t="str">
-        <v>GUENOUA</v>
+        <v/>
       </c>
       <c r="O13" t="str">
-        <v>FOUZIA</v>
+        <v/>
       </c>
       <c r="P13" t="str">
-        <v>04/05/1995</v>
+        <v/>
       </c>
       <c r="Q13" t="str">
         <v/>
       </c>
       <c r="R13" t="str">
-        <v>TAIBET</v>
+        <v/>
       </c>
       <c r="S13" t="str">
         <v/>
       </c>
       <c r="T13" t="str">
-        <v>372</v>
+        <v/>
       </c>
       <c r="U13" t="str">
-        <v>MOHAMMED</v>
+        <v/>
       </c>
       <c r="V13" t="str">
-        <v>DOUH</v>
+        <v/>
       </c>
       <c r="W13" t="str">
-        <v>FATIHA</v>
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -1331,16 +1331,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="str">
-        <v>ALIAT</v>
+        <v>LAGGOUN</v>
       </c>
       <c r="C14" t="str">
-        <v>SAYAH</v>
+        <v>HOURIA</v>
       </c>
       <c r="D14" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E14" t="str">
-        <v>01/01/1977</v>
+        <v>20/11/1974</v>
       </c>
       <c r="F14" t="str">
         <v/>
@@ -1352,49 +1352,49 @@
         <v/>
       </c>
       <c r="I14" t="str">
-        <v>660</v>
+        <v>442</v>
       </c>
       <c r="J14" t="str">
-        <v>M</v>
+        <v>C</v>
       </c>
       <c r="K14" t="str">
-        <v>MAMMAR</v>
+        <v>LAKHDAR</v>
       </c>
       <c r="L14" t="str">
-        <v>MOUSSAOUI</v>
+        <v>BENAZZA</v>
       </c>
       <c r="M14" t="str">
-        <v>MERIEM</v>
+        <v>HADDA</v>
       </c>
       <c r="N14" t="str">
-        <v>ALIAT</v>
+        <v/>
       </c>
       <c r="O14" t="str">
-        <v>HAYAT</v>
+        <v/>
       </c>
       <c r="P14" t="str">
-        <v>24/11/1983</v>
+        <v/>
       </c>
       <c r="Q14" t="str">
         <v/>
       </c>
       <c r="R14" t="str">
-        <v>TOUGGOURT</v>
+        <v/>
       </c>
       <c r="S14" t="str">
         <v/>
       </c>
       <c r="T14" t="str">
-        <v>158</v>
+        <v/>
       </c>
       <c r="U14" t="str">
-        <v>MESSAOUD</v>
+        <v/>
       </c>
       <c r="V14" t="str">
-        <v>SERRAYE</v>
+        <v/>
       </c>
       <c r="W14" t="str">
-        <v>NEDJEMA</v>
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -1402,16 +1402,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="str">
-        <v>AMMARI</v>
+        <v>ZIGHEM</v>
       </c>
       <c r="C15" t="str">
-        <v xml:space="preserve">MOHAMMED </v>
+        <v>DAOUIA</v>
       </c>
       <c r="D15" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E15" t="str">
-        <v>03/10/1985</v>
+        <v>16/03/1971</v>
       </c>
       <c r="F15" t="str">
         <v/>
@@ -1423,49 +1423,49 @@
         <v/>
       </c>
       <c r="I15" t="str">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="J15" t="str">
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="K15" t="str">
-        <v>MESSAOUD</v>
+        <v>AHMED</v>
       </c>
       <c r="L15" t="str">
-        <v>AMMARI</v>
+        <v>MENACER</v>
       </c>
       <c r="M15" t="str">
-        <v>SAIDA</v>
+        <v>HADDA</v>
       </c>
       <c r="N15" t="str">
-        <v>AMMARI</v>
+        <v/>
       </c>
       <c r="O15" t="str">
-        <v>NOURA</v>
+        <v/>
       </c>
       <c r="P15" t="str">
-        <v>15/03/1990</v>
+        <v/>
       </c>
       <c r="Q15" t="str">
         <v/>
       </c>
       <c r="R15" t="str">
-        <v>TAIBET</v>
+        <v/>
       </c>
       <c r="S15" t="str">
         <v/>
       </c>
       <c r="T15" t="str">
-        <v>32</v>
+        <v/>
       </c>
       <c r="U15" t="str">
-        <v>TIDJANI</v>
+        <v/>
       </c>
       <c r="V15" t="str">
-        <v>AMMARI</v>
+        <v/>
       </c>
       <c r="W15" t="str">
-        <v>YAMINA</v>
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -1473,70 +1473,70 @@
         <v>1</v>
       </c>
       <c r="B16" t="str">
-        <v>BEKKARI</v>
+        <v>SAOUD</v>
       </c>
       <c r="C16" t="str">
-        <v>MOHAMMED DJEMOI</v>
+        <v>FATMA</v>
       </c>
       <c r="D16" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E16" t="str">
-        <v>01/01/1979</v>
+        <v>25/08/1984</v>
       </c>
       <c r="F16" t="str">
         <v/>
       </c>
       <c r="G16" t="str">
-        <v>TAIBET</v>
+        <v>NEZLA</v>
       </c>
       <c r="H16" t="str">
         <v/>
       </c>
       <c r="I16" t="str">
-        <v>355</v>
+        <v>667</v>
       </c>
       <c r="J16" t="str">
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="K16" t="str">
-        <v>LAICHE</v>
+        <v>LAKHDAR</v>
       </c>
       <c r="L16" t="str">
-        <v>LAHZIEL</v>
+        <v>DJALOUL</v>
       </c>
       <c r="M16" t="str">
         <v>MESSAOUDA</v>
       </c>
       <c r="N16" t="str">
-        <v>LAHZIEL</v>
+        <v/>
       </c>
       <c r="O16" t="str">
-        <v>SAFIA</v>
+        <v/>
       </c>
       <c r="P16" t="str">
-        <v>21/01/1991</v>
+        <v/>
       </c>
       <c r="Q16" t="str">
         <v/>
       </c>
       <c r="R16" t="str">
-        <v>TAIBET</v>
+        <v/>
       </c>
       <c r="S16" t="str">
         <v/>
       </c>
       <c r="T16" t="str">
-        <v>10</v>
+        <v/>
       </c>
       <c r="U16" t="str">
-        <v>MOHAMMED</v>
+        <v/>
       </c>
       <c r="V16" t="str">
-        <v>MESMARI</v>
+        <v/>
       </c>
       <c r="W16" t="str">
-        <v>MEBROUKA</v>
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1544,16 +1544,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="str">
-        <v>BELMESMAR</v>
+        <v>ALIAT</v>
       </c>
       <c r="C17" t="str">
-        <v>REBIHA</v>
+        <v>MOHAMED SGHIR</v>
       </c>
       <c r="D17" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E17" t="str">
-        <v>01/01/1967</v>
+        <v>22/09/1984</v>
       </c>
       <c r="F17" t="str">
         <v/>
@@ -1565,49 +1565,49 @@
         <v/>
       </c>
       <c r="I17" t="str">
-        <v>11</v>
+        <v>798</v>
       </c>
       <c r="J17" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K17" t="str">
+        <v>LAICHE</v>
+      </c>
+      <c r="L17" t="str">
+        <v>KADI</v>
+      </c>
+      <c r="M17" t="str">
+        <v>MALIKA</v>
+      </c>
+      <c r="N17" t="str">
+        <v>GUENOUA</v>
+      </c>
+      <c r="O17" t="str">
+        <v>FOUZIA</v>
+      </c>
+      <c r="P17" t="str">
+        <v>04/05/1995</v>
+      </c>
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <v>372</v>
+      </c>
+      <c r="U17" t="str">
         <v>MOHAMMED</v>
       </c>
-      <c r="L17" t="str">
-        <v>BENGUCHOUCHE</v>
-      </c>
-      <c r="M17" t="str">
-        <v>MEBARKA</v>
-      </c>
-      <c r="N17" t="str">
-        <v>ROAS</v>
-      </c>
-      <c r="O17" t="str">
-        <v>MOHAMMED</v>
-      </c>
-      <c r="P17" t="str">
-        <v>01/01 1958</v>
-      </c>
-      <c r="Q17" t="str">
-        <v/>
-      </c>
-      <c r="R17" t="str">
-        <v>TAIBET</v>
-      </c>
-      <c r="S17" t="str">
-        <v/>
-      </c>
-      <c r="T17" t="str">
-        <v>/////</v>
-      </c>
-      <c r="U17" t="str">
-        <v>AHMED</v>
-      </c>
       <c r="V17" t="str">
-        <v>ROAS</v>
+        <v>DOUH</v>
       </c>
       <c r="W17" t="str">
-        <v>AICHE</v>
+        <v>FATIHA</v>
       </c>
     </row>
     <row r="18">
@@ -1615,16 +1615,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="str">
-        <v>BEN AZZA</v>
+        <v>TOUAHAR</v>
       </c>
       <c r="C18" t="str">
-        <v>ABDELBAST</v>
+        <v>ABDERREZZAK</v>
       </c>
       <c r="D18" t="str">
         <v>M</v>
       </c>
       <c r="E18" t="str">
-        <v>26/10/1978</v>
+        <v>01/01/1984</v>
       </c>
       <c r="F18" t="str">
         <v/>
@@ -1636,49 +1636,49 @@
         <v/>
       </c>
       <c r="I18" t="str">
-        <v>651</v>
+        <v>55</v>
       </c>
       <c r="J18" t="str">
-        <v>M</v>
+        <v>C</v>
       </c>
       <c r="K18" t="str">
-        <v>ALI</v>
+        <v>BACHIR</v>
       </c>
       <c r="L18" t="str">
-        <v>GEUMOULI</v>
+        <v>NOGUETI</v>
       </c>
       <c r="M18" t="str">
-        <v>SALMA</v>
+        <v>NEDJMA</v>
       </c>
       <c r="N18" t="str">
-        <v>DOKMA</v>
+        <v/>
       </c>
       <c r="O18" t="str">
-        <v>MERIEM</v>
+        <v/>
       </c>
       <c r="P18" t="str">
-        <v>24/06/1989</v>
+        <v/>
       </c>
       <c r="Q18" t="str">
         <v/>
       </c>
       <c r="R18" t="str">
-        <v>TAIBET</v>
+        <v/>
       </c>
       <c r="S18" t="str">
         <v/>
       </c>
       <c r="T18" t="str">
-        <v>310</v>
+        <v/>
       </c>
       <c r="U18" t="str">
-        <v>MOHAMED LAKHDAR</v>
+        <v/>
       </c>
       <c r="V18" t="str">
-        <v>GAABI</v>
+        <v/>
       </c>
       <c r="W18" t="str">
-        <v>DJEMAA</v>
+        <v/>
       </c>
     </row>
     <row r="19">
@@ -1686,49 +1686,49 @@
         <v>1</v>
       </c>
       <c r="B19" t="str">
-        <v>BENADDA</v>
+        <v>BELMESMAR</v>
       </c>
       <c r="C19" t="str">
-        <v>KHALIFA</v>
+        <v>REBIHA</v>
       </c>
       <c r="D19" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E19" t="str">
-        <v>08/11/1982</v>
+        <v>01/01/1967</v>
       </c>
       <c r="F19" t="str">
         <v/>
       </c>
       <c r="G19" t="str">
-        <v>TOUGGOURT</v>
+        <v>TAIBET</v>
       </c>
       <c r="H19" t="str">
         <v/>
       </c>
       <c r="I19" t="str">
-        <v>792</v>
+        <v>11</v>
       </c>
       <c r="J19" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K19" t="str">
-        <v>MILOUD</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="L19" t="str">
-        <v>RABEHI</v>
+        <v>BENGUCHOUCHE</v>
       </c>
       <c r="M19" t="str">
         <v>MEBARKA</v>
       </c>
       <c r="N19" t="str">
-        <v>MAMMERI</v>
+        <v>ROAS</v>
       </c>
       <c r="O19" t="str">
-        <v>AMINA</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="P19" t="str">
-        <v>25/04/1992</v>
+        <v>01/01 1958</v>
       </c>
       <c r="Q19" t="str">
         <v/>
@@ -1740,87 +1740,87 @@
         <v/>
       </c>
       <c r="T19" t="str">
-        <v>139</v>
+        <v>/////</v>
       </c>
       <c r="U19" t="str">
-        <v>MESSAOUD</v>
+        <v>AHMED</v>
       </c>
       <c r="V19" t="str">
-        <v>MAMMERI</v>
+        <v>ROAS</v>
       </c>
       <c r="W19" t="str">
-        <v>FATMA</v>
+        <v>AICHE</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="str">
-        <v>BENAOUN</v>
+        <v>AMMARI</v>
       </c>
       <c r="C20" t="str">
+        <v>ZOHRA</v>
+      </c>
+      <c r="D20" t="str">
+        <v>F</v>
+      </c>
+      <c r="E20" t="str">
+        <v>25/12/1947</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v>3674</v>
+      </c>
+      <c r="J20" t="str">
+        <v>V</v>
+      </c>
+      <c r="K20" t="str">
+        <v>TIDJANI</v>
+      </c>
+      <c r="L20" t="str">
+        <v>TALBI</v>
+      </c>
+      <c r="M20" t="str">
+        <v>HALIMA</v>
+      </c>
+      <c r="N20" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="O20" t="str">
         <v>DJEMOI</v>
       </c>
-      <c r="D20" t="str">
-        <v>M</v>
-      </c>
-      <c r="E20" t="str">
-        <v>01/01/1976</v>
-      </c>
-      <c r="F20" t="str">
-        <v/>
-      </c>
-      <c r="G20" t="str">
-        <v>TAIBET</v>
-      </c>
-      <c r="H20" t="str">
-        <v/>
-      </c>
-      <c r="I20" t="str">
-        <v>560</v>
-      </c>
-      <c r="J20" t="str">
-        <v>M</v>
-      </c>
-      <c r="K20" t="str">
-        <v>LAID</v>
-      </c>
-      <c r="L20" t="str">
-        <v>DRIDI</v>
-      </c>
-      <c r="M20" t="str">
-        <v>MEBROUKA</v>
-      </c>
-      <c r="N20" t="str">
-        <v>GHEBACHE</v>
-      </c>
-      <c r="O20" t="str">
-        <v>ZOULIKHA</v>
-      </c>
       <c r="P20" t="str">
-        <v>19/10/1985</v>
+        <v>01/01/1937</v>
       </c>
       <c r="Q20" t="str">
         <v/>
       </c>
       <c r="R20" t="str">
-        <v>BENNACEUR</v>
+        <v>TAIBET</v>
       </c>
       <c r="S20" t="str">
         <v/>
       </c>
       <c r="T20" t="str">
-        <v>230</v>
+        <v>494</v>
       </c>
       <c r="U20" t="str">
-        <v>BACHIR</v>
+        <v>ALI</v>
       </c>
       <c r="V20" t="str">
-        <v>GHEBACHE</v>
+        <v>ATBI</v>
       </c>
       <c r="W20" t="str">
-        <v>SOUAD</v>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="21">
@@ -1828,16 +1828,16 @@
         <v>1</v>
       </c>
       <c r="B21" t="str">
-        <v>BECHOUA</v>
+        <v>CHINE</v>
       </c>
       <c r="C21" t="str">
-        <v>ABDALLAH</v>
+        <v>SAID</v>
       </c>
       <c r="D21" t="str">
         <v>M</v>
       </c>
       <c r="E21" t="str">
-        <v>01/01/1978</v>
+        <v>19/02/1975</v>
       </c>
       <c r="F21" t="str">
         <v/>
@@ -1849,49 +1849,49 @@
         <v/>
       </c>
       <c r="I21" t="str">
-        <v>387</v>
+        <v>69</v>
       </c>
       <c r="J21" t="str">
         <v>M</v>
       </c>
       <c r="K21" t="str">
-        <v>MAMMAR</v>
+        <v>LAICHE</v>
       </c>
       <c r="L21" t="str">
-        <v>BECHOUA</v>
+        <v>KHALFAOUI</v>
       </c>
       <c r="M21" t="str">
-        <v>KHEDIDJA</v>
+        <v>ZAHRA</v>
       </c>
       <c r="N21" t="str">
-        <v>BENSADIA</v>
+        <v>BELMESSAOUD</v>
       </c>
       <c r="O21" t="str">
-        <v>SOUAD</v>
+        <v>MABROUKA</v>
       </c>
       <c r="P21" t="str">
-        <v>01/01/1991</v>
+        <v>11/10/1980</v>
       </c>
       <c r="Q21" t="str">
         <v/>
       </c>
       <c r="R21" t="str">
-        <v>TAIBET</v>
+        <v>ROBAH - ELOUED</v>
       </c>
       <c r="S21" t="str">
         <v/>
       </c>
       <c r="T21" t="str">
-        <v>357</v>
+        <v>821</v>
       </c>
       <c r="U21" t="str">
-        <v>BACHIR</v>
+        <v>BERIK</v>
       </c>
       <c r="V21" t="str">
-        <v>BEKKARI</v>
+        <v>BELMESSAOUD</v>
       </c>
       <c r="W21" t="str">
-        <v>MESSAOUDA</v>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="22">
@@ -1899,16 +1899,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="str">
-        <v>BEDDIAF</v>
+        <v>BELMESMAR</v>
       </c>
       <c r="C22" t="str">
-        <v>SLIMANE</v>
+        <v>FOUZIA</v>
       </c>
       <c r="D22" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E22" t="str">
-        <v>01/01/1950</v>
+        <v>01/01/1977</v>
       </c>
       <c r="F22" t="str">
         <v/>
@@ -1920,49 +1920,49 @@
         <v/>
       </c>
       <c r="I22" t="str">
-        <v>2480</v>
+        <v>175</v>
       </c>
       <c r="J22" t="str">
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="K22" t="str">
-        <v>HAMMA</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="L22" t="str">
-        <v>BEDDIAF</v>
+        <v>AMMARI</v>
       </c>
       <c r="M22" t="str">
-        <v>ZOHRA</v>
+        <v>KHEDIDJA</v>
       </c>
       <c r="N22" t="str">
-        <v>BELMOSTEFA</v>
+        <v/>
       </c>
       <c r="O22" t="str">
-        <v>HALIMA</v>
+        <v/>
       </c>
       <c r="P22" t="str">
-        <v>12/04/1958</v>
+        <v/>
       </c>
       <c r="Q22" t="str">
         <v/>
       </c>
       <c r="R22" t="str">
-        <v>TAIBET</v>
+        <v/>
       </c>
       <c r="S22" t="str">
         <v/>
       </c>
       <c r="T22" t="str">
-        <v>972</v>
+        <v/>
       </c>
       <c r="U22" t="str">
-        <v>AHMED</v>
+        <v/>
       </c>
       <c r="V22" t="str">
-        <v>SAOUD</v>
+        <v/>
       </c>
       <c r="W22" t="str">
-        <v>MEBROUKA</v>
+        <v/>
       </c>
     </row>
     <row r="23">
@@ -1970,16 +1970,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="str">
-        <v>BENKHIRA</v>
+        <v>BEKKARI</v>
       </c>
       <c r="C23" t="str">
-        <v>AHMED</v>
+        <v>SABAH</v>
       </c>
       <c r="D23" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E23" t="str">
-        <v>29/01/1978</v>
+        <v>08/10/1982</v>
       </c>
       <c r="F23" t="str">
         <v/>
@@ -1991,49 +1991,49 @@
         <v/>
       </c>
       <c r="I23" t="str">
-        <v/>
+        <v>799</v>
       </c>
       <c r="J23" t="str">
-        <v>M</v>
+        <v>C</v>
       </c>
       <c r="K23" t="str">
-        <v>TAHAR</v>
+        <v>TIDJANI</v>
       </c>
       <c r="L23" t="str">
-        <v>BENKHIRA</v>
+        <v>BEKKARI</v>
       </c>
       <c r="M23" t="str">
-        <v>MERIEM</v>
+        <v>ZOHRA</v>
       </c>
       <c r="N23" t="str">
-        <v xml:space="preserve">BENKHIRA </v>
+        <v/>
       </c>
       <c r="O23" t="str">
-        <v>AMRIA</v>
+        <v/>
       </c>
       <c r="P23" t="str">
-        <v>08/06/1980</v>
+        <v/>
       </c>
       <c r="Q23" t="str">
         <v/>
       </c>
       <c r="R23" t="str">
-        <v>TAIBET</v>
+        <v/>
       </c>
       <c r="S23" t="str">
         <v/>
       </c>
       <c r="T23" t="str">
-        <v>404</v>
+        <v/>
       </c>
       <c r="U23" t="str">
-        <v>MOHAMMED LAKHDAR</v>
+        <v/>
       </c>
       <c r="V23" t="str">
-        <v xml:space="preserve">REZEG HABLA </v>
+        <v/>
       </c>
       <c r="W23" t="str">
-        <v>SAFIA</v>
+        <v/>
       </c>
     </row>
     <row r="24">
@@ -2041,16 +2041,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="str">
-        <v>BERROUTI</v>
+        <v>ALIAT</v>
       </c>
       <c r="C24" t="str">
-        <v>MOHAMMED LAID</v>
+        <v>LAICHE</v>
       </c>
       <c r="D24" t="str">
         <v>M</v>
       </c>
       <c r="E24" t="str">
-        <v>13/12/1975</v>
+        <v>22/02/1971</v>
       </c>
       <c r="F24" t="str">
         <v/>
@@ -2062,49 +2062,49 @@
         <v/>
       </c>
       <c r="I24" t="str">
-        <v>726</v>
+        <v>68</v>
       </c>
       <c r="J24" t="str">
         <v>M</v>
       </c>
       <c r="K24" t="str">
-        <v>TIDJANI</v>
+        <v>MESSAOUD</v>
       </c>
       <c r="L24" t="str">
-        <v>BERROUTI</v>
+        <v>BELADJAL</v>
       </c>
       <c r="M24" t="str">
-        <v>ZOUBIDA</v>
+        <v>MEBROUKA</v>
       </c>
       <c r="N24" t="str">
-        <v>ZAROUANA</v>
+        <v>ALIAT</v>
       </c>
       <c r="O24" t="str">
-        <v>MERYEM</v>
+        <v>FARIDA</v>
       </c>
       <c r="P24" t="str">
-        <v>19/03/1984</v>
+        <v>01/01/1970</v>
       </c>
       <c r="Q24" t="str">
         <v/>
       </c>
       <c r="R24" t="str">
-        <v>NEGRINE-TEBESSA</v>
+        <v>ELOUED</v>
       </c>
       <c r="S24" t="str">
         <v/>
       </c>
       <c r="T24" t="str">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U24" t="str">
-        <v>ABDELLATIF</v>
+        <v>LARBI</v>
       </c>
       <c r="V24" t="str">
-        <v>MEBAREK</v>
+        <v>BELADJAL</v>
       </c>
       <c r="W24" t="str">
-        <v>YAMINA</v>
+        <v>OUMELKHIR</v>
       </c>
     </row>
     <row r="25">
@@ -2112,16 +2112,16 @@
         <v>1</v>
       </c>
       <c r="B25" t="str">
-        <v>AMMARI</v>
+        <v>ALIAT</v>
       </c>
       <c r="C25" t="str">
-        <v>ZOHRA</v>
+        <v>SAYAH</v>
       </c>
       <c r="D25" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E25" t="str">
-        <v>25/12/1947</v>
+        <v>01/01/1977</v>
       </c>
       <c r="F25" t="str">
         <v/>
@@ -2133,49 +2133,49 @@
         <v/>
       </c>
       <c r="I25" t="str">
-        <v>3674</v>
+        <v>660</v>
       </c>
       <c r="J25" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K25" t="str">
-        <v>TIDJANI</v>
+        <v>MAMMAR</v>
       </c>
       <c r="L25" t="str">
-        <v>TALBI</v>
+        <v>MOUSSAOUI</v>
       </c>
       <c r="M25" t="str">
-        <v>HALIMA</v>
+        <v>MERIEM</v>
       </c>
       <c r="N25" t="str">
-        <v>AMMARI</v>
+        <v>ALIAT</v>
       </c>
       <c r="O25" t="str">
-        <v>DJEMOI</v>
+        <v>HAYAT</v>
       </c>
       <c r="P25" t="str">
-        <v>01/01/1937</v>
+        <v>24/11/1983</v>
       </c>
       <c r="Q25" t="str">
         <v/>
       </c>
       <c r="R25" t="str">
-        <v>TAIBET</v>
+        <v>TOUGGOURT</v>
       </c>
       <c r="S25" t="str">
         <v/>
       </c>
       <c r="T25" t="str">
-        <v>494</v>
+        <v>158</v>
       </c>
       <c r="U25" t="str">
-        <v>ALI</v>
+        <v>MESSAOUD</v>
       </c>
       <c r="V25" t="str">
-        <v>ATBI</v>
+        <v>SERRAYE</v>
       </c>
       <c r="W25" t="str">
-        <v>FATMA</v>
+        <v>NEDJEMA</v>
       </c>
     </row>
     <row r="26">
@@ -2183,49 +2183,49 @@
         <v>1</v>
       </c>
       <c r="B26" t="str">
-        <v>BENOUMENA</v>
+        <v>AMMARI</v>
       </c>
       <c r="C26" t="str">
+        <v xml:space="preserve">MOHAMMED </v>
+      </c>
+      <c r="D26" t="str">
+        <v>M</v>
+      </c>
+      <c r="E26" t="str">
+        <v>03/10/1985</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v>119</v>
+      </c>
+      <c r="J26" t="str">
+        <v>M</v>
+      </c>
+      <c r="K26" t="str">
+        <v>MESSAOUD</v>
+      </c>
+      <c r="L26" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="M26" t="str">
         <v>SAIDA</v>
       </c>
-      <c r="D26" t="str">
-        <v>F</v>
-      </c>
-      <c r="E26" t="str">
-        <v>07/11/1969</v>
-      </c>
-      <c r="F26" t="str">
-        <v/>
-      </c>
-      <c r="G26" t="str">
-        <v>NEZLA</v>
-      </c>
-      <c r="H26" t="str">
-        <v/>
-      </c>
-      <c r="I26" t="str">
-        <v>2188</v>
-      </c>
-      <c r="J26" t="str">
-        <v>V</v>
-      </c>
-      <c r="K26" t="str">
-        <v>MOHAMMED</v>
-      </c>
-      <c r="L26" t="str">
-        <v>KHIECHA</v>
-      </c>
-      <c r="M26" t="str">
-        <v>FATMA ZOHRA</v>
-      </c>
       <c r="N26" t="str">
-        <v>GOHMES</v>
+        <v>AMMARI</v>
       </c>
       <c r="O26" t="str">
-        <v>MEBROUK</v>
+        <v>NOURA</v>
       </c>
       <c r="P26" t="str">
-        <v>01/01/1926</v>
+        <v>15/03/1990</v>
       </c>
       <c r="Q26" t="str">
         <v/>
@@ -2237,16 +2237,16 @@
         <v/>
       </c>
       <c r="T26" t="str">
-        <v>1598</v>
+        <v>32</v>
       </c>
       <c r="U26" t="str">
-        <v>AHMED</v>
+        <v>TIDJANI</v>
       </c>
       <c r="V26" t="str">
-        <v>GOHMES</v>
+        <v>AMMARI</v>
       </c>
       <c r="W26" t="str">
-        <v>MESSAOUDA</v>
+        <v>YAMINA</v>
       </c>
     </row>
     <row r="27">
@@ -2254,70 +2254,70 @@
         <v>1</v>
       </c>
       <c r="B27" t="str">
-        <v>BERROUK</v>
+        <v>BECHOUA</v>
       </c>
       <c r="C27" t="str">
-        <v>RIDA</v>
+        <v>ABDALLAH</v>
       </c>
       <c r="D27" t="str">
         <v>M</v>
       </c>
       <c r="E27" t="str">
-        <v>17/04/1987</v>
+        <v>01/01/1978</v>
       </c>
       <c r="F27" t="str">
         <v/>
       </c>
       <c r="G27" t="str">
-        <v>NEZLA</v>
+        <v>TAIBET</v>
       </c>
       <c r="H27" t="str">
         <v/>
       </c>
       <c r="I27" t="str">
-        <v>259</v>
+        <v>387</v>
       </c>
       <c r="J27" t="str">
         <v>M</v>
       </c>
       <c r="K27" t="str">
-        <v>ABDELLAH</v>
+        <v>MAMMAR</v>
       </c>
       <c r="L27" t="str">
-        <v>BEN DAOUIA</v>
+        <v>BECHOUA</v>
       </c>
       <c r="M27" t="str">
-        <v>ZINEB</v>
+        <v>KHEDIDJA</v>
       </c>
       <c r="N27" t="str">
-        <v>BOUBERRAS</v>
+        <v>BENSADIA</v>
       </c>
       <c r="O27" t="str">
-        <v>FATIMA</v>
+        <v>SOUAD</v>
       </c>
       <c r="P27" t="str">
-        <v>09/12/1989</v>
+        <v>01/01/1991</v>
       </c>
       <c r="Q27" t="str">
         <v/>
       </c>
       <c r="R27" t="str">
-        <v>ELKHADARIA BOUIRA</v>
+        <v>TAIBET</v>
       </c>
       <c r="S27" t="str">
         <v/>
       </c>
       <c r="T27" t="str">
-        <v>2811</v>
+        <v>357</v>
       </c>
       <c r="U27" t="str">
-        <v>AHMED</v>
+        <v>BACHIR</v>
       </c>
       <c r="V27" t="str">
-        <v>HADJ MIMOUNE</v>
+        <v>BEKKARI</v>
       </c>
       <c r="W27" t="str">
-        <v>RACHIDA</v>
+        <v>MESSAOUDA</v>
       </c>
     </row>
     <row r="28">
@@ -2325,70 +2325,70 @@
         <v>1</v>
       </c>
       <c r="B28" t="str">
-        <v>CHETIOUI</v>
+        <v>BEDDIAF</v>
       </c>
       <c r="C28" t="str">
-        <v>NADJAH</v>
+        <v>SLIMANE</v>
       </c>
       <c r="D28" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E28" t="str">
-        <v>28/09/1986</v>
+        <v>01/01/1950</v>
       </c>
       <c r="F28" t="str">
         <v/>
       </c>
       <c r="G28" t="str">
-        <v xml:space="preserve">TEBESBEST </v>
+        <v>TAIBET</v>
       </c>
       <c r="H28" t="str">
         <v/>
       </c>
       <c r="I28" t="str">
-        <v>213</v>
+        <v>2480</v>
       </c>
       <c r="J28" t="str">
-        <v>D</v>
+        <v>M</v>
       </c>
       <c r="K28" t="str">
-        <v>MOHAMMED</v>
+        <v>HAMMA</v>
       </c>
       <c r="L28" t="str">
-        <v>AMMARI</v>
+        <v>BEDDIAF</v>
       </c>
       <c r="M28" t="str">
-        <v>AICHA</v>
+        <v>ZOHRA</v>
       </c>
       <c r="N28" t="str">
-        <v/>
+        <v>BELMOSTEFA</v>
       </c>
       <c r="O28" t="str">
-        <v/>
+        <v>HALIMA</v>
       </c>
       <c r="P28" t="str">
-        <v/>
+        <v>12/04/1958</v>
       </c>
       <c r="Q28" t="str">
         <v/>
       </c>
       <c r="R28" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S28" t="str">
         <v/>
       </c>
       <c r="T28" t="str">
-        <v/>
+        <v>972</v>
       </c>
       <c r="U28" t="str">
-        <v/>
+        <v>AHMED</v>
       </c>
       <c r="V28" t="str">
-        <v/>
+        <v>SAOUD</v>
       </c>
       <c r="W28" t="str">
-        <v/>
+        <v>MEBROUKA</v>
       </c>
     </row>
     <row r="29">
@@ -2396,70 +2396,70 @@
         <v>1</v>
       </c>
       <c r="B29" t="str">
-        <v>DJEDIAI</v>
+        <v>BEKKARI</v>
       </c>
       <c r="C29" t="str">
-        <v>SOUAD</v>
+        <v>MOHAMMED DJEMOI</v>
       </c>
       <c r="D29" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E29" t="str">
-        <v>03/03/1972</v>
+        <v>01/01/1979</v>
       </c>
       <c r="F29" t="str">
         <v/>
       </c>
       <c r="G29" t="str">
-        <v>ELHAMADIN39</v>
+        <v>TAIBET</v>
       </c>
       <c r="H29" t="str">
         <v/>
       </c>
       <c r="I29" t="str">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="J29" t="str">
-        <v>D</v>
+        <v>M</v>
       </c>
       <c r="K29" t="str">
-        <v>MOHAMED LAID</v>
+        <v>LAICHE</v>
       </c>
       <c r="L29" t="str">
-        <v>LAMOUCHI</v>
+        <v>LAHZIEL</v>
       </c>
       <c r="M29" t="str">
-        <v>HAKKA</v>
+        <v>MESSAOUDA</v>
       </c>
       <c r="N29" t="str">
-        <v/>
+        <v>LAHZIEL</v>
       </c>
       <c r="O29" t="str">
-        <v/>
+        <v>SAFIA</v>
       </c>
       <c r="P29" t="str">
-        <v/>
+        <v>21/01/1991</v>
       </c>
       <c r="Q29" t="str">
         <v/>
       </c>
       <c r="R29" t="str">
-        <v/>
+        <v>TAIBET</v>
       </c>
       <c r="S29" t="str">
         <v/>
       </c>
       <c r="T29" t="str">
-        <v/>
+        <v>10</v>
       </c>
       <c r="U29" t="str">
-        <v/>
+        <v>MOHAMMED</v>
       </c>
       <c r="V29" t="str">
-        <v/>
+        <v>MESMARI</v>
       </c>
       <c r="W29" t="str">
-        <v/>
+        <v>MEBROUKA</v>
       </c>
     </row>
     <row r="30">
@@ -2467,16 +2467,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="str">
-        <v>BOUGOSSA</v>
+        <v>BEN AZZA</v>
       </c>
       <c r="C30" t="str">
-        <v>NACIRA</v>
+        <v>ABDELBAST</v>
       </c>
       <c r="D30" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E30" t="str">
-        <v>01/01/1973</v>
+        <v>26/10/1978</v>
       </c>
       <c r="F30" t="str">
         <v/>
@@ -2488,28 +2488,28 @@
         <v/>
       </c>
       <c r="I30" t="str">
-        <v>185</v>
+        <v>651</v>
       </c>
       <c r="J30" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K30" t="str">
-        <v>LAKHDAR</v>
+        <v>ALI</v>
       </c>
       <c r="L30" t="str">
-        <v>MERAD</v>
+        <v>GEUMOULI</v>
       </c>
       <c r="M30" t="str">
-        <v>DAOUIA</v>
+        <v>SALMA</v>
       </c>
       <c r="N30" t="str">
-        <v>LEBBOUZ</v>
+        <v>DOKMA</v>
       </c>
       <c r="O30" t="str">
-        <v>ISMAIL</v>
+        <v>MERIEM</v>
       </c>
       <c r="P30" t="str">
-        <v>07/11/1966</v>
+        <v>24/06/1989</v>
       </c>
       <c r="Q30" t="str">
         <v/>
@@ -2521,16 +2521,16 @@
         <v/>
       </c>
       <c r="T30" t="str">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="U30" t="str">
-        <v>MOHAMMED</v>
+        <v>MOHAMED LAKHDAR</v>
       </c>
       <c r="V30" t="str">
-        <v>ARIF</v>
+        <v>GAABI</v>
       </c>
       <c r="W30" t="str">
-        <v>FATMA</v>
+        <v>DJEMAA</v>
       </c>
     </row>
     <row r="31">
@@ -2538,16 +2538,16 @@
         <v>1</v>
       </c>
       <c r="B31" t="str">
-        <v>CHETIOUI</v>
+        <v>AMMARI</v>
       </c>
       <c r="C31" t="str">
-        <v>KAMEL</v>
+        <v>ZOHRA</v>
       </c>
       <c r="D31" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E31" t="str">
-        <v>14/07/1979</v>
+        <v>25/12/1947</v>
       </c>
       <c r="F31" t="str">
         <v/>
@@ -2559,49 +2559,49 @@
         <v/>
       </c>
       <c r="I31" t="str">
-        <v>442</v>
+        <v>3674</v>
       </c>
       <c r="J31" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K31" t="str">
-        <v xml:space="preserve">MOHAMMED   </v>
+        <v>TIDJANI</v>
       </c>
       <c r="L31" t="str">
+        <v>TALBI</v>
+      </c>
+      <c r="M31" t="str">
+        <v>HALIMA</v>
+      </c>
+      <c r="N31" t="str">
         <v>AMMARI</v>
       </c>
-      <c r="M31" t="str">
-        <v>AICHA</v>
-      </c>
-      <c r="N31" t="str">
-        <v>BESSACI</v>
-      </c>
       <c r="O31" t="str">
-        <v>KHIRA</v>
+        <v>DJEMOI</v>
       </c>
       <c r="P31" t="str">
-        <v>01/06/1987</v>
+        <v>01/01/1937</v>
       </c>
       <c r="Q31" t="str">
         <v/>
       </c>
       <c r="R31" t="str">
-        <v>ELALIA</v>
+        <v>TAIBET</v>
       </c>
       <c r="S31" t="str">
         <v/>
       </c>
       <c r="T31" t="str">
-        <v>118</v>
+        <v>494</v>
       </c>
       <c r="U31" t="str">
-        <v>AHMED</v>
+        <v>ALI</v>
       </c>
       <c r="V31" t="str">
-        <v>BESSACI</v>
+        <v>ATBI</v>
       </c>
       <c r="W31" t="str">
-        <v>DJAMILA</v>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="32">
@@ -2609,70 +2609,70 @@
         <v>1</v>
       </c>
       <c r="B32" t="str">
-        <v>BACHI</v>
+        <v>DJEDIAI</v>
       </c>
       <c r="C32" t="str">
-        <v>ZOHRA</v>
+        <v>SAIDA</v>
       </c>
       <c r="D32" t="str">
         <v>F</v>
       </c>
       <c r="E32" t="str">
-        <v>01/01/1962</v>
+        <v>01/01/1966</v>
       </c>
       <c r="F32" t="str">
         <v/>
       </c>
       <c r="G32" t="str">
-        <v>TAIBET</v>
+        <v>M'NAGUER</v>
       </c>
       <c r="H32" t="str">
         <v/>
       </c>
       <c r="I32" t="str">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="J32" t="str">
         <v>V</v>
       </c>
       <c r="K32" t="str">
-        <v>MESSAOUD</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="L32" t="str">
-        <v>RABEHI</v>
+        <v>MERKHOUFI</v>
       </c>
       <c r="M32" t="str">
-        <v>MESSAOUDA</v>
+        <v>ZOHRA</v>
       </c>
       <c r="N32" t="str">
-        <v>ZEGAOU</v>
+        <v>KOUIDRI</v>
       </c>
       <c r="O32" t="str">
-        <v>AMMAR</v>
+        <v>SAID</v>
       </c>
       <c r="P32" t="str">
-        <v>01/01/1952</v>
+        <v>22/09/1962</v>
       </c>
       <c r="Q32" t="str">
         <v/>
       </c>
       <c r="R32" t="str">
-        <v>TAIBET</v>
+        <v>BEN ASOUED</v>
       </c>
       <c r="S32" t="str">
         <v/>
       </c>
       <c r="T32" t="str">
-        <v>391</v>
+        <v/>
       </c>
       <c r="U32" t="str">
-        <v>MOHAMMED</v>
+        <v>LAKHDAR</v>
       </c>
       <c r="V32" t="str">
-        <v>BOUGOSSA</v>
+        <v>SEKHER</v>
       </c>
       <c r="W32" t="str">
-        <v>FATMA</v>
+        <v>HANIA</v>
       </c>
     </row>
     <row r="33">
@@ -2680,49 +2680,49 @@
         <v>1</v>
       </c>
       <c r="B33" t="str">
-        <v>CHINE</v>
+        <v>BENKHIRA</v>
       </c>
       <c r="C33" t="str">
-        <v>CHOUIKHA</v>
+        <v>AHMED</v>
       </c>
       <c r="D33" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E33" t="str">
-        <v>17/01/1957</v>
+        <v>29/01/1978</v>
       </c>
       <c r="F33" t="str">
         <v/>
       </c>
       <c r="G33" t="str">
-        <v>NEZLA</v>
+        <v>TAIBET</v>
       </c>
       <c r="H33" t="str">
         <v/>
       </c>
       <c r="I33" t="str">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="J33" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K33" t="str">
-        <v>AHMED</v>
+        <v>TAHAR</v>
       </c>
       <c r="L33" t="str">
-        <v>DJEBBAS</v>
+        <v>BENKHIRA</v>
       </c>
       <c r="M33" t="str">
-        <v>FATMA</v>
+        <v>MERIEM</v>
       </c>
       <c r="N33" t="str">
-        <v>DIDA</v>
+        <v xml:space="preserve">BENKHIRA </v>
       </c>
       <c r="O33" t="str">
-        <v>AHMED</v>
+        <v>AMRIA</v>
       </c>
       <c r="P33" t="str">
-        <v>01/01/1935</v>
+        <v>08/06/1980</v>
       </c>
       <c r="Q33" t="str">
         <v/>
@@ -2734,16 +2734,16 @@
         <v/>
       </c>
       <c r="T33" t="str">
-        <v>2089</v>
+        <v>404</v>
       </c>
       <c r="U33" t="str">
-        <v>LARBI</v>
+        <v>MOHAMMED LAKHDAR</v>
       </c>
       <c r="V33" t="str">
-        <v>ABID</v>
+        <v xml:space="preserve">REZEG HABLA </v>
       </c>
       <c r="W33" t="str">
-        <v>SALMA</v>
+        <v>SAFIA</v>
       </c>
     </row>
     <row r="34">
@@ -2751,70 +2751,70 @@
         <v>1</v>
       </c>
       <c r="B34" t="str">
-        <v>CHINE</v>
+        <v>BERROUK</v>
       </c>
       <c r="C34" t="str">
-        <v>SAID</v>
+        <v>RIDA</v>
       </c>
       <c r="D34" t="str">
         <v>M</v>
       </c>
       <c r="E34" t="str">
-        <v>19/02/1975</v>
+        <v>17/04/1987</v>
       </c>
       <c r="F34" t="str">
         <v/>
       </c>
       <c r="G34" t="str">
-        <v>TAIBET</v>
+        <v>NEZLA</v>
       </c>
       <c r="H34" t="str">
         <v/>
       </c>
       <c r="I34" t="str">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="J34" t="str">
         <v>M</v>
       </c>
       <c r="K34" t="str">
-        <v>LAICHE</v>
+        <v>ABDELLAH</v>
       </c>
       <c r="L34" t="str">
-        <v>KHALFAOUI</v>
+        <v>BEN DAOUIA</v>
       </c>
       <c r="M34" t="str">
-        <v>ZAHRA</v>
+        <v>ZINEB</v>
       </c>
       <c r="N34" t="str">
-        <v>BELMESSAOUD</v>
+        <v>BOUBERRAS</v>
       </c>
       <c r="O34" t="str">
-        <v>MABROUKA</v>
+        <v>FATIMA</v>
       </c>
       <c r="P34" t="str">
-        <v>11/10/1980</v>
+        <v>09/12/1989</v>
       </c>
       <c r="Q34" t="str">
         <v/>
       </c>
       <c r="R34" t="str">
-        <v>ROBAH - ELOUED</v>
+        <v>ELKHADARIA BOUIRA</v>
       </c>
       <c r="S34" t="str">
         <v/>
       </c>
       <c r="T34" t="str">
-        <v>821</v>
+        <v>2811</v>
       </c>
       <c r="U34" t="str">
-        <v>BERIK</v>
+        <v>AHMED</v>
       </c>
       <c r="V34" t="str">
-        <v>BELMESSAOUD</v>
+        <v>HADJ MIMOUNE</v>
       </c>
       <c r="W34" t="str">
-        <v>FATMA</v>
+        <v>RACHIDA</v>
       </c>
     </row>
     <row r="35">
@@ -2822,16 +2822,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="str">
-        <v>DRIDI</v>
+        <v>BERROUTI</v>
       </c>
       <c r="C35" t="str">
-        <v>MOHAMMED</v>
+        <v>MOHAMMED LAID</v>
       </c>
       <c r="D35" t="str">
         <v>M</v>
       </c>
       <c r="E35" t="str">
-        <v>25/03/1987</v>
+        <v>13/12/1975</v>
       </c>
       <c r="F35" t="str">
         <v/>
@@ -2843,49 +2843,49 @@
         <v/>
       </c>
       <c r="I35" t="str">
-        <v>45</v>
+        <v>726</v>
       </c>
       <c r="J35" t="str">
         <v>M</v>
       </c>
       <c r="K35" t="str">
-        <v>LAID</v>
+        <v>TIDJANI</v>
       </c>
       <c r="L35" t="str">
-        <v>DRIDI</v>
+        <v>BERROUTI</v>
       </c>
       <c r="M35" t="str">
-        <v>MERIEM</v>
+        <v>ZOUBIDA</v>
       </c>
       <c r="N35" t="str">
-        <v>DRIDI</v>
+        <v>ZAROUANA</v>
       </c>
       <c r="O35" t="str">
-        <v>DJAMILA</v>
+        <v>MERYEM</v>
       </c>
       <c r="P35" t="str">
-        <v>23/08/1991</v>
+        <v>19/03/1984</v>
       </c>
       <c r="Q35" t="str">
         <v/>
       </c>
       <c r="R35" t="str">
-        <v>TEMACINE</v>
+        <v>NEGRINE-TEBESSA</v>
       </c>
       <c r="S35" t="str">
         <v/>
       </c>
       <c r="T35" t="str">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="U35" t="str">
-        <v>MOHAMMED</v>
+        <v>ABDELLATIF</v>
       </c>
       <c r="V35" t="str">
-        <v>DRIDI</v>
+        <v>MEBAREK</v>
       </c>
       <c r="W35" t="str">
-        <v>MEBROUKA</v>
+        <v>YAMINA</v>
       </c>
     </row>
     <row r="36">
@@ -2893,70 +2893,70 @@
         <v>1</v>
       </c>
       <c r="B36" t="str">
-        <v>GHELANI</v>
+        <v>BOUGOSSA</v>
       </c>
       <c r="C36" t="str">
-        <v xml:space="preserve">MOHAMMED     </v>
+        <v>NACIRA</v>
       </c>
       <c r="D36" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E36" t="str">
-        <v>11/01/1986</v>
+        <v>01/01/1973</v>
       </c>
       <c r="F36" t="str">
         <v/>
       </c>
       <c r="G36" t="str">
-        <v>ANNABA</v>
+        <v>TAIBET</v>
       </c>
       <c r="H36" t="str">
         <v/>
       </c>
       <c r="I36" t="str">
-        <v>379</v>
+        <v>185</v>
       </c>
       <c r="J36" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K36" t="str">
-        <v>MOUSSA</v>
+        <v>LAKHDAR</v>
       </c>
       <c r="L36" t="str">
-        <v>GHELANI</v>
+        <v>MERAD</v>
       </c>
       <c r="M36" t="str">
-        <v>ZOHRA</v>
+        <v>DAOUIA</v>
       </c>
       <c r="N36" t="str">
-        <v>HAFRI</v>
+        <v>LEBBOUZ</v>
       </c>
       <c r="O36" t="str">
-        <v>NADJAT</v>
+        <v>ISMAIL</v>
       </c>
       <c r="P36" t="str">
-        <v>04/02/1988</v>
+        <v>07/11/1966</v>
       </c>
       <c r="Q36" t="str">
         <v/>
       </c>
       <c r="R36" t="str">
-        <v>BENNACEUR</v>
+        <v>TAIBET</v>
       </c>
       <c r="S36" t="str">
         <v/>
       </c>
       <c r="T36" t="str">
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="U36" t="str">
-        <v>AHMED</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="V36" t="str">
-        <v>BOUSAG</v>
+        <v>ARIF</v>
       </c>
       <c r="W36" t="str">
-        <v>NADIRA</v>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="37">
@@ -2964,70 +2964,70 @@
         <v>1</v>
       </c>
       <c r="B37" t="str">
-        <v>KOUTTI</v>
+        <v>CHETIOUI</v>
       </c>
       <c r="C37" t="str">
-        <v>NACER</v>
+        <v>KAMEL</v>
       </c>
       <c r="D37" t="str">
         <v>M</v>
       </c>
       <c r="E37" t="str">
-        <v>22/03/1980</v>
+        <v>14/07/1979</v>
       </c>
       <c r="F37" t="str">
         <v/>
       </c>
       <c r="G37" t="str">
-        <v>MAMAA</v>
+        <v>TAIBET</v>
       </c>
       <c r="H37" t="str">
         <v/>
       </c>
       <c r="I37" t="str">
-        <v>178</v>
+        <v>442</v>
       </c>
       <c r="J37" t="str">
         <v>M</v>
       </c>
       <c r="K37" t="str">
-        <v>SALAH</v>
+        <v xml:space="preserve">MOHAMMED   </v>
       </c>
       <c r="L37" t="str">
-        <v>BOUDOUH</v>
+        <v>AMMARI</v>
       </c>
       <c r="M37" t="str">
-        <v>FATMA</v>
+        <v>AICHA</v>
       </c>
       <c r="N37" t="str">
-        <v>MENZER</v>
+        <v>BESSACI</v>
       </c>
       <c r="O37" t="str">
-        <v>IMANE</v>
+        <v>KHIRA</v>
       </c>
       <c r="P37" t="str">
-        <v>23/02/1993</v>
+        <v>01/06/1987</v>
       </c>
       <c r="Q37" t="str">
         <v/>
       </c>
       <c r="R37" t="str">
-        <v>MMDER BATNA</v>
+        <v>ELALIA</v>
       </c>
       <c r="S37" t="str">
         <v/>
       </c>
       <c r="T37" t="str">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="U37" t="str">
-        <v>ABDELMADJID</v>
+        <v>AHMED</v>
       </c>
       <c r="V37" t="str">
-        <v>ZEOUAOUI</v>
+        <v>BESSACI</v>
       </c>
       <c r="W37" t="str">
-        <v>FATIMA</v>
+        <v>DJAMILA</v>
       </c>
     </row>
     <row r="38">
@@ -3035,49 +3035,49 @@
         <v>1</v>
       </c>
       <c r="B38" t="str">
-        <v>GOHMES</v>
+        <v>CHINE</v>
       </c>
       <c r="C38" t="str">
-        <v>SACIA</v>
+        <v>CHOUIKHA</v>
       </c>
       <c r="D38" t="str">
         <v>F</v>
       </c>
       <c r="E38" t="str">
-        <v>01/01/1968</v>
+        <v>17/01/1957</v>
       </c>
       <c r="F38" t="str">
         <v/>
       </c>
       <c r="G38" t="str">
-        <v>TAIBET</v>
+        <v>NEZLA</v>
       </c>
       <c r="H38" t="str">
         <v/>
       </c>
       <c r="I38" t="str">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="J38" t="str">
         <v>V</v>
       </c>
       <c r="K38" t="str">
-        <v>MEBROUK</v>
+        <v>AHMED</v>
       </c>
       <c r="L38" t="str">
-        <v>LAIBI</v>
+        <v>DJEBBAS</v>
       </c>
       <c r="M38" t="str">
-        <v xml:space="preserve"> BENT SAYAH</v>
+        <v>FATMA</v>
       </c>
       <c r="N38" t="str">
-        <v>BEDDIAF</v>
+        <v>DIDA</v>
       </c>
       <c r="O38" t="str">
-        <v>TIDJANI</v>
+        <v>AHMED</v>
       </c>
       <c r="P38" t="str">
-        <v>01/01/1921</v>
+        <v>01/01/1935</v>
       </c>
       <c r="Q38" t="str">
         <v/>
@@ -3089,16 +3089,16 @@
         <v/>
       </c>
       <c r="T38" t="str">
-        <v>302</v>
+        <v>2089</v>
       </c>
       <c r="U38" t="str">
-        <v>HAMMA</v>
+        <v>LARBI</v>
       </c>
       <c r="V38" t="str">
-        <v>GUEMARI</v>
+        <v>ABID</v>
       </c>
       <c r="W38" t="str">
-        <v>FATMA</v>
+        <v>SALMA</v>
       </c>
     </row>
     <row r="39">
@@ -3106,16 +3106,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="str">
-        <v>GUEMMOULA</v>
+        <v>DRIDI</v>
       </c>
       <c r="C39" t="str">
-        <v>MESSAOUDA</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="D39" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E39" t="str">
-        <v>15/05/1959</v>
+        <v>25/03/1987</v>
       </c>
       <c r="F39" t="str">
         <v/>
@@ -3127,49 +3127,49 @@
         <v/>
       </c>
       <c r="I39" t="str">
-        <v>1508</v>
+        <v>45</v>
       </c>
       <c r="J39" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K39" t="str">
         <v>LAID</v>
       </c>
       <c r="L39" t="str">
-        <v>GUEMMOULA</v>
+        <v>DRIDI</v>
       </c>
       <c r="M39" t="str">
-        <v>SALMA</v>
+        <v>MERIEM</v>
       </c>
       <c r="N39" t="str">
-        <v>ZEGRIR</v>
+        <v>DRIDI</v>
       </c>
       <c r="O39" t="str">
-        <v>MOHAMMED ALI</v>
+        <v>DJAMILA</v>
       </c>
       <c r="P39" t="str">
-        <v>22/10/1948</v>
+        <v>23/08/1991</v>
       </c>
       <c r="Q39" t="str">
         <v/>
       </c>
       <c r="R39" t="str">
-        <v>DJAMAA</v>
+        <v>TEMACINE</v>
       </c>
       <c r="S39" t="str">
         <v/>
       </c>
       <c r="T39" t="str">
-        <v>2439</v>
+        <v>23</v>
       </c>
       <c r="U39" t="str">
-        <v>MAMMAR</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="V39" t="str">
-        <v>GUEMMOULA</v>
+        <v>DRIDI</v>
       </c>
       <c r="W39" t="str">
-        <v>AICHA</v>
+        <v>MEBROUKA</v>
       </c>
     </row>
     <row r="40">
@@ -3177,16 +3177,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="str">
-        <v>BENKHIRA</v>
+        <v>GASMI</v>
       </c>
       <c r="C40" t="str">
-        <v>DJALAL</v>
+        <v>SAID</v>
       </c>
       <c r="D40" t="str">
         <v>M</v>
       </c>
       <c r="E40" t="str">
-        <v>15/01/1984</v>
+        <v>01/01/1983</v>
       </c>
       <c r="F40" t="str">
         <v/>
@@ -3198,49 +3198,49 @@
         <v/>
       </c>
       <c r="I40" t="str">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="J40" t="str">
         <v>M</v>
       </c>
       <c r="K40" t="str">
-        <v>MAHMOUD</v>
+        <v>KHADIR</v>
       </c>
       <c r="L40" t="str">
-        <v>BECHOUA</v>
+        <v>BENSADIA</v>
       </c>
       <c r="M40" t="str">
-        <v>FATMA</v>
+        <v>SADIA</v>
       </c>
       <c r="N40" t="str">
-        <v>KOUIDRI</v>
+        <v>LAHZIEL</v>
       </c>
       <c r="O40" t="str">
-        <v>WAFFA</v>
+        <v>MASSOUDA</v>
       </c>
       <c r="P40" t="str">
-        <v>03/11/1993</v>
+        <v>01/01/1985</v>
       </c>
       <c r="Q40" t="str">
         <v/>
       </c>
       <c r="R40" t="str">
-        <v>TAIBET</v>
+        <v>TEBSBEST</v>
       </c>
       <c r="S40" t="str">
         <v/>
       </c>
       <c r="T40" t="str">
-        <v>596</v>
+        <v>2</v>
       </c>
       <c r="U40" t="str">
-        <v>MOHAMMED LAKHDAR</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="V40" t="str">
-        <v>BENKHIRA</v>
+        <v>SOUD</v>
       </c>
       <c r="W40" t="str">
-        <v>SOUAD</v>
+        <v>FATIMA</v>
       </c>
     </row>
     <row r="41">
@@ -3248,70 +3248,70 @@
         <v>1</v>
       </c>
       <c r="B41" t="str">
-        <v>HANNOUF</v>
+        <v>GOHMES</v>
       </c>
       <c r="C41" t="str">
-        <v>REDOUANE</v>
+        <v>SACIA</v>
       </c>
       <c r="D41" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E41" t="str">
-        <v>26/03/1975</v>
+        <v>01/01/1968</v>
       </c>
       <c r="F41" t="str">
         <v/>
       </c>
       <c r="G41" t="str">
-        <v>TAHIR-DJIDJEL</v>
+        <v>TAIBET</v>
       </c>
       <c r="H41" t="str">
         <v/>
       </c>
       <c r="I41" t="str">
-        <v>362</v>
+        <v>250</v>
       </c>
       <c r="J41" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K41" t="str">
-        <v>ABDELKARIM</v>
+        <v>MEBROUK</v>
       </c>
       <c r="L41" t="str">
-        <v>BEN SABERA</v>
+        <v>LAIBI</v>
       </c>
       <c r="M41" t="str">
-        <v>AKILA</v>
+        <v xml:space="preserve"> BENT SAYAH</v>
       </c>
       <c r="N41" t="str">
-        <v>HADEF</v>
+        <v>BEDDIAF</v>
       </c>
       <c r="O41" t="str">
-        <v>WAFIA</v>
+        <v>TIDJANI</v>
       </c>
       <c r="P41" t="str">
-        <v>11/05/1983</v>
+        <v>01/01/1921</v>
       </c>
       <c r="Q41" t="str">
         <v/>
       </c>
       <c r="R41" t="str">
-        <v>DJIDJEL</v>
+        <v>TAIBET</v>
       </c>
       <c r="S41" t="str">
         <v/>
       </c>
       <c r="T41" t="str">
-        <v>1373</v>
+        <v>302</v>
       </c>
       <c r="U41" t="str">
-        <v>MOULOUD</v>
+        <v>HAMMA</v>
       </c>
       <c r="V41" t="str">
-        <v>BOUIDER</v>
+        <v>GUEMARI</v>
       </c>
       <c r="W41" t="str">
-        <v>AKILA</v>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="42">
@@ -3319,49 +3319,49 @@
         <v>1</v>
       </c>
       <c r="B42" t="str">
-        <v>HASROUF</v>
+        <v>BENOUMENA</v>
       </c>
       <c r="C42" t="str">
-        <v>MOULOUD</v>
+        <v>SAIDA</v>
       </c>
       <c r="D42" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E42" t="str">
-        <v>20/04/1986</v>
+        <v>07/11/1969</v>
       </c>
       <c r="F42" t="str">
         <v/>
       </c>
       <c r="G42" t="str">
-        <v>TAIBET</v>
+        <v>NEZLA</v>
       </c>
       <c r="H42" t="str">
         <v/>
       </c>
       <c r="I42" t="str">
-        <v>125</v>
+        <v>2188</v>
       </c>
       <c r="J42" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K42" t="str">
-        <v>SACI</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="L42" t="str">
-        <v>BELOUADANI</v>
+        <v>KHIECHA</v>
       </c>
       <c r="M42" t="str">
-        <v>HANIA</v>
+        <v>FATMA ZOHRA</v>
       </c>
       <c r="N42" t="str">
-        <v>HAMMADI</v>
+        <v>GOHMES</v>
       </c>
       <c r="O42" t="str">
-        <v>RIM</v>
+        <v>MEBROUK</v>
       </c>
       <c r="P42" t="str">
-        <v>19/01/1992</v>
+        <v>01/01/1926</v>
       </c>
       <c r="Q42" t="str">
         <v/>
@@ -3373,13 +3373,13 @@
         <v/>
       </c>
       <c r="T42" t="str">
-        <v>21</v>
+        <v>1598</v>
       </c>
       <c r="U42" t="str">
         <v>AHMED</v>
       </c>
       <c r="V42" t="str">
-        <v>KHADRAOUI</v>
+        <v>GOHMES</v>
       </c>
       <c r="W42" t="str">
         <v>MESSAOUDA</v>
@@ -3390,70 +3390,70 @@
         <v>1</v>
       </c>
       <c r="B43" t="str">
-        <v>KADDOUR</v>
+        <v>CHETIOUI</v>
       </c>
       <c r="C43" t="str">
-        <v>MAHMOUD</v>
+        <v>NADJAH</v>
       </c>
       <c r="D43" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E43" t="str">
-        <v>16/11/1981</v>
+        <v>28/09/1986</v>
       </c>
       <c r="F43" t="str">
         <v/>
       </c>
       <c r="G43" t="str">
-        <v>GUEMAR</v>
+        <v xml:space="preserve">TEBESBEST </v>
       </c>
       <c r="H43" t="str">
         <v/>
       </c>
       <c r="I43" t="str">
-        <v>1077</v>
+        <v>213</v>
       </c>
       <c r="J43" t="str">
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="K43" t="str">
         <v>MOHAMMED</v>
       </c>
       <c r="L43" t="str">
-        <v>BENAZZA</v>
+        <v>AMMARI</v>
       </c>
       <c r="M43" t="str">
-        <v>MEBARKA</v>
+        <v>AICHA</v>
       </c>
       <c r="N43" t="str">
-        <v>ABID</v>
+        <v/>
       </c>
       <c r="O43" t="str">
-        <v>MESSAOUDA</v>
+        <v/>
       </c>
       <c r="P43" t="str">
-        <v>24/02/1990</v>
+        <v/>
       </c>
       <c r="Q43" t="str">
         <v/>
       </c>
       <c r="R43" t="str">
-        <v>BENNACEUR</v>
+        <v/>
       </c>
       <c r="S43" t="str">
         <v/>
       </c>
       <c r="T43" t="str">
-        <v>45</v>
+        <v/>
       </c>
       <c r="U43" t="str">
-        <v>TAHAR</v>
+        <v/>
       </c>
       <c r="V43" t="str">
-        <v>GUECHAB</v>
+        <v/>
       </c>
       <c r="W43" t="str">
-        <v>DAOUIA</v>
+        <v/>
       </c>
     </row>
     <row r="44">
@@ -3461,16 +3461,16 @@
         <v>1</v>
       </c>
       <c r="B44" t="str">
-        <v>GASMI</v>
+        <v>BACHI</v>
       </c>
       <c r="C44" t="str">
-        <v>SAID</v>
+        <v>ZOHRA</v>
       </c>
       <c r="D44" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E44" t="str">
-        <v>01/01/1983</v>
+        <v>01/01/1962</v>
       </c>
       <c r="F44" t="str">
         <v/>
@@ -3482,49 +3482,49 @@
         <v/>
       </c>
       <c r="I44" t="str">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="J44" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K44" t="str">
-        <v>KHADIR</v>
+        <v>MESSAOUD</v>
       </c>
       <c r="L44" t="str">
-        <v>BENSADIA</v>
+        <v>RABEHI</v>
       </c>
       <c r="M44" t="str">
-        <v>SADIA</v>
+        <v>MESSAOUDA</v>
       </c>
       <c r="N44" t="str">
-        <v>LAHZIEL</v>
+        <v>ZEGAOU</v>
       </c>
       <c r="O44" t="str">
-        <v>MASSOUDA</v>
+        <v>AMMAR</v>
       </c>
       <c r="P44" t="str">
-        <v>01/01/1985</v>
+        <v>01/01/1952</v>
       </c>
       <c r="Q44" t="str">
         <v/>
       </c>
       <c r="R44" t="str">
-        <v>TEBSBEST</v>
+        <v>TAIBET</v>
       </c>
       <c r="S44" t="str">
         <v/>
       </c>
       <c r="T44" t="str">
-        <v>2</v>
+        <v>391</v>
       </c>
       <c r="U44" t="str">
         <v>MOHAMMED</v>
       </c>
       <c r="V44" t="str">
-        <v>SOUD</v>
+        <v>BOUGOSSA</v>
       </c>
       <c r="W44" t="str">
-        <v>FATIMA</v>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="45">
@@ -3532,40 +3532,40 @@
         <v>1</v>
       </c>
       <c r="B45" t="str">
-        <v>GOSSI</v>
+        <v>DJEDIAI</v>
       </c>
       <c r="C45" t="str">
-        <v>MESSAOUDA</v>
+        <v>SOUAD</v>
       </c>
       <c r="D45" t="str">
         <v>F</v>
       </c>
       <c r="E45" t="str">
-        <v>21/06/1983</v>
+        <v>03/03/1972</v>
       </c>
       <c r="F45" t="str">
         <v/>
       </c>
       <c r="G45" t="str">
-        <v>TOUGGOURT</v>
+        <v>ELHAMADIN39</v>
       </c>
       <c r="H45" t="str">
         <v/>
       </c>
       <c r="I45" t="str">
-        <v>83</v>
+        <v>318</v>
       </c>
       <c r="J45" t="str">
         <v>D</v>
       </c>
       <c r="K45" t="str">
-        <v>TAHAR</v>
+        <v>MOHAMED LAID</v>
       </c>
       <c r="L45" t="str">
-        <v>GOSSI</v>
+        <v>LAMOUCHI</v>
       </c>
       <c r="M45" t="str">
-        <v>MEBARKA</v>
+        <v>HAKKA</v>
       </c>
       <c r="N45" t="str">
         <v/>
@@ -3603,70 +3603,70 @@
         <v>1</v>
       </c>
       <c r="B46" t="str">
-        <v>KADI</v>
+        <v>DOKMA</v>
       </c>
       <c r="C46" t="str">
-        <v>NOUREDDINE</v>
+        <v>DJAMEL</v>
       </c>
       <c r="D46" t="str">
         <v>M</v>
       </c>
       <c r="E46" t="str">
-        <v>01/01/1985</v>
+        <v>29/06/1976</v>
       </c>
       <c r="F46" t="str">
         <v/>
       </c>
       <c r="G46" t="str">
-        <v>TAIBET</v>
+        <v>TOUGGOURT</v>
       </c>
       <c r="H46" t="str">
         <v/>
       </c>
       <c r="I46" t="str">
-        <v>22</v>
+        <v>1204</v>
       </c>
       <c r="J46" t="str">
         <v>M</v>
       </c>
       <c r="K46" t="str">
-        <v>MILOUD</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="L46" t="str">
-        <v>SAOUD</v>
+        <v>HAMMADI</v>
       </c>
       <c r="M46" t="str">
-        <v>AICHA</v>
+        <v>ZOHRA</v>
       </c>
       <c r="N46" t="str">
-        <v>DOKMA</v>
+        <v>BOUNEGAB</v>
       </c>
       <c r="O46" t="str">
         <v>HANANE</v>
       </c>
       <c r="P46" t="str">
-        <v>12/01/1987</v>
+        <v>25/04/1993</v>
       </c>
       <c r="Q46" t="str">
         <v/>
       </c>
       <c r="R46" t="str">
-        <v>TAIBET</v>
+        <v>BENNACEUR</v>
       </c>
       <c r="S46" t="str">
         <v/>
       </c>
       <c r="T46" t="str">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="U46" t="str">
-        <v>AHMED</v>
+        <v>MOHAMMED TAHAR</v>
       </c>
       <c r="V46" t="str">
-        <v>KHADRAOUI</v>
+        <v>RAHMANI</v>
       </c>
       <c r="W46" t="str">
-        <v>SALIHA</v>
+        <v>ZOHRA</v>
       </c>
     </row>
     <row r="47">
@@ -3674,70 +3674,70 @@
         <v>1</v>
       </c>
       <c r="B47" t="str">
-        <v>LAOUNI</v>
+        <v>DOUH</v>
       </c>
       <c r="C47" t="str">
-        <v>LAHCEN</v>
+        <v>SOUAD</v>
       </c>
       <c r="D47" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E47" t="str">
-        <v>01/02/1987</v>
+        <v>18/10/1972</v>
       </c>
       <c r="F47" t="str">
         <v/>
       </c>
       <c r="G47" t="str">
-        <v>BENNACER</v>
+        <v>TAIBET</v>
       </c>
       <c r="H47" t="str">
         <v/>
       </c>
       <c r="I47" t="str">
-        <v/>
+        <v>2303</v>
       </c>
       <c r="J47" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K47" t="str">
-        <v>ABEDELHAKEM</v>
+        <v>MAMMAR</v>
       </c>
       <c r="L47" t="str">
-        <v>BEBBOUKHA</v>
+        <v>ARIF</v>
       </c>
       <c r="M47" t="str">
-        <v>AICHA</v>
+        <v>FATMA</v>
       </c>
       <c r="N47" t="str">
-        <v>BEBBOUKHA</v>
+        <v>LEBBOUZ</v>
       </c>
       <c r="O47" t="str">
-        <v>SALMA</v>
+        <v>ISMAIL</v>
       </c>
       <c r="P47" t="str">
-        <v>17/05/1996</v>
+        <v>07/11/1966</v>
       </c>
       <c r="Q47" t="str">
         <v/>
       </c>
       <c r="R47" t="str">
-        <v>DEBDAB</v>
+        <v>TAIBET</v>
       </c>
       <c r="S47" t="str">
         <v/>
       </c>
       <c r="T47" t="str">
-        <v>48</v>
+        <v>288</v>
       </c>
       <c r="U47" t="str">
-        <v>ABDELKADER</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="V47" t="str">
-        <v>HAMAMA</v>
+        <v>ARIF</v>
       </c>
       <c r="W47" t="str">
-        <v>ZOHRA</v>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="48">
@@ -3745,16 +3745,16 @@
         <v>1</v>
       </c>
       <c r="B48" t="str">
-        <v>MANSOURI</v>
+        <v>GHERARA</v>
       </c>
       <c r="C48" t="str">
-        <v>BRAHIM</v>
+        <v>AICHA</v>
       </c>
       <c r="D48" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E48" t="str">
-        <v>01/01/1979</v>
+        <v>31/01/1978</v>
       </c>
       <c r="F48" t="str">
         <v/>
@@ -3766,49 +3766,49 @@
         <v/>
       </c>
       <c r="I48" t="str">
-        <v>336</v>
+        <v>63</v>
       </c>
       <c r="J48" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K48" t="str">
-        <v>MEBROUK</v>
+        <v>LAKHDAR</v>
       </c>
       <c r="L48" t="str">
-        <v>MANSOURI</v>
+        <v>SAOUD</v>
       </c>
       <c r="M48" t="str">
-        <v>FATMA</v>
+        <v>MEBARKA</v>
       </c>
       <c r="N48" t="str">
-        <v>MANSOURI</v>
+        <v>BEYAT</v>
       </c>
       <c r="O48" t="str">
-        <v>FADHILA</v>
+        <v>TAHAR</v>
       </c>
       <c r="P48" t="str">
-        <v>01/01/1984</v>
+        <v>24/02/1951</v>
       </c>
       <c r="Q48" t="str">
         <v/>
       </c>
       <c r="R48" t="str">
-        <v>TAIBET</v>
+        <v>ELOUED</v>
       </c>
       <c r="S48" t="str">
         <v/>
       </c>
       <c r="T48" t="str">
-        <v/>
+        <v>309</v>
       </c>
       <c r="U48" t="str">
-        <v>MOHAMMED</v>
+        <v>LAID</v>
       </c>
       <c r="V48" t="str">
-        <v>MANSOURI</v>
+        <v>BEYAT</v>
       </c>
       <c r="W48" t="str">
-        <v>FATMA</v>
+        <v>ZOHRA</v>
       </c>
     </row>
     <row r="49">
@@ -3816,16 +3816,16 @@
         <v>1</v>
       </c>
       <c r="B49" t="str">
-        <v>MANSOURI</v>
+        <v>BENKHIRA</v>
       </c>
       <c r="C49" t="str">
-        <v>BRAHIM</v>
+        <v>DJALAL</v>
       </c>
       <c r="D49" t="str">
         <v>M</v>
       </c>
       <c r="E49" t="str">
-        <v>01/01/1980</v>
+        <v>15/01/1984</v>
       </c>
       <c r="F49" t="str">
         <v/>
@@ -3837,28 +3837,28 @@
         <v/>
       </c>
       <c r="I49" t="str">
-        <v>552</v>
+        <v>35</v>
       </c>
       <c r="J49" t="str">
         <v>M</v>
       </c>
       <c r="K49" t="str">
-        <v>AHMED</v>
+        <v>MAHMOUD</v>
       </c>
       <c r="L49" t="str">
-        <v>MANSOURI</v>
+        <v>BECHOUA</v>
       </c>
       <c r="M49" t="str">
         <v>FATMA</v>
       </c>
       <c r="N49" t="str">
-        <v>MANSOURI</v>
+        <v>KOUIDRI</v>
       </c>
       <c r="O49" t="str">
-        <v>NAIMA</v>
+        <v>WAFFA</v>
       </c>
       <c r="P49" t="str">
-        <v>16/12/1991</v>
+        <v>03/11/1993</v>
       </c>
       <c r="Q49" t="str">
         <v/>
@@ -3870,16 +3870,16 @@
         <v/>
       </c>
       <c r="T49" t="str">
-        <v>152</v>
+        <v>596</v>
       </c>
       <c r="U49" t="str">
-        <v>AMER</v>
+        <v>MOHAMMED LAKHDAR</v>
       </c>
       <c r="V49" t="str">
-        <v>MANSOURI</v>
+        <v>BENKHIRA</v>
       </c>
       <c r="W49" t="str">
-        <v>MEBARKA</v>
+        <v>SOUAD</v>
       </c>
     </row>
     <row r="50">
@@ -3887,49 +3887,49 @@
         <v>1</v>
       </c>
       <c r="B50" t="str">
-        <v>MANSOURI</v>
+        <v>BENADDA</v>
       </c>
       <c r="C50" t="str">
-        <v xml:space="preserve">ALI  </v>
+        <v>KHALIFA</v>
       </c>
       <c r="D50" t="str">
         <v>M</v>
       </c>
       <c r="E50" t="str">
-        <v>27/10/1986</v>
+        <v>08/11/1982</v>
       </c>
       <c r="F50" t="str">
         <v/>
       </c>
       <c r="G50" t="str">
-        <v>TAIBET</v>
+        <v>TOUGGOURT</v>
       </c>
       <c r="H50" t="str">
         <v/>
       </c>
       <c r="I50" t="str">
-        <v>333</v>
+        <v>792</v>
       </c>
       <c r="J50" t="str">
         <v>M</v>
       </c>
       <c r="K50" t="str">
-        <v>AHMED</v>
+        <v>MILOUD</v>
       </c>
       <c r="L50" t="str">
-        <v>MANSOURI</v>
+        <v>RABEHI</v>
       </c>
       <c r="M50" t="str">
         <v>MEBARKA</v>
       </c>
       <c r="N50" t="str">
-        <v>MANSOURI</v>
+        <v>MAMMERI</v>
       </c>
       <c r="O50" t="str">
-        <v>NADJAT</v>
+        <v>AMINA</v>
       </c>
       <c r="P50" t="str">
-        <v>20/01/1992</v>
+        <v>25/04/1992</v>
       </c>
       <c r="Q50" t="str">
         <v/>
@@ -3941,13 +3941,13 @@
         <v/>
       </c>
       <c r="T50" t="str">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="U50" t="str">
-        <v>ALI</v>
+        <v>MESSAOUD</v>
       </c>
       <c r="V50" t="str">
-        <v>MANSOURI</v>
+        <v>MAMMERI</v>
       </c>
       <c r="W50" t="str">
         <v>FATMA</v>
@@ -3958,70 +3958,70 @@
         <v>1</v>
       </c>
       <c r="B51" t="str">
-        <v>MOUANE</v>
+        <v>GHELANI</v>
       </c>
       <c r="C51" t="str">
-        <v>OUMELKHIR</v>
+        <v xml:space="preserve">MOHAMMED     </v>
       </c>
       <c r="D51" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E51" t="str">
-        <v>01/01/1972</v>
+        <v>11/01/1986</v>
       </c>
       <c r="F51" t="str">
         <v/>
       </c>
       <c r="G51" t="str">
-        <v>TAIBET</v>
+        <v>ANNABA</v>
       </c>
       <c r="H51" t="str">
         <v/>
       </c>
       <c r="I51" t="str">
-        <v>826</v>
+        <v>379</v>
       </c>
       <c r="J51" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K51" t="str">
-        <v>MEBROUK</v>
+        <v>MOUSSA</v>
       </c>
       <c r="L51" t="str">
-        <v xml:space="preserve"> OUGGAD</v>
+        <v>GHELANI</v>
       </c>
       <c r="M51" t="str">
-        <v>AICHA</v>
+        <v>ZOHRA</v>
       </c>
       <c r="N51" t="str">
-        <v xml:space="preserve"> DJIDEL</v>
+        <v>HAFRI</v>
       </c>
       <c r="O51" t="str">
-        <v>SAID</v>
+        <v>NADJAT</v>
       </c>
       <c r="P51" t="str">
-        <v>01/09/1959</v>
+        <v>04/02/1988</v>
       </c>
       <c r="Q51" t="str">
         <v/>
       </c>
       <c r="R51" t="str">
-        <v>NEZLA</v>
+        <v>BENNACEUR</v>
       </c>
       <c r="S51" t="str">
         <v/>
       </c>
       <c r="T51" t="str">
-        <v>2561</v>
+        <v>23</v>
       </c>
       <c r="U51" t="str">
         <v>AHMED</v>
       </c>
       <c r="V51" t="str">
-        <v xml:space="preserve"> BEBBOUKHA</v>
+        <v>BOUSAG</v>
       </c>
       <c r="W51" t="str">
-        <v>AICHA</v>
+        <v>NADIRA</v>
       </c>
     </row>
     <row r="52">
@@ -4029,70 +4029,70 @@
         <v>1</v>
       </c>
       <c r="B52" t="str">
-        <v>DOKMA</v>
+        <v>KOUTTI</v>
       </c>
       <c r="C52" t="str">
-        <v>DJAMEL</v>
+        <v>NACER</v>
       </c>
       <c r="D52" t="str">
         <v>M</v>
       </c>
       <c r="E52" t="str">
-        <v>29/06/1976</v>
+        <v>22/03/1980</v>
       </c>
       <c r="F52" t="str">
         <v/>
       </c>
       <c r="G52" t="str">
-        <v>TOUGGOURT</v>
+        <v>MAMAA</v>
       </c>
       <c r="H52" t="str">
         <v/>
       </c>
       <c r="I52" t="str">
-        <v>1204</v>
+        <v>178</v>
       </c>
       <c r="J52" t="str">
         <v>M</v>
       </c>
       <c r="K52" t="str">
-        <v>MOHAMMED</v>
+        <v>SALAH</v>
       </c>
       <c r="L52" t="str">
-        <v>HAMMADI</v>
+        <v>BOUDOUH</v>
       </c>
       <c r="M52" t="str">
-        <v>ZOHRA</v>
+        <v>FATMA</v>
       </c>
       <c r="N52" t="str">
-        <v>BOUNEGAB</v>
+        <v>MENZER</v>
       </c>
       <c r="O52" t="str">
-        <v>HANANE</v>
+        <v>IMANE</v>
       </c>
       <c r="P52" t="str">
-        <v>25/04/1993</v>
+        <v>23/02/1993</v>
       </c>
       <c r="Q52" t="str">
         <v/>
       </c>
       <c r="R52" t="str">
-        <v>BENNACEUR</v>
+        <v>MMDER BATNA</v>
       </c>
       <c r="S52" t="str">
         <v/>
       </c>
       <c r="T52" t="str">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="U52" t="str">
-        <v>MOHAMMED TAHAR</v>
+        <v>ABDELMADJID</v>
       </c>
       <c r="V52" t="str">
-        <v>RAHMANI</v>
+        <v>ZEOUAOUI</v>
       </c>
       <c r="W52" t="str">
-        <v>ZOHRA</v>
+        <v>FATIMA</v>
       </c>
     </row>
     <row r="53">
@@ -4100,16 +4100,16 @@
         <v>1</v>
       </c>
       <c r="B53" t="str">
-        <v>KADI</v>
+        <v>CHINE</v>
       </c>
       <c r="C53" t="str">
-        <v>MAAMAR</v>
+        <v>YAHIA</v>
       </c>
       <c r="D53" t="str">
         <v>M</v>
       </c>
       <c r="E53" t="str">
-        <v>09/05/1986</v>
+        <v>01/10/1986</v>
       </c>
       <c r="F53" t="str">
         <v/>
@@ -4121,49 +4121,49 @@
         <v/>
       </c>
       <c r="I53" t="str">
-        <v>139</v>
+        <v>314</v>
       </c>
       <c r="J53" t="str">
         <v>M</v>
       </c>
       <c r="K53" t="str">
+        <v>EL HAFED</v>
+      </c>
+      <c r="L53" t="str">
+        <v>CHINE</v>
+      </c>
+      <c r="M53" t="str">
+        <v>KHADRA</v>
+      </c>
+      <c r="N53" t="str">
+        <v>GUEMMOULI</v>
+      </c>
+      <c r="O53" t="str">
+        <v>FAIZA</v>
+      </c>
+      <c r="P53" t="str">
+        <v>10/02/1999</v>
+      </c>
+      <c r="Q53" t="str">
+        <v/>
+      </c>
+      <c r="R53" t="str">
+        <v>BENNACEUR</v>
+      </c>
+      <c r="S53" t="str">
+        <v/>
+      </c>
+      <c r="T53" t="str">
+        <v>44</v>
+      </c>
+      <c r="U53" t="str">
         <v>ALI</v>
       </c>
-      <c r="L53" t="str">
-        <v>KADI</v>
-      </c>
-      <c r="M53" t="str">
-        <v>AICHA</v>
-      </c>
-      <c r="N53" t="str">
-        <v>CHINE</v>
-      </c>
-      <c r="O53" t="str">
-        <v>FADHILA</v>
-      </c>
-      <c r="P53" t="str">
-        <v>02/11/1992</v>
-      </c>
-      <c r="Q53" t="str">
-        <v/>
-      </c>
-      <c r="R53" t="str">
-        <v>TAIBET</v>
-      </c>
-      <c r="S53" t="str">
-        <v/>
-      </c>
-      <c r="T53" t="str">
-        <v>364</v>
-      </c>
-      <c r="U53" t="str">
-        <v>MOHAMMED</v>
-      </c>
       <c r="V53" t="str">
-        <v>BELHACHANI</v>
+        <v>GHERIER</v>
       </c>
       <c r="W53" t="str">
-        <v>ZOHRA</v>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="54">
@@ -4171,16 +4171,16 @@
         <v>1</v>
       </c>
       <c r="B54" t="str">
-        <v>ROUAS</v>
+        <v>BENAOUN</v>
       </c>
       <c r="C54" t="str">
-        <v>MAHMOUD</v>
+        <v>DJEMOI</v>
       </c>
       <c r="D54" t="str">
         <v>M</v>
       </c>
       <c r="E54" t="str">
-        <v>01/01/1968</v>
+        <v>01/01/1976</v>
       </c>
       <c r="F54" t="str">
         <v/>
@@ -4192,49 +4192,49 @@
         <v/>
       </c>
       <c r="I54" t="str">
-        <v>97</v>
+        <v>560</v>
       </c>
       <c r="J54" t="str">
         <v>M</v>
       </c>
       <c r="K54" t="str">
-        <v>ALI</v>
+        <v>LAID</v>
       </c>
       <c r="L54" t="str">
-        <v>KHADIR</v>
+        <v>DRIDI</v>
       </c>
       <c r="M54" t="str">
-        <v>FATMA</v>
+        <v>MEBROUKA</v>
       </c>
       <c r="N54" t="str">
-        <v>ROUAS</v>
+        <v>GHEBACHE</v>
       </c>
       <c r="O54" t="str">
-        <v>MALIKA</v>
+        <v>ZOULIKHA</v>
       </c>
       <c r="P54" t="str">
-        <v>24/06/1981</v>
+        <v>19/10/1985</v>
       </c>
       <c r="Q54" t="str">
         <v/>
       </c>
       <c r="R54" t="str">
-        <v>TAIBET</v>
+        <v>BENNACEUR</v>
       </c>
       <c r="S54" t="str">
         <v/>
       </c>
       <c r="T54" t="str">
-        <v>563</v>
+        <v>230</v>
       </c>
       <c r="U54" t="str">
-        <v>MOHAMMED TAHAR</v>
+        <v>BACHIR</v>
       </c>
       <c r="V54" t="str">
-        <v>MENGAA</v>
+        <v>GHEBACHE</v>
       </c>
       <c r="W54" t="str">
-        <v>MEBROUKA</v>
+        <v>SOUAD</v>
       </c>
     </row>
     <row r="55">
@@ -4242,70 +4242,70 @@
         <v>1</v>
       </c>
       <c r="B55" t="str">
-        <v>DJEDIAI</v>
+        <v>HASROUF</v>
       </c>
       <c r="C55" t="str">
-        <v>SAIDA</v>
+        <v>MOULOUD</v>
       </c>
       <c r="D55" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E55" t="str">
-        <v>01/01/1966</v>
+        <v>20/04/1986</v>
       </c>
       <c r="F55" t="str">
         <v/>
       </c>
       <c r="G55" t="str">
-        <v>M'NAGUER</v>
+        <v>TAIBET</v>
       </c>
       <c r="H55" t="str">
         <v/>
       </c>
       <c r="I55" t="str">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="J55" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K55" t="str">
-        <v>MOHAMMED</v>
+        <v>SACI</v>
       </c>
       <c r="L55" t="str">
-        <v>MERKHOUFI</v>
+        <v>BELOUADANI</v>
       </c>
       <c r="M55" t="str">
-        <v>ZOHRA</v>
+        <v>HANIA</v>
       </c>
       <c r="N55" t="str">
-        <v>KOUIDRI</v>
+        <v>HAMMADI</v>
       </c>
       <c r="O55" t="str">
-        <v>SAID</v>
+        <v>RIM</v>
       </c>
       <c r="P55" t="str">
-        <v>22/09/1962</v>
+        <v>19/01/1992</v>
       </c>
       <c r="Q55" t="str">
         <v/>
       </c>
       <c r="R55" t="str">
-        <v>BEN ASOUED</v>
+        <v>TAIBET</v>
       </c>
       <c r="S55" t="str">
         <v/>
       </c>
       <c r="T55" t="str">
-        <v/>
+        <v>21</v>
       </c>
       <c r="U55" t="str">
-        <v>LAKHDAR</v>
+        <v>AHMED</v>
       </c>
       <c r="V55" t="str">
-        <v>SEKHER</v>
+        <v>KHADRAOUI</v>
       </c>
       <c r="W55" t="str">
-        <v>HANIA</v>
+        <v>MESSAOUDA</v>
       </c>
     </row>
     <row r="56">
@@ -4313,49 +4313,49 @@
         <v>1</v>
       </c>
       <c r="B56" t="str">
-        <v>CHINE</v>
+        <v>KADDOUR</v>
       </c>
       <c r="C56" t="str">
-        <v>YAHIA</v>
+        <v>MAHMOUD</v>
       </c>
       <c r="D56" t="str">
         <v>M</v>
       </c>
       <c r="E56" t="str">
-        <v>01/10/1986</v>
+        <v>16/11/1981</v>
       </c>
       <c r="F56" t="str">
         <v/>
       </c>
       <c r="G56" t="str">
-        <v>TAIBET</v>
+        <v>GUEMAR</v>
       </c>
       <c r="H56" t="str">
         <v/>
       </c>
       <c r="I56" t="str">
-        <v>314</v>
+        <v>1077</v>
       </c>
       <c r="J56" t="str">
         <v>M</v>
       </c>
       <c r="K56" t="str">
-        <v>EL HAFED</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="L56" t="str">
-        <v>CHINE</v>
+        <v>BENAZZA</v>
       </c>
       <c r="M56" t="str">
-        <v>KHADRA</v>
+        <v>MEBARKA</v>
       </c>
       <c r="N56" t="str">
-        <v>GUEMMOULI</v>
+        <v>ABID</v>
       </c>
       <c r="O56" t="str">
-        <v>FAIZA</v>
+        <v>MESSAOUDA</v>
       </c>
       <c r="P56" t="str">
-        <v>10/02/1999</v>
+        <v>24/02/1990</v>
       </c>
       <c r="Q56" t="str">
         <v/>
@@ -4367,16 +4367,16 @@
         <v/>
       </c>
       <c r="T56" t="str">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U56" t="str">
-        <v>ALI</v>
+        <v>TAHAR</v>
       </c>
       <c r="V56" t="str">
-        <v>GHERIER</v>
+        <v>GUECHAB</v>
       </c>
       <c r="W56" t="str">
-        <v>FATMA</v>
+        <v>DAOUIA</v>
       </c>
     </row>
     <row r="57">
@@ -4384,16 +4384,16 @@
         <v>1</v>
       </c>
       <c r="B57" t="str">
-        <v>MANSOURI</v>
+        <v>KADI</v>
       </c>
       <c r="C57" t="str">
-        <v>MOHAMMED ALI</v>
+        <v>MAAMAR</v>
       </c>
       <c r="D57" t="str">
         <v>M</v>
       </c>
       <c r="E57" t="str">
-        <v>13/01/1983</v>
+        <v>09/05/1986</v>
       </c>
       <c r="F57" t="str">
         <v/>
@@ -4405,7 +4405,7 @@
         <v/>
       </c>
       <c r="I57" t="str">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="J57" t="str">
         <v>M</v>
@@ -4414,40 +4414,40 @@
         <v>ALI</v>
       </c>
       <c r="L57" t="str">
-        <v>MANSOURI</v>
+        <v>KADI</v>
       </c>
       <c r="M57" t="str">
-        <v>MEBARKA</v>
+        <v>AICHA</v>
       </c>
       <c r="N57" t="str">
-        <v>GHENDIR</v>
+        <v>CHINE</v>
       </c>
       <c r="O57" t="str">
-        <v>NACIRA</v>
+        <v>FADHILA</v>
       </c>
       <c r="P57" t="str">
-        <v>26/01/1993</v>
+        <v>02/11/1992</v>
       </c>
       <c r="Q57" t="str">
         <v/>
       </c>
       <c r="R57" t="str">
-        <v>TEBESBEST</v>
+        <v>TAIBET</v>
       </c>
       <c r="S57" t="str">
         <v/>
       </c>
       <c r="T57" t="str">
-        <v>17</v>
+        <v>364</v>
       </c>
       <c r="U57" t="str">
         <v>MOHAMMED</v>
       </c>
       <c r="V57" t="str">
-        <v>GHENDIR</v>
+        <v>BELHACHANI</v>
       </c>
       <c r="W57" t="str">
-        <v>FATMA</v>
+        <v>ZOHRA</v>
       </c>
     </row>
     <row r="58">
@@ -4455,49 +4455,49 @@
         <v>1</v>
       </c>
       <c r="B58" t="str">
-        <v>NID</v>
+        <v>KADI</v>
       </c>
       <c r="C58" t="str">
-        <v>BACHIR</v>
+        <v>NOUREDDINE</v>
       </c>
       <c r="D58" t="str">
         <v>M</v>
       </c>
       <c r="E58" t="str">
-        <v>01/01/1940</v>
+        <v>01/01/1985</v>
       </c>
       <c r="F58" t="str">
         <v/>
       </c>
       <c r="G58" t="str">
-        <v>REGUIBA</v>
+        <v>TAIBET</v>
       </c>
       <c r="H58" t="str">
         <v/>
       </c>
       <c r="I58" t="str">
-        <v>5599</v>
+        <v>22</v>
       </c>
       <c r="J58" t="str">
         <v>M</v>
       </c>
       <c r="K58" t="str">
-        <v>LAKHDAR</v>
+        <v>MILOUD</v>
       </c>
       <c r="L58" t="str">
-        <v>DIDA</v>
+        <v>SAOUD</v>
       </c>
       <c r="M58" t="str">
-        <v>HANIA</v>
+        <v>AICHA</v>
       </c>
       <c r="N58" t="str">
-        <v>GHERARA</v>
+        <v>DOKMA</v>
       </c>
       <c r="O58" t="str">
-        <v>DJAMILA</v>
+        <v>HANANE</v>
       </c>
       <c r="P58" t="str">
-        <v>12/11/1982</v>
+        <v>12/01/1987</v>
       </c>
       <c r="Q58" t="str">
         <v/>
@@ -4509,16 +4509,16 @@
         <v/>
       </c>
       <c r="T58" t="str">
-        <v>860</v>
+        <v>14</v>
       </c>
       <c r="U58" t="str">
-        <v>MOHAMED CHAIB</v>
+        <v>AHMED</v>
       </c>
       <c r="V58" t="str">
-        <v>NADJA</v>
+        <v>KHADRAOUI</v>
       </c>
       <c r="W58" t="str">
-        <v>FATMA</v>
+        <v>SALIHA</v>
       </c>
     </row>
     <row r="59">
@@ -4526,70 +4526,70 @@
         <v>1</v>
       </c>
       <c r="B59" t="str">
-        <v>REZZAG HEBLA</v>
+        <v>LAOUNI</v>
       </c>
       <c r="C59" t="str">
-        <v>ARABI</v>
+        <v>LAHCEN</v>
       </c>
       <c r="D59" t="str">
         <v>M</v>
       </c>
       <c r="E59" t="str">
-        <v>10/01/1985</v>
+        <v>01/02/1987</v>
       </c>
       <c r="F59" t="str">
         <v/>
       </c>
       <c r="G59" t="str">
-        <v>TAIBET</v>
+        <v>BENNACER</v>
       </c>
       <c r="H59" t="str">
         <v/>
       </c>
       <c r="I59" t="str">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J59" t="str">
         <v>M</v>
       </c>
       <c r="K59" t="str">
-        <v>LAID</v>
+        <v>ABEDELHAKEM</v>
       </c>
       <c r="L59" t="str">
-        <v>CHALBI</v>
+        <v>BEBBOUKHA</v>
       </c>
       <c r="M59" t="str">
-        <v>KHEDIDJA</v>
+        <v>AICHA</v>
       </c>
       <c r="N59" t="str">
-        <v>SAOUD</v>
+        <v>BEBBOUKHA</v>
       </c>
       <c r="O59" t="str">
-        <v>KARIMA</v>
+        <v>SALMA</v>
       </c>
       <c r="P59" t="str">
-        <v>01/01/1989</v>
+        <v>17/05/1996</v>
       </c>
       <c r="Q59" t="str">
         <v/>
       </c>
       <c r="R59" t="str">
-        <v>TOUGGOURT</v>
+        <v>DEBDAB</v>
       </c>
       <c r="S59" t="str">
         <v/>
       </c>
       <c r="T59" t="str">
-        <v>982</v>
+        <v>48</v>
       </c>
       <c r="U59" t="str">
-        <v>AMMAR</v>
+        <v>ABDELKADER</v>
       </c>
       <c r="V59" t="str">
-        <v>SAOUD</v>
+        <v>HAMAMA</v>
       </c>
       <c r="W59" t="str">
-        <v>ZERZOURA</v>
+        <v>ZOHRA</v>
       </c>
     </row>
     <row r="60">
@@ -4597,70 +4597,70 @@
         <v>1</v>
       </c>
       <c r="B60" t="str">
-        <v>REZZAG HEBLA</v>
+        <v>MANSOURI</v>
       </c>
       <c r="C60" t="str">
+        <v>BRAHIM</v>
+      </c>
+      <c r="D60" t="str">
+        <v>M</v>
+      </c>
+      <c r="E60" t="str">
+        <v>01/01/1979</v>
+      </c>
+      <c r="F60" t="str">
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="H60" t="str">
+        <v/>
+      </c>
+      <c r="I60" t="str">
+        <v>336</v>
+      </c>
+      <c r="J60" t="str">
+        <v>M</v>
+      </c>
+      <c r="K60" t="str">
+        <v>MEBROUK</v>
+      </c>
+      <c r="L60" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="M60" t="str">
+        <v>FATMA</v>
+      </c>
+      <c r="N60" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="O60" t="str">
+        <v>FADHILA</v>
+      </c>
+      <c r="P60" t="str">
+        <v>01/01/1984</v>
+      </c>
+      <c r="Q60" t="str">
+        <v/>
+      </c>
+      <c r="R60" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="S60" t="str">
+        <v/>
+      </c>
+      <c r="T60" t="str">
+        <v/>
+      </c>
+      <c r="U60" t="str">
         <v>MOHAMMED</v>
       </c>
-      <c r="D60" t="str">
-        <v>M</v>
-      </c>
-      <c r="E60" t="str">
-        <v>05/05/1987</v>
-      </c>
-      <c r="F60" t="str">
-        <v/>
-      </c>
-      <c r="G60" t="str">
-        <v>TAIBET</v>
-      </c>
-      <c r="H60" t="str">
-        <v/>
-      </c>
-      <c r="I60" t="str">
-        <v>107</v>
-      </c>
-      <c r="J60" t="str">
-        <v>M</v>
-      </c>
-      <c r="K60" t="str">
-        <v>SAID</v>
-      </c>
-      <c r="L60" t="str">
-        <v>ZOUARI FERHAT</v>
-      </c>
-      <c r="M60" t="str">
-        <v>FATIMA</v>
-      </c>
-      <c r="N60" t="str">
-        <v>SOUILEM</v>
-      </c>
-      <c r="O60" t="str">
-        <v>DALILA</v>
-      </c>
-      <c r="P60" t="str">
-        <v>08/03/1993</v>
-      </c>
-      <c r="Q60" t="str">
-        <v/>
-      </c>
-      <c r="R60" t="str">
-        <v>TEBSBEST</v>
-      </c>
-      <c r="S60" t="str">
-        <v/>
-      </c>
-      <c r="T60" t="str">
-        <v>49</v>
-      </c>
-      <c r="U60" t="str">
-        <v>SAYAH</v>
-      </c>
       <c r="V60" t="str">
-        <v>REZZAG HEBLA</v>
+        <v>MANSOURI</v>
       </c>
       <c r="W60" t="str">
-        <v>KHIERA</v>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="61">
@@ -4668,49 +4668,49 @@
         <v>1</v>
       </c>
       <c r="B61" t="str">
-        <v>SERRAYE</v>
+        <v>MANSOURI</v>
       </c>
       <c r="C61" t="str">
-        <v>KHELIFA</v>
+        <v>BRAHIM</v>
       </c>
       <c r="D61" t="str">
         <v>M</v>
       </c>
       <c r="E61" t="str">
-        <v>07/07/1986</v>
+        <v>01/01/1980</v>
       </c>
       <c r="F61" t="str">
         <v/>
       </c>
       <c r="G61" t="str">
-        <v>BENNACER</v>
+        <v>TAIBET</v>
       </c>
       <c r="H61" t="str">
         <v/>
       </c>
       <c r="I61" t="str">
-        <v>125</v>
+        <v>552</v>
       </c>
       <c r="J61" t="str">
         <v>M</v>
       </c>
       <c r="K61" t="str">
-        <v>SAID</v>
+        <v>AHMED</v>
       </c>
       <c r="L61" t="str">
-        <v>SERRAYE</v>
+        <v>MANSOURI</v>
       </c>
       <c r="M61" t="str">
-        <v>MALIKA</v>
+        <v>FATMA</v>
       </c>
       <c r="N61" t="str">
-        <v>DJIDEL</v>
+        <v>MANSOURI</v>
       </c>
       <c r="O61" t="str">
-        <v>OUARDA</v>
+        <v>NAIMA</v>
       </c>
       <c r="P61" t="str">
-        <v>03/11/1992</v>
+        <v>16/12/1991</v>
       </c>
       <c r="Q61" t="str">
         <v/>
@@ -4722,16 +4722,16 @@
         <v/>
       </c>
       <c r="T61" t="str">
-        <v>370</v>
+        <v>152</v>
       </c>
       <c r="U61" t="str">
-        <v>SAID</v>
+        <v>AMER</v>
       </c>
       <c r="V61" t="str">
-        <v>MOUANE</v>
+        <v>MANSOURI</v>
       </c>
       <c r="W61" t="str">
-        <v>OUM ELKHIR</v>
+        <v>MEBARKA</v>
       </c>
     </row>
     <row r="62">
@@ -4739,16 +4739,16 @@
         <v>1</v>
       </c>
       <c r="B62" t="str">
-        <v>DOUH</v>
+        <v>MANSOURI</v>
       </c>
       <c r="C62" t="str">
-        <v>SOUAD</v>
+        <v>MOHAMMED ALI</v>
       </c>
       <c r="D62" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E62" t="str">
-        <v>18/10/1972</v>
+        <v>13/01/1983</v>
       </c>
       <c r="F62" t="str">
         <v/>
@@ -4760,46 +4760,46 @@
         <v/>
       </c>
       <c r="I62" t="str">
-        <v>2303</v>
+        <v>58</v>
       </c>
       <c r="J62" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K62" t="str">
-        <v>MAMMAR</v>
+        <v>ALI</v>
       </c>
       <c r="L62" t="str">
-        <v>ARIF</v>
+        <v>MANSOURI</v>
       </c>
       <c r="M62" t="str">
-        <v>FATMA</v>
+        <v>MEBARKA</v>
       </c>
       <c r="N62" t="str">
-        <v>LEBBOUZ</v>
+        <v>GHENDIR</v>
       </c>
       <c r="O62" t="str">
-        <v>ISMAIL</v>
+        <v>NACIRA</v>
       </c>
       <c r="P62" t="str">
-        <v>07/11/1966</v>
+        <v>26/01/1993</v>
       </c>
       <c r="Q62" t="str">
         <v/>
       </c>
       <c r="R62" t="str">
-        <v>TAIBET</v>
+        <v>TEBESBEST</v>
       </c>
       <c r="S62" t="str">
         <v/>
       </c>
       <c r="T62" t="str">
-        <v>288</v>
+        <v>17</v>
       </c>
       <c r="U62" t="str">
         <v>MOHAMMED</v>
       </c>
       <c r="V62" t="str">
-        <v>ARIF</v>
+        <v>GHENDIR</v>
       </c>
       <c r="W62" t="str">
         <v>FATMA</v>
@@ -4810,70 +4810,70 @@
         <v>1</v>
       </c>
       <c r="B63" t="str">
-        <v>ZEGHOUD</v>
+        <v>MOUANE</v>
       </c>
       <c r="C63" t="str">
-        <v>SAID</v>
+        <v>OUMELKHIR</v>
       </c>
       <c r="D63" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E63" t="str">
-        <v>24/10/1984</v>
+        <v>01/01/1972</v>
       </c>
       <c r="F63" t="str">
         <v/>
       </c>
       <c r="G63" t="str">
-        <v>TOUGGOURT</v>
+        <v>TAIBET</v>
       </c>
       <c r="H63" t="str">
         <v/>
       </c>
       <c r="I63" t="str">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J63" t="str">
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="K63" t="str">
-        <v xml:space="preserve">MOHAMMED       </v>
+        <v>MEBROUK</v>
       </c>
       <c r="L63" t="str">
-        <v>TOUAHRI</v>
+        <v xml:space="preserve"> OUGGAD</v>
       </c>
       <c r="M63" t="str">
         <v>AICHA</v>
       </c>
       <c r="N63" t="str">
-        <v>BECHOUA</v>
+        <v xml:space="preserve"> DJIDEL</v>
       </c>
       <c r="O63" t="str">
-        <v>FADILA</v>
+        <v>SAID</v>
       </c>
       <c r="P63" t="str">
-        <v>17/04/1994</v>
+        <v>01/09/1959</v>
       </c>
       <c r="Q63" t="str">
         <v/>
       </c>
       <c r="R63" t="str">
-        <v>TAIBET</v>
+        <v>NEZLA</v>
       </c>
       <c r="S63" t="str">
         <v/>
       </c>
       <c r="T63" t="str">
-        <v>316</v>
+        <v>2561</v>
       </c>
       <c r="U63" t="str">
-        <v>SAID</v>
+        <v>AHMED</v>
       </c>
       <c r="V63" t="str">
-        <v>MANSOURI</v>
+        <v xml:space="preserve"> BEBBOUKHA</v>
       </c>
       <c r="W63" t="str">
-        <v>FATIHA</v>
+        <v>AICHA</v>
       </c>
     </row>
     <row r="64">
@@ -4881,70 +4881,70 @@
         <v>1</v>
       </c>
       <c r="B64" t="str">
-        <v>ROUAS</v>
+        <v>NEMROUD</v>
       </c>
       <c r="C64" t="str">
-        <v>BRAHIM</v>
+        <v>ABDELGHANI</v>
       </c>
       <c r="D64" t="str">
         <v>M</v>
       </c>
       <c r="E64" t="str">
-        <v>01/01/1983</v>
+        <v>02/03/1987</v>
       </c>
       <c r="F64" t="str">
         <v/>
       </c>
       <c r="G64" t="str">
-        <v>TAIBET</v>
+        <v>KHEMIS MLIANA</v>
       </c>
       <c r="H64" t="str">
         <v/>
       </c>
       <c r="I64" t="str">
-        <v>325</v>
+        <v>558</v>
       </c>
       <c r="J64" t="str">
         <v>M</v>
       </c>
       <c r="K64" t="str">
-        <v>MOHAMMED TAHAR</v>
+        <v>AHMED</v>
       </c>
       <c r="L64" t="str">
-        <v>GASMI</v>
+        <v>BOUAZENI</v>
       </c>
       <c r="M64" t="str">
-        <v>RABIAA</v>
+        <v>KHIRA</v>
       </c>
       <c r="N64" t="str">
-        <v>GASMI</v>
+        <v>BEBBOUKHA</v>
       </c>
       <c r="O64" t="str">
-        <v>FAIZA</v>
+        <v>FATTOUM</v>
       </c>
       <c r="P64" t="str">
-        <v>21/03/1994</v>
+        <v>02/11/1992</v>
       </c>
       <c r="Q64" t="str">
         <v/>
       </c>
       <c r="R64" t="str">
-        <v>TAIBET</v>
+        <v>TOUGOURET</v>
       </c>
       <c r="S64" t="str">
         <v/>
       </c>
       <c r="T64" t="str">
-        <v>252</v>
+        <v>379</v>
       </c>
       <c r="U64" t="str">
-        <v>LAICHE</v>
+        <v>SAID</v>
       </c>
       <c r="V64" t="str">
-        <v>GASMI</v>
+        <v>HANED</v>
       </c>
       <c r="W64" t="str">
-        <v>OUMELKHIR</v>
+        <v>HAYAT</v>
       </c>
     </row>
     <row r="65">
@@ -4952,49 +4952,49 @@
         <v>1</v>
       </c>
       <c r="B65" t="str">
-        <v>SAHRAOUI</v>
+        <v>NID</v>
       </c>
       <c r="C65" t="str">
-        <v>NAOUIA</v>
+        <v>BACHIR</v>
       </c>
       <c r="D65" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E65" t="str">
-        <v>01/01/1961</v>
+        <v>01/01/1940</v>
       </c>
       <c r="F65" t="str">
         <v/>
       </c>
       <c r="G65" t="str">
-        <v>TAIBET</v>
+        <v>REGUIBA</v>
       </c>
       <c r="H65" t="str">
         <v/>
       </c>
       <c r="I65" t="str">
-        <v>83</v>
+        <v>5599</v>
       </c>
       <c r="J65" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K65" t="str">
-        <v>ALI</v>
+        <v>LAKHDAR</v>
       </c>
       <c r="L65" t="str">
-        <v>SAHRAOUI</v>
+        <v>DIDA</v>
       </c>
       <c r="M65" t="str">
-        <v>ZOHRA</v>
+        <v>HANIA</v>
       </c>
       <c r="N65" t="str">
-        <v>ABOUB</v>
+        <v>GHERARA</v>
       </c>
       <c r="O65" t="str">
-        <v>ABDELLAH</v>
+        <v>DJAMILA</v>
       </c>
       <c r="P65" t="str">
-        <v>01/01/1953</v>
+        <v>12/11/1982</v>
       </c>
       <c r="Q65" t="str">
         <v/>
@@ -5006,13 +5006,13 @@
         <v/>
       </c>
       <c r="T65" t="str">
-        <v>180</v>
+        <v>860</v>
       </c>
       <c r="U65" t="str">
-        <v>MAMMAR</v>
+        <v>MOHAMED CHAIB</v>
       </c>
       <c r="V65" t="str">
-        <v>ABOUB</v>
+        <v>NADJA</v>
       </c>
       <c r="W65" t="str">
         <v>FATMA</v>
@@ -5023,16 +5023,16 @@
         <v>1</v>
       </c>
       <c r="B66" t="str">
-        <v>TOUAHAR</v>
+        <v>REZZAG HEBLA</v>
       </c>
       <c r="C66" t="str">
-        <v>SABAH</v>
+        <v>ARABI</v>
       </c>
       <c r="D66" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E66" t="str">
-        <v>01/01/1981</v>
+        <v>10/01/1985</v>
       </c>
       <c r="F66" t="str">
         <v/>
@@ -5044,49 +5044,49 @@
         <v/>
       </c>
       <c r="I66" t="str">
-        <v>309</v>
+        <v>6</v>
       </c>
       <c r="J66" t="str">
-        <v>D</v>
+        <v>M</v>
       </c>
       <c r="K66" t="str">
-        <v>HOCINE</v>
+        <v>LAID</v>
       </c>
       <c r="L66" t="str">
-        <v>GASMI</v>
+        <v>CHALBI</v>
       </c>
       <c r="M66" t="str">
-        <v>AICHA</v>
+        <v>KHEDIDJA</v>
       </c>
       <c r="N66" t="str">
-        <v/>
+        <v>SAOUD</v>
       </c>
       <c r="O66" t="str">
-        <v/>
+        <v>KARIMA</v>
       </c>
       <c r="P66" t="str">
-        <v/>
+        <v>01/01/1989</v>
       </c>
       <c r="Q66" t="str">
         <v/>
       </c>
       <c r="R66" t="str">
-        <v/>
+        <v>TOUGGOURT</v>
       </c>
       <c r="S66" t="str">
         <v/>
       </c>
       <c r="T66" t="str">
-        <v/>
+        <v>982</v>
       </c>
       <c r="U66" t="str">
-        <v/>
+        <v>AMMAR</v>
       </c>
       <c r="V66" t="str">
-        <v/>
+        <v>SAOUD</v>
       </c>
       <c r="W66" t="str">
-        <v/>
+        <v>ZERZOURA</v>
       </c>
     </row>
     <row r="67">
@@ -5094,16 +5094,16 @@
         <v>1</v>
       </c>
       <c r="B67" t="str">
-        <v>HAMDAOUI</v>
+        <v>REZZAG HEBLA</v>
       </c>
       <c r="C67" t="str">
-        <v>MESSAOUD</v>
+        <v>MOHAMMED</v>
       </c>
       <c r="D67" t="str">
         <v>M</v>
       </c>
       <c r="E67" t="str">
-        <v>16/08/1986</v>
+        <v>05/05/1987</v>
       </c>
       <c r="F67" t="str">
         <v/>
@@ -5115,49 +5115,49 @@
         <v/>
       </c>
       <c r="I67" t="str">
-        <v>252</v>
+        <v>107</v>
       </c>
       <c r="J67" t="str">
         <v>M</v>
       </c>
       <c r="K67" t="str">
-        <v>RACHID</v>
+        <v>SAID</v>
       </c>
       <c r="L67" t="str">
-        <v>BENKHIRA</v>
+        <v>ZOUARI FERHAT</v>
       </c>
       <c r="M67" t="str">
-        <v>YAMINA</v>
+        <v>FATIMA</v>
       </c>
       <c r="N67" t="str">
-        <v>HAMDAOUI</v>
+        <v>SOUILEM</v>
       </c>
       <c r="O67" t="str">
-        <v>ZINEB</v>
+        <v>DALILA</v>
       </c>
       <c r="P67" t="str">
-        <v>30/09/1989</v>
+        <v>08/03/1993</v>
       </c>
       <c r="Q67" t="str">
         <v/>
       </c>
       <c r="R67" t="str">
-        <v>TAIBET</v>
+        <v>TEBSBEST</v>
       </c>
       <c r="S67" t="str">
         <v/>
       </c>
       <c r="T67" t="str">
-        <v>428</v>
+        <v>49</v>
       </c>
       <c r="U67" t="str">
-        <v>BACHIR</v>
+        <v>SAYAH</v>
       </c>
       <c r="V67" t="str">
-        <v>KOUIDRI</v>
+        <v>REZZAG HEBLA</v>
       </c>
       <c r="W67" t="str">
-        <v>FATMA</v>
+        <v>KHIERA</v>
       </c>
     </row>
     <row r="68">
@@ -5165,70 +5165,70 @@
         <v>1</v>
       </c>
       <c r="B68" t="str">
-        <v xml:space="preserve">TOUIL </v>
+        <v>GOSSI</v>
       </c>
       <c r="C68" t="str">
-        <v>MERIEM</v>
+        <v>MESSAOUDA</v>
       </c>
       <c r="D68" t="str">
         <v>F</v>
       </c>
       <c r="E68" t="str">
-        <v>01/01/1949</v>
+        <v>21/06/1983</v>
       </c>
       <c r="F68" t="str">
         <v/>
       </c>
       <c r="G68" t="str">
-        <v>TAIBET</v>
+        <v>TOUGGOURT</v>
       </c>
       <c r="H68" t="str">
         <v/>
       </c>
       <c r="I68" t="str">
-        <v>2959</v>
+        <v>83</v>
       </c>
       <c r="J68" t="str">
-        <v>V</v>
+        <v>D</v>
       </c>
       <c r="K68" t="str">
-        <v>BACHIR</v>
+        <v>TAHAR</v>
       </c>
       <c r="L68" t="str">
-        <v>LEBBOUZ</v>
+        <v>GOSSI</v>
       </c>
       <c r="M68" t="str">
-        <v>FATMA</v>
+        <v>MEBARKA</v>
       </c>
       <c r="N68" t="str">
-        <v>BENTERKIA</v>
+        <v/>
       </c>
       <c r="O68" t="str">
-        <v>KHELIFA</v>
+        <v/>
       </c>
       <c r="P68" t="str">
-        <v>01/01/1935</v>
+        <v/>
       </c>
       <c r="Q68" t="str">
         <v/>
       </c>
       <c r="R68" t="str">
-        <v>TAIBET</v>
+        <v/>
       </c>
       <c r="S68" t="str">
         <v/>
       </c>
       <c r="T68" t="str">
-        <v>742</v>
+        <v/>
       </c>
       <c r="U68" t="str">
-        <v>TAHAR</v>
+        <v/>
       </c>
       <c r="V68" t="str">
-        <v>ABID</v>
+        <v/>
       </c>
       <c r="W68" t="str">
-        <v>FATMA</v>
+        <v/>
       </c>
     </row>
     <row r="69">
@@ -5236,70 +5236,70 @@
         <v>1</v>
       </c>
       <c r="B69" t="str">
-        <v>ZEGAOU</v>
+        <v>ROUAS</v>
       </c>
       <c r="C69" t="str">
-        <v>CHERIF</v>
+        <v>BRAHIM</v>
       </c>
       <c r="D69" t="str">
         <v>M</v>
       </c>
       <c r="E69" t="str">
-        <v>17/05/1987</v>
+        <v>01/01/1983</v>
       </c>
       <c r="F69" t="str">
         <v/>
       </c>
       <c r="G69" t="str">
-        <v>M'NAGUER</v>
+        <v>TAIBET</v>
       </c>
       <c r="H69" t="str">
         <v/>
       </c>
       <c r="I69" t="str">
-        <v>112</v>
+        <v>325</v>
       </c>
       <c r="J69" t="str">
         <v>M</v>
       </c>
       <c r="K69" t="str">
-        <v>AMMAR</v>
+        <v>MOHAMMED TAHAR</v>
       </c>
       <c r="L69" t="str">
-        <v>BACHI</v>
+        <v>GASMI</v>
       </c>
       <c r="M69" t="str">
-        <v>ZOHRA</v>
+        <v>RABIAA</v>
       </c>
       <c r="N69" t="str">
-        <v>ZEGAOUI</v>
+        <v>GASMI</v>
       </c>
       <c r="O69" t="str">
-        <v>NOUR ELHOUDA</v>
+        <v>FAIZA</v>
       </c>
       <c r="P69" t="str">
-        <v>23/04/1999</v>
+        <v>21/03/1994</v>
       </c>
       <c r="Q69" t="str">
         <v/>
       </c>
       <c r="R69" t="str">
-        <v>ROUISSAT</v>
+        <v>TAIBET</v>
       </c>
       <c r="S69" t="str">
         <v/>
       </c>
       <c r="T69" t="str">
-        <v>414</v>
+        <v>252</v>
       </c>
       <c r="U69" t="str">
-        <v>KHELIFA</v>
+        <v>LAICHE</v>
       </c>
       <c r="V69" t="str">
-        <v>BEDDIAF</v>
+        <v>GASMI</v>
       </c>
       <c r="W69" t="str">
-        <v>ZOHRA</v>
+        <v>OUMELKHIR</v>
       </c>
     </row>
     <row r="70">
@@ -5307,49 +5307,49 @@
         <v>1</v>
       </c>
       <c r="B70" t="str">
-        <v>NOUGTI</v>
+        <v>SAHRAOUI</v>
       </c>
       <c r="C70" t="str">
+        <v>NAOUIA</v>
+      </c>
+      <c r="D70" t="str">
+        <v>F</v>
+      </c>
+      <c r="E70" t="str">
+        <v>01/01/1961</v>
+      </c>
+      <c r="F70" t="str">
+        <v/>
+      </c>
+      <c r="G70" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="H70" t="str">
+        <v/>
+      </c>
+      <c r="I70" t="str">
+        <v>83</v>
+      </c>
+      <c r="J70" t="str">
+        <v>V</v>
+      </c>
+      <c r="K70" t="str">
         <v>ALI</v>
       </c>
-      <c r="D70" t="str">
-        <v>M</v>
-      </c>
-      <c r="E70" t="str">
-        <v>04/03/1985</v>
-      </c>
-      <c r="F70" t="str">
-        <v/>
-      </c>
-      <c r="G70" t="str">
-        <v>TAIBET</v>
-      </c>
-      <c r="H70" t="str">
-        <v/>
-      </c>
-      <c r="I70" t="str">
-        <v>10</v>
-      </c>
-      <c r="J70" t="str">
-        <v>M</v>
-      </c>
-      <c r="K70" t="str">
-        <v>BELGACEM</v>
-      </c>
       <c r="L70" t="str">
-        <v>DOUADI</v>
+        <v>SAHRAOUI</v>
       </c>
       <c r="M70" t="str">
-        <v>MERIEM</v>
+        <v>ZOHRA</v>
       </c>
       <c r="N70" t="str">
-        <v>NOUGTI</v>
+        <v>ABOUB</v>
       </c>
       <c r="O70" t="str">
-        <v>DJAMILA</v>
+        <v>ABDELLAH</v>
       </c>
       <c r="P70" t="str">
-        <v>27/02/1993</v>
+        <v>01/01/1953</v>
       </c>
       <c r="Q70" t="str">
         <v/>
@@ -5361,16 +5361,16 @@
         <v/>
       </c>
       <c r="T70" t="str">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="U70" t="str">
-        <v>AHMED</v>
+        <v>MAMMAR</v>
       </c>
       <c r="V70" t="str">
-        <v>RACHEDI</v>
+        <v>ABOUB</v>
       </c>
       <c r="W70" t="str">
-        <v>ZEHIRA</v>
+        <v>FATMA</v>
       </c>
     </row>
     <row r="71">
@@ -5378,16 +5378,16 @@
         <v>1</v>
       </c>
       <c r="B71" t="str">
-        <v>GHERARA</v>
+        <v>ROUAS</v>
       </c>
       <c r="C71" t="str">
-        <v>AICHA</v>
+        <v>MAHMOUD</v>
       </c>
       <c r="D71" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E71" t="str">
-        <v>31/01/1978</v>
+        <v>01/01/1968</v>
       </c>
       <c r="F71" t="str">
         <v/>
@@ -5399,49 +5399,49 @@
         <v/>
       </c>
       <c r="I71" t="str">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="J71" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K71" t="str">
-        <v>LAKHDAR</v>
+        <v>ALI</v>
       </c>
       <c r="L71" t="str">
-        <v>SAOUD</v>
+        <v>KHADIR</v>
       </c>
       <c r="M71" t="str">
-        <v>MEBARKA</v>
+        <v>FATMA</v>
       </c>
       <c r="N71" t="str">
-        <v>BEYAT</v>
+        <v>ROUAS</v>
       </c>
       <c r="O71" t="str">
-        <v>TAHAR</v>
+        <v>MALIKA</v>
       </c>
       <c r="P71" t="str">
-        <v>24/02/1951</v>
+        <v>24/06/1981</v>
       </c>
       <c r="Q71" t="str">
         <v/>
       </c>
       <c r="R71" t="str">
-        <v>ELOUED</v>
+        <v>TAIBET</v>
       </c>
       <c r="S71" t="str">
         <v/>
       </c>
       <c r="T71" t="str">
-        <v>309</v>
+        <v>563</v>
       </c>
       <c r="U71" t="str">
-        <v>LAID</v>
+        <v>MOHAMMED TAHAR</v>
       </c>
       <c r="V71" t="str">
-        <v>BEYAT</v>
+        <v>MENGAA</v>
       </c>
       <c r="W71" t="str">
-        <v>ZOHRA</v>
+        <v>MEBROUKA</v>
       </c>
     </row>
     <row r="72">
@@ -5449,49 +5449,49 @@
         <v>1</v>
       </c>
       <c r="B72" t="str">
-        <v>TOUAHRI</v>
+        <v>SERRAYE</v>
       </c>
       <c r="C72" t="str">
-        <v>KHEIRA</v>
+        <v>KHELIFA</v>
       </c>
       <c r="D72" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E72" t="str">
-        <v>01/01/1957</v>
+        <v>07/07/1986</v>
       </c>
       <c r="F72" t="str">
         <v/>
       </c>
       <c r="G72" t="str">
-        <v>TAIBET</v>
+        <v>BENNACER</v>
       </c>
       <c r="H72" t="str">
         <v/>
       </c>
       <c r="I72" t="str">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="J72" t="str">
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="K72" t="str">
-        <v>BELGACEM</v>
+        <v>SAID</v>
       </c>
       <c r="L72" t="str">
-        <v>BEKKARI</v>
+        <v>SERRAYE</v>
       </c>
       <c r="M72" t="str">
-        <v>KHADRA</v>
+        <v>MALIKA</v>
       </c>
       <c r="N72" t="str">
-        <v>ATTALI</v>
+        <v>DJIDEL</v>
       </c>
       <c r="O72" t="str">
-        <v>MOHAMMED</v>
+        <v>OUARDA</v>
       </c>
       <c r="P72" t="str">
-        <v>01/01/1930</v>
+        <v>03/11/1992</v>
       </c>
       <c r="Q72" t="str">
         <v/>
@@ -5503,16 +5503,16 @@
         <v/>
       </c>
       <c r="T72" t="str">
-        <v>503</v>
+        <v>370</v>
       </c>
       <c r="U72" t="str">
-        <v>MOHAMMED</v>
+        <v>SAID</v>
       </c>
       <c r="V72" t="str">
-        <v>MADANI</v>
+        <v>MOUANE</v>
       </c>
       <c r="W72" t="str">
-        <v>FATMA</v>
+        <v>OUM ELKHIR</v>
       </c>
     </row>
     <row r="73">
@@ -5520,70 +5520,70 @@
         <v>1</v>
       </c>
       <c r="B73" t="str">
-        <v>NEMROUD</v>
+        <v>TOUAHAR</v>
       </c>
       <c r="C73" t="str">
-        <v>ABDELGHANI</v>
+        <v>MOKHTAR</v>
       </c>
       <c r="D73" t="str">
         <v>M</v>
       </c>
       <c r="E73" t="str">
-        <v>02/03/1987</v>
+        <v>13/06/1971</v>
       </c>
       <c r="F73" t="str">
         <v/>
       </c>
       <c r="G73" t="str">
-        <v>KHEMIS MLIANA</v>
+        <v>TAIBET</v>
       </c>
       <c r="H73" t="str">
         <v/>
       </c>
       <c r="I73" t="str">
-        <v>558</v>
+        <v>216</v>
       </c>
       <c r="J73" t="str">
         <v>M</v>
       </c>
       <c r="K73" t="str">
-        <v>AHMED</v>
+        <v>HOCINE</v>
       </c>
       <c r="L73" t="str">
-        <v>BOUAZENI</v>
+        <v>AMMARI</v>
       </c>
       <c r="M73" t="str">
-        <v>KHIRA</v>
+        <v>YAMINA</v>
       </c>
       <c r="N73" t="str">
-        <v>BEBBOUKHA</v>
+        <v>AMMARI</v>
       </c>
       <c r="O73" t="str">
-        <v>FATTOUM</v>
+        <v>LAILA</v>
       </c>
       <c r="P73" t="str">
-        <v>02/11/1992</v>
+        <v>31/08/1997</v>
       </c>
       <c r="Q73" t="str">
         <v/>
       </c>
       <c r="R73" t="str">
-        <v>TOUGOURET</v>
+        <v>TAIBET</v>
       </c>
       <c r="S73" t="str">
         <v/>
       </c>
       <c r="T73" t="str">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="U73" t="str">
         <v>SAID</v>
       </c>
       <c r="V73" t="str">
-        <v>HANED</v>
+        <v>AMMARI</v>
       </c>
       <c r="W73" t="str">
-        <v>HAYAT</v>
+        <v>YAMINA</v>
       </c>
     </row>
     <row r="74">
@@ -5594,13 +5594,13 @@
         <v>TOUAHAR</v>
       </c>
       <c r="C74" t="str">
-        <v>MOKHTAR</v>
+        <v>SABAH</v>
       </c>
       <c r="D74" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E74" t="str">
-        <v>13/06/1971</v>
+        <v>01/01/1981</v>
       </c>
       <c r="F74" t="str">
         <v/>
@@ -5612,49 +5612,49 @@
         <v/>
       </c>
       <c r="I74" t="str">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="J74" t="str">
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="K74" t="str">
         <v>HOCINE</v>
       </c>
       <c r="L74" t="str">
-        <v>AMMARI</v>
+        <v>GASMI</v>
       </c>
       <c r="M74" t="str">
-        <v>YAMINA</v>
+        <v>AICHA</v>
       </c>
       <c r="N74" t="str">
-        <v>AMMARI</v>
+        <v/>
       </c>
       <c r="O74" t="str">
-        <v>LAILA</v>
+        <v/>
       </c>
       <c r="P74" t="str">
-        <v>31/08/1997</v>
+        <v/>
       </c>
       <c r="Q74" t="str">
         <v/>
       </c>
       <c r="R74" t="str">
-        <v>TAIBET</v>
+        <v/>
       </c>
       <c r="S74" t="str">
         <v/>
       </c>
       <c r="T74" t="str">
-        <v>367</v>
+        <v/>
       </c>
       <c r="U74" t="str">
-        <v>SAID</v>
+        <v/>
       </c>
       <c r="V74" t="str">
-        <v>AMMARI</v>
+        <v/>
       </c>
       <c r="W74" t="str">
-        <v>YAMINA</v>
+        <v/>
       </c>
     </row>
     <row r="75">
@@ -5662,75 +5662,1282 @@
         <v>1</v>
       </c>
       <c r="B75" t="str">
+        <v>HAMDAOUI</v>
+      </c>
+      <c r="C75" t="str">
+        <v>MESSAOUD</v>
+      </c>
+      <c r="D75" t="str">
+        <v>M</v>
+      </c>
+      <c r="E75" t="str">
+        <v>16/08/1986</v>
+      </c>
+      <c r="F75" t="str">
+        <v/>
+      </c>
+      <c r="G75" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="H75" t="str">
+        <v/>
+      </c>
+      <c r="I75" t="str">
+        <v>252</v>
+      </c>
+      <c r="J75" t="str">
+        <v>M</v>
+      </c>
+      <c r="K75" t="str">
+        <v>RACHID</v>
+      </c>
+      <c r="L75" t="str">
+        <v>BENKHIRA</v>
+      </c>
+      <c r="M75" t="str">
+        <v>YAMINA</v>
+      </c>
+      <c r="N75" t="str">
+        <v>HAMDAOUI</v>
+      </c>
+      <c r="O75" t="str">
+        <v>ZINEB</v>
+      </c>
+      <c r="P75" t="str">
+        <v>30/09/1989</v>
+      </c>
+      <c r="Q75" t="str">
+        <v/>
+      </c>
+      <c r="R75" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="S75" t="str">
+        <v/>
+      </c>
+      <c r="T75" t="str">
+        <v>428</v>
+      </c>
+      <c r="U75" t="str">
+        <v>BACHIR</v>
+      </c>
+      <c r="V75" t="str">
+        <v>KOUIDRI</v>
+      </c>
+      <c r="W75" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" t="str">
+        <v xml:space="preserve">TOUIL </v>
+      </c>
+      <c r="C76" t="str">
+        <v>MERIEM</v>
+      </c>
+      <c r="D76" t="str">
+        <v>F</v>
+      </c>
+      <c r="E76" t="str">
+        <v>01/01/1949</v>
+      </c>
+      <c r="F76" t="str">
+        <v/>
+      </c>
+      <c r="G76" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="H76" t="str">
+        <v/>
+      </c>
+      <c r="I76" t="str">
+        <v>2959</v>
+      </c>
+      <c r="J76" t="str">
+        <v>V</v>
+      </c>
+      <c r="K76" t="str">
+        <v>BACHIR</v>
+      </c>
+      <c r="L76" t="str">
+        <v>LEBBOUZ</v>
+      </c>
+      <c r="M76" t="str">
+        <v>FATMA</v>
+      </c>
+      <c r="N76" t="str">
+        <v>BENTERKIA</v>
+      </c>
+      <c r="O76" t="str">
+        <v>KHELIFA</v>
+      </c>
+      <c r="P76" t="str">
+        <v>01/01/1935</v>
+      </c>
+      <c r="Q76" t="str">
+        <v/>
+      </c>
+      <c r="R76" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="S76" t="str">
+        <v/>
+      </c>
+      <c r="T76" t="str">
+        <v>742</v>
+      </c>
+      <c r="U76" t="str">
+        <v>TAHAR</v>
+      </c>
+      <c r="V76" t="str">
+        <v>ABID</v>
+      </c>
+      <c r="W76" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="str">
+        <v>ZEGAOU</v>
+      </c>
+      <c r="C77" t="str">
+        <v>CHERIF</v>
+      </c>
+      <c r="D77" t="str">
+        <v>M</v>
+      </c>
+      <c r="E77" t="str">
+        <v>17/05/1987</v>
+      </c>
+      <c r="F77" t="str">
+        <v/>
+      </c>
+      <c r="G77" t="str">
+        <v>M'NAGUER</v>
+      </c>
+      <c r="H77" t="str">
+        <v/>
+      </c>
+      <c r="I77" t="str">
+        <v>112</v>
+      </c>
+      <c r="J77" t="str">
+        <v>M</v>
+      </c>
+      <c r="K77" t="str">
+        <v>AMMAR</v>
+      </c>
+      <c r="L77" t="str">
+        <v>BACHI</v>
+      </c>
+      <c r="M77" t="str">
+        <v>ZOHRA</v>
+      </c>
+      <c r="N77" t="str">
+        <v>ZEGAOUI</v>
+      </c>
+      <c r="O77" t="str">
+        <v>NOUR ELHOUDA</v>
+      </c>
+      <c r="P77" t="str">
+        <v>23/04/1999</v>
+      </c>
+      <c r="Q77" t="str">
+        <v/>
+      </c>
+      <c r="R77" t="str">
+        <v>ROUISSAT</v>
+      </c>
+      <c r="S77" t="str">
+        <v/>
+      </c>
+      <c r="T77" t="str">
+        <v>414</v>
+      </c>
+      <c r="U77" t="str">
+        <v>KHELIFA</v>
+      </c>
+      <c r="V77" t="str">
+        <v>BEDDIAF</v>
+      </c>
+      <c r="W77" t="str">
+        <v>ZOHRA</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="str">
+        <v>ZEGHOUD</v>
+      </c>
+      <c r="C78" t="str">
+        <v>SAID</v>
+      </c>
+      <c r="D78" t="str">
+        <v>M</v>
+      </c>
+      <c r="E78" t="str">
+        <v>24/10/1984</v>
+      </c>
+      <c r="F78" t="str">
+        <v/>
+      </c>
+      <c r="G78" t="str">
+        <v>TOUGGOURT</v>
+      </c>
+      <c r="H78" t="str">
+        <v/>
+      </c>
+      <c r="I78" t="str">
+        <v>827</v>
+      </c>
+      <c r="J78" t="str">
+        <v>M</v>
+      </c>
+      <c r="K78" t="str">
+        <v xml:space="preserve">MOHAMMED       </v>
+      </c>
+      <c r="L78" t="str">
+        <v>TOUAHRI</v>
+      </c>
+      <c r="M78" t="str">
+        <v>AICHA</v>
+      </c>
+      <c r="N78" t="str">
+        <v>BECHOUA</v>
+      </c>
+      <c r="O78" t="str">
+        <v>FADILA</v>
+      </c>
+      <c r="P78" t="str">
+        <v>17/04/1994</v>
+      </c>
+      <c r="Q78" t="str">
+        <v/>
+      </c>
+      <c r="R78" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="S78" t="str">
+        <v/>
+      </c>
+      <c r="T78" t="str">
+        <v>316</v>
+      </c>
+      <c r="U78" t="str">
+        <v>SAID</v>
+      </c>
+      <c r="V78" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="W78" t="str">
+        <v>FATIHA</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="str">
+        <v>NOUGTI</v>
+      </c>
+      <c r="C79" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="D79" t="str">
+        <v>M</v>
+      </c>
+      <c r="E79" t="str">
+        <v>04/03/1985</v>
+      </c>
+      <c r="F79" t="str">
+        <v/>
+      </c>
+      <c r="G79" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="H79" t="str">
+        <v/>
+      </c>
+      <c r="I79" t="str">
+        <v>10</v>
+      </c>
+      <c r="J79" t="str">
+        <v>M</v>
+      </c>
+      <c r="K79" t="str">
+        <v>BELGACEM</v>
+      </c>
+      <c r="L79" t="str">
+        <v>DOUADI</v>
+      </c>
+      <c r="M79" t="str">
+        <v>MERIEM</v>
+      </c>
+      <c r="N79" t="str">
+        <v>NOUGTI</v>
+      </c>
+      <c r="O79" t="str">
+        <v>DJAMILA</v>
+      </c>
+      <c r="P79" t="str">
+        <v>27/02/1993</v>
+      </c>
+      <c r="Q79" t="str">
+        <v/>
+      </c>
+      <c r="R79" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="S79" t="str">
+        <v/>
+      </c>
+      <c r="T79" t="str">
+        <v>22</v>
+      </c>
+      <c r="U79" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="V79" t="str">
+        <v>RACHEDI</v>
+      </c>
+      <c r="W79" t="str">
+        <v>ZEHIRA</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="str">
+        <v>REZZAG HEBLA</v>
+      </c>
+      <c r="C80" t="str">
+        <v>SOUAD</v>
+      </c>
+      <c r="D80" t="str">
+        <v>F</v>
+      </c>
+      <c r="E80" t="str">
+        <v>20/06/1985</v>
+      </c>
+      <c r="F80" t="str">
+        <v/>
+      </c>
+      <c r="G80" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="H80" t="str">
+        <v/>
+      </c>
+      <c r="I80" t="str">
+        <v>311</v>
+      </c>
+      <c r="J80" t="str">
+        <v>C</v>
+      </c>
+      <c r="K80" t="str">
+        <v>TAYEB</v>
+      </c>
+      <c r="L80" t="str">
+        <v>BOUGHENAMA</v>
+      </c>
+      <c r="M80" t="str">
+        <v>KHIRA</v>
+      </c>
+      <c r="N80" t="str">
+        <v/>
+      </c>
+      <c r="O80" t="str">
+        <v/>
+      </c>
+      <c r="P80" t="str">
+        <v/>
+      </c>
+      <c r="Q80" t="str">
+        <v/>
+      </c>
+      <c r="R80" t="str">
+        <v/>
+      </c>
+      <c r="S80" t="str">
+        <v/>
+      </c>
+      <c r="T80" t="str">
+        <v/>
+      </c>
+      <c r="U80" t="str">
+        <v/>
+      </c>
+      <c r="V80" t="str">
+        <v/>
+      </c>
+      <c r="W80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="str">
+        <v>HANNOUF</v>
+      </c>
+      <c r="C81" t="str">
+        <v>REDOUANE</v>
+      </c>
+      <c r="D81" t="str">
+        <v>M</v>
+      </c>
+      <c r="E81" t="str">
+        <v>26/03/1975</v>
+      </c>
+      <c r="F81" t="str">
+        <v/>
+      </c>
+      <c r="G81" t="str">
+        <v>TAHIR-DJIDJEL</v>
+      </c>
+      <c r="H81" t="str">
+        <v/>
+      </c>
+      <c r="I81" t="str">
+        <v>362</v>
+      </c>
+      <c r="J81" t="str">
+        <v>M</v>
+      </c>
+      <c r="K81" t="str">
+        <v>ABDELKARIM</v>
+      </c>
+      <c r="L81" t="str">
+        <v>BEN SABERA</v>
+      </c>
+      <c r="M81" t="str">
+        <v>AKILA</v>
+      </c>
+      <c r="N81" t="str">
+        <v>HADEF</v>
+      </c>
+      <c r="O81" t="str">
+        <v>WAFIA</v>
+      </c>
+      <c r="P81" t="str">
+        <v>11/05/1983</v>
+      </c>
+      <c r="Q81" t="str">
+        <v/>
+      </c>
+      <c r="R81" t="str">
+        <v>DJIDJEL</v>
+      </c>
+      <c r="S81" t="str">
+        <v/>
+      </c>
+      <c r="T81" t="str">
+        <v>1373</v>
+      </c>
+      <c r="U81" t="str">
+        <v>MOULOUD</v>
+      </c>
+      <c r="V81" t="str">
+        <v>BOUIDER</v>
+      </c>
+      <c r="W81" t="str">
+        <v>AKILA</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="C82" t="str">
+        <v>LALIA</v>
+      </c>
+      <c r="D82" t="str">
+        <v>F</v>
+      </c>
+      <c r="E82" t="str">
+        <v>12/10/1980</v>
+      </c>
+      <c r="F82" t="str">
+        <v/>
+      </c>
+      <c r="G82" t="str">
+        <v>TOUGGOURT</v>
+      </c>
+      <c r="H82" t="str">
+        <v/>
+      </c>
+      <c r="I82" t="str">
+        <v>120</v>
+      </c>
+      <c r="J82" t="str">
+        <v>C</v>
+      </c>
+      <c r="K82" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="L82" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="M82" t="str">
+        <v>FATMA</v>
+      </c>
+      <c r="N82" t="str">
+        <v/>
+      </c>
+      <c r="O82" t="str">
+        <v/>
+      </c>
+      <c r="P82" t="str">
+        <v/>
+      </c>
+      <c r="Q82" t="str">
+        <v/>
+      </c>
+      <c r="R82" t="str">
+        <v/>
+      </c>
+      <c r="S82" t="str">
+        <v/>
+      </c>
+      <c r="T82" t="str">
+        <v/>
+      </c>
+      <c r="U82" t="str">
+        <v/>
+      </c>
+      <c r="V82" t="str">
+        <v/>
+      </c>
+      <c r="W82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="str">
+        <v>ABID</v>
+      </c>
+      <c r="C83" t="str">
+        <v>SALMA</v>
+      </c>
+      <c r="D83" t="str">
+        <v>F</v>
+      </c>
+      <c r="E83" t="str">
+        <v>20/05/1969</v>
+      </c>
+      <c r="F83" t="str">
+        <v/>
+      </c>
+      <c r="G83" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="H83" t="str">
+        <v/>
+      </c>
+      <c r="I83" t="str">
+        <v>163</v>
+      </c>
+      <c r="J83" t="str">
+        <v>C</v>
+      </c>
+      <c r="K83" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="L83" t="str">
+        <v>ABID</v>
+      </c>
+      <c r="M83" t="str">
+        <v>MEBROUKA</v>
+      </c>
+      <c r="N83" t="str">
+        <v/>
+      </c>
+      <c r="O83" t="str">
+        <v/>
+      </c>
+      <c r="P83" t="str">
+        <v/>
+      </c>
+      <c r="Q83" t="str">
+        <v/>
+      </c>
+      <c r="R83" t="str">
+        <v/>
+      </c>
+      <c r="S83" t="str">
+        <v/>
+      </c>
+      <c r="T83" t="str">
+        <v/>
+      </c>
+      <c r="U83" t="str">
+        <v/>
+      </c>
+      <c r="V83" t="str">
+        <v/>
+      </c>
+      <c r="W83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="C84" t="str">
+        <v>ZOHRA</v>
+      </c>
+      <c r="D84" t="str">
+        <v>F</v>
+      </c>
+      <c r="E84" t="str">
+        <v>25/12/1947</v>
+      </c>
+      <c r="F84" t="str">
+        <v/>
+      </c>
+      <c r="G84" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="H84" t="str">
+        <v/>
+      </c>
+      <c r="I84" t="str">
+        <v>3674</v>
+      </c>
+      <c r="J84" t="str">
+        <v>V</v>
+      </c>
+      <c r="K84" t="str">
+        <v>TIDJANI</v>
+      </c>
+      <c r="L84" t="str">
+        <v>TALBI</v>
+      </c>
+      <c r="M84" t="str">
+        <v>HALIMA</v>
+      </c>
+      <c r="N84" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="O84" t="str">
+        <v>DJEMOI</v>
+      </c>
+      <c r="P84" t="str">
+        <v>01/01/1937</v>
+      </c>
+      <c r="Q84" t="str">
+        <v/>
+      </c>
+      <c r="R84" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="S84" t="str">
+        <v/>
+      </c>
+      <c r="T84" t="str">
+        <v>494</v>
+      </c>
+      <c r="U84" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="V84" t="str">
+        <v>ATBI</v>
+      </c>
+      <c r="W84" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="str">
+        <v>BEDDIAF</v>
+      </c>
+      <c r="C85" t="str">
+        <v>KHADRA</v>
+      </c>
+      <c r="D85" t="str">
+        <v>F</v>
+      </c>
+      <c r="E85" t="str">
+        <v>15/03/1959</v>
+      </c>
+      <c r="F85" t="str">
+        <v/>
+      </c>
+      <c r="G85" t="str">
+        <v xml:space="preserve">TAIBET </v>
+      </c>
+      <c r="H85" t="str">
+        <v/>
+      </c>
+      <c r="I85" t="str">
+        <v>1507</v>
+      </c>
+      <c r="J85" t="str">
+        <v>D</v>
+      </c>
+      <c r="K85" t="str">
+        <v>LAID</v>
+      </c>
+      <c r="L85" t="str">
         <v>LAGGOUN</v>
       </c>
-      <c r="C75" t="str">
+      <c r="M85" t="str">
+        <v>AICHA</v>
+      </c>
+      <c r="N85" t="str">
+        <v/>
+      </c>
+      <c r="O85" t="str">
+        <v/>
+      </c>
+      <c r="P85" t="str">
+        <v/>
+      </c>
+      <c r="Q85" t="str">
+        <v/>
+      </c>
+      <c r="R85" t="str">
+        <v/>
+      </c>
+      <c r="S85" t="str">
+        <v/>
+      </c>
+      <c r="T85" t="str">
+        <v/>
+      </c>
+      <c r="U85" t="str">
+        <v/>
+      </c>
+      <c r="V85" t="str">
+        <v/>
+      </c>
+      <c r="W85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="C86" t="str">
+        <v xml:space="preserve">ALI  </v>
+      </c>
+      <c r="D86" t="str">
+        <v>M</v>
+      </c>
+      <c r="E86" t="str">
+        <v>27/10/1986</v>
+      </c>
+      <c r="F86" t="str">
+        <v/>
+      </c>
+      <c r="G86" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="H86" t="str">
+        <v/>
+      </c>
+      <c r="I86" t="str">
+        <v>333</v>
+      </c>
+      <c r="J86" t="str">
+        <v>M</v>
+      </c>
+      <c r="K86" t="str">
+        <v>AHMED</v>
+      </c>
+      <c r="L86" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="M86" t="str">
+        <v>MEBARKA</v>
+      </c>
+      <c r="N86" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="O86" t="str">
+        <v>NADJAT</v>
+      </c>
+      <c r="P86" t="str">
+        <v>20/01/1992</v>
+      </c>
+      <c r="Q86" t="str">
+        <v/>
+      </c>
+      <c r="R86" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="S86" t="str">
+        <v/>
+      </c>
+      <c r="T86" t="str">
+        <v>12</v>
+      </c>
+      <c r="U86" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="V86" t="str">
+        <v>MANSOURI</v>
+      </c>
+      <c r="W86" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="C87" t="str">
+        <v>ZOHRA</v>
+      </c>
+      <c r="D87" t="str">
+        <v>F</v>
+      </c>
+      <c r="E87" t="str">
+        <v>25/12/1947</v>
+      </c>
+      <c r="F87" t="str">
+        <v/>
+      </c>
+      <c r="G87" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="H87" t="str">
+        <v/>
+      </c>
+      <c r="I87" t="str">
+        <v>3674</v>
+      </c>
+      <c r="J87" t="str">
+        <v>V</v>
+      </c>
+      <c r="K87" t="str">
+        <v>TIDJANI</v>
+      </c>
+      <c r="L87" t="str">
+        <v>TALBI</v>
+      </c>
+      <c r="M87" t="str">
+        <v>HALIMA</v>
+      </c>
+      <c r="N87" t="str">
+        <v>AMMARI</v>
+      </c>
+      <c r="O87" t="str">
+        <v>DJEMOI</v>
+      </c>
+      <c r="P87" t="str">
+        <v>01/01/1937</v>
+      </c>
+      <c r="Q87" t="str">
+        <v/>
+      </c>
+      <c r="R87" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="S87" t="str">
+        <v/>
+      </c>
+      <c r="T87" t="str">
+        <v>494</v>
+      </c>
+      <c r="U87" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="V87" t="str">
+        <v>ATBI</v>
+      </c>
+      <c r="W87" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="str">
+        <v>GUEMMOULA</v>
+      </c>
+      <c r="C88" t="str">
+        <v>MESSAOUDA</v>
+      </c>
+      <c r="D88" t="str">
+        <v>F</v>
+      </c>
+      <c r="E88" t="str">
+        <v>15/05/1959</v>
+      </c>
+      <c r="F88" t="str">
+        <v/>
+      </c>
+      <c r="G88" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="H88" t="str">
+        <v/>
+      </c>
+      <c r="I88" t="str">
+        <v>1508</v>
+      </c>
+      <c r="J88" t="str">
+        <v>V</v>
+      </c>
+      <c r="K88" t="str">
+        <v>LAID</v>
+      </c>
+      <c r="L88" t="str">
+        <v>GUEMMOULA</v>
+      </c>
+      <c r="M88" t="str">
         <v>SALMA</v>
       </c>
-      <c r="D75" t="str">
+      <c r="N88" t="str">
+        <v>ZEGRIR</v>
+      </c>
+      <c r="O88" t="str">
+        <v>MOHAMMED ALI</v>
+      </c>
+      <c r="P88" t="str">
+        <v>22/10/1948</v>
+      </c>
+      <c r="Q88" t="str">
+        <v/>
+      </c>
+      <c r="R88" t="str">
+        <v>DJAMAA</v>
+      </c>
+      <c r="S88" t="str">
+        <v/>
+      </c>
+      <c r="T88" t="str">
+        <v>2439</v>
+      </c>
+      <c r="U88" t="str">
+        <v>MAMMAR</v>
+      </c>
+      <c r="V88" t="str">
+        <v>GUEMMOULA</v>
+      </c>
+      <c r="W88" t="str">
+        <v>AICHA</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="str">
+        <v>TOUAHRI</v>
+      </c>
+      <c r="C89" t="str">
+        <v>KHEIRA</v>
+      </c>
+      <c r="D89" t="str">
         <v>F</v>
       </c>
-      <c r="E75" t="str">
+      <c r="E89" t="str">
+        <v>01/01/1957</v>
+      </c>
+      <c r="F89" t="str">
+        <v/>
+      </c>
+      <c r="G89" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="H89" t="str">
+        <v/>
+      </c>
+      <c r="I89" t="str">
+        <v>237</v>
+      </c>
+      <c r="J89" t="str">
+        <v>V</v>
+      </c>
+      <c r="K89" t="str">
+        <v>BELGACEM</v>
+      </c>
+      <c r="L89" t="str">
+        <v>BEKKARI</v>
+      </c>
+      <c r="M89" t="str">
+        <v>KHADRA</v>
+      </c>
+      <c r="N89" t="str">
+        <v>ATTALI</v>
+      </c>
+      <c r="O89" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="P89" t="str">
+        <v>01/01/1930</v>
+      </c>
+      <c r="Q89" t="str">
+        <v/>
+      </c>
+      <c r="R89" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="S89" t="str">
+        <v/>
+      </c>
+      <c r="T89" t="str">
+        <v>503</v>
+      </c>
+      <c r="U89" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="V89" t="str">
+        <v>MADANI</v>
+      </c>
+      <c r="W89" t="str">
+        <v>FATMA</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="str">
+        <v>BENHANIA</v>
+      </c>
+      <c r="C90" t="str">
+        <v>RIM</v>
+      </c>
+      <c r="D90" t="str">
+        <v>F</v>
+      </c>
+      <c r="E90" t="str">
+        <v>05/02/1981</v>
+      </c>
+      <c r="F90" t="str">
+        <v/>
+      </c>
+      <c r="G90" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="H90" t="str">
+        <v/>
+      </c>
+      <c r="I90" t="str">
+        <v>112</v>
+      </c>
+      <c r="J90" t="str">
+        <v>D</v>
+      </c>
+      <c r="K90" t="str">
+        <v>MAMMAR</v>
+      </c>
+      <c r="L90" t="str">
+        <v>BEN HANIA</v>
+      </c>
+      <c r="M90" t="str">
+        <v>KHADIDJA</v>
+      </c>
+      <c r="N90" t="str">
+        <v/>
+      </c>
+      <c r="O90" t="str">
+        <v/>
+      </c>
+      <c r="P90" t="str">
+        <v/>
+      </c>
+      <c r="Q90" t="str">
+        <v/>
+      </c>
+      <c r="R90" t="str">
+        <v/>
+      </c>
+      <c r="S90" t="str">
+        <v/>
+      </c>
+      <c r="T90" t="str">
+        <v/>
+      </c>
+      <c r="U90" t="str">
+        <v/>
+      </c>
+      <c r="V90" t="str">
+        <v/>
+      </c>
+      <c r="W90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="str">
+        <v>ZIGHEM</v>
+      </c>
+      <c r="C91" t="str">
+        <v>NAZIHA</v>
+      </c>
+      <c r="D91" t="str">
+        <v>F</v>
+      </c>
+      <c r="E91" t="str">
+        <v>25/04/1984</v>
+      </c>
+      <c r="F91" t="str">
+        <v/>
+      </c>
+      <c r="G91" t="str">
+        <v>OUARGLA</v>
+      </c>
+      <c r="H91" t="str">
+        <v/>
+      </c>
+      <c r="I91" t="str">
+        <v>1210</v>
+      </c>
+      <c r="J91" t="str">
+        <v>M</v>
+      </c>
+      <c r="K91" t="str">
+        <v>MOHAMMED</v>
+      </c>
+      <c r="L91" t="str">
+        <v>DIDA</v>
+      </c>
+      <c r="M91" t="str">
+        <v>SALHA</v>
+      </c>
+      <c r="N91" t="str">
+        <v>DIDA</v>
+      </c>
+      <c r="O91" t="str">
+        <v>ABDELLATIF</v>
+      </c>
+      <c r="P91" t="str">
+        <v>06/02/1979</v>
+      </c>
+      <c r="Q91" t="str">
+        <v/>
+      </c>
+      <c r="R91" t="str">
+        <v>TOUGOURET</v>
+      </c>
+      <c r="S91" t="str">
+        <v/>
+      </c>
+      <c r="T91" t="str">
+        <v>110</v>
+      </c>
+      <c r="U91" t="str">
+        <v>LAID</v>
+      </c>
+      <c r="V91" t="str">
+        <v>DIDA</v>
+      </c>
+      <c r="W91" t="str">
+        <v>MESSAOUDA</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="str">
+        <v>LAGGOUN</v>
+      </c>
+      <c r="C92" t="str">
+        <v>SALMA</v>
+      </c>
+      <c r="D92" t="str">
+        <v>F</v>
+      </c>
+      <c r="E92" t="str">
         <v>03/06/1965</v>
       </c>
-      <c r="F75" t="str">
-        <v/>
-      </c>
-      <c r="G75" t="str">
-        <v>TAIBET</v>
-      </c>
-      <c r="H75" t="str">
-        <v/>
-      </c>
-      <c r="I75" t="str">
+      <c r="F92" t="str">
+        <v/>
+      </c>
+      <c r="G92" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="H92" t="str">
+        <v/>
+      </c>
+      <c r="I92" t="str">
         <v>123</v>
       </c>
-      <c r="J75" t="str">
+      <c r="J92" t="str">
         <v>V</v>
       </c>
-      <c r="K75" t="str">
+      <c r="K92" t="str">
         <v>AHMED</v>
       </c>
-      <c r="L75" t="str">
+      <c r="L92" t="str">
         <v>LAGGOUN</v>
       </c>
-      <c r="M75" t="str">
+      <c r="M92" t="str">
         <v>MERIEM</v>
       </c>
-      <c r="N75" t="str">
+      <c r="N92" t="str">
         <v>KHELIFA</v>
       </c>
-      <c r="O75" t="str">
+      <c r="O92" t="str">
         <v>LAICHE</v>
       </c>
-      <c r="P75" t="str">
+      <c r="P92" t="str">
         <v>01/01/1942</v>
       </c>
-      <c r="Q75" t="str">
-        <v/>
-      </c>
-      <c r="R75" t="str">
-        <v>TAIBET</v>
-      </c>
-      <c r="S75" t="str">
-        <v/>
-      </c>
-      <c r="T75" t="str">
-        <v/>
-      </c>
-      <c r="U75" t="str">
+      <c r="Q92" t="str">
+        <v/>
+      </c>
+      <c r="R92" t="str">
+        <v>TAIBET</v>
+      </c>
+      <c r="S92" t="str">
+        <v/>
+      </c>
+      <c r="T92" t="str">
+        <v/>
+      </c>
+      <c r="U92" t="str">
         <v>MOHAMED LAKHDAR</v>
       </c>
-      <c r="V75" t="str">
+      <c r="V92" t="str">
         <v>KHELFAOUI</v>
       </c>
-      <c r="W75" t="str">
+      <c r="W92" t="str">
         <v>MEBROUKA</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W75"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W92"/>
   </ignoredErrors>
 </worksheet>
 </file>